--- a/2017-01-01-2017-01-08.xlsx
+++ b/2017-01-01-2017-01-08.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="626" activeTab="8"/>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="B4" s="8">
         <f>IF(ISNA(VLOOKUP(A4,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A4,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A4,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A4,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A4,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A4,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A4,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A4,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="B5" s="8">
         <f>IF(ISNA(VLOOKUP(A5,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A5,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A5,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A5,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A5,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A5,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A5,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A5,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>289</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B6" s="8">
         <f>IF(ISNA(VLOOKUP(A6,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A6,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A6,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A6,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A6,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A6,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A6,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A6,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B12" s="8">
         <f>IF(ISNA(VLOOKUP(A12,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="B13" s="8">
         <f>IF(ISNA(VLOOKUP(A13,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A13,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A13,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A13,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A13,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A13,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A13,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A13,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="B17" s="8">
         <f>IF(ISNA(VLOOKUP(A17,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A17,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A17,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A17,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A17,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A17,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A17,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A17,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24280,7 +24280,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24360,24 +24360,24 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="str">
-        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
-        <v>南宫絮语</v>
+        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
+        <v>零拾</v>
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>182</v>
+        <v>668</v>
       </c>
       <c r="C3" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D3" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A3)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>342</v>
+        <v>848</v>
       </c>
       <c r="F3" s="20">
         <f>IF(ISNA(E3),0,IF(AND(E3&gt;15,E3&lt;66),0.01,IF(E3&gt;316,6,ROUNDDOWN((E3-16)/50,0))))</f>
@@ -24385,7 +24385,7 @@
       </c>
       <c r="G3" s="8">
         <f>IF(F3=0.01,E3-16,E3-F3*50)</f>
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -24395,24 +24395,24 @@
     </row>
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9" t="str">
-        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
-        <v>零拾</v>
+        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A7)))&amp;""</f>
+        <v>小草包的狼哥哥</v>
       </c>
       <c r="B4" s="4">
         <f>VLOOKUP(A4,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>668</v>
+        <v>248</v>
       </c>
       <c r="C4" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D4" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A4)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>848</v>
+        <v>328</v>
       </c>
       <c r="F4" s="20">
         <f>IF(ISNA(E4),0,IF(AND(E4&gt;15,E4&lt;66),0.01,IF(E4&gt;316,6,ROUNDDOWN((E4-16)/50,0))))</f>
@@ -24420,29 +24420,29 @@
       </c>
       <c r="G4" s="8">
         <f>IF(F4=0.01,E4-16,E4-F4*50)</f>
-        <v>548</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9" t="str">
-        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
-        <v>我就不讲道理哼</v>
+        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
+        <v>木清。</v>
       </c>
       <c r="B5" s="4">
         <f>VLOOKUP(A5,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C5" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D5" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A5)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="F5" s="20">
         <f>IF(ISNA(E5),0,IF(AND(E5&gt;15,E5&lt;66),0.01,IF(E5&gt;316,6,ROUNDDOWN((E5-16)/50,0))))</f>
@@ -24450,17 +24450,17 @@
       </c>
       <c r="G5" s="8">
         <f>IF(F5=0.01,E5-16,E5-F5*50)</f>
-        <v>151</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9" t="str">
-        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A2)))&amp;""</f>
-        <v>梦觞丶</v>
+        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
+        <v>我就不讲道理哼</v>
       </c>
       <c r="B6" s="4">
         <f>VLOOKUP(A6,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="C6" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
@@ -24468,11 +24468,11 @@
       </c>
       <c r="D6" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A6)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>620</v>
+        <v>451</v>
       </c>
       <c r="F6" s="20">
         <f>IF(ISNA(E6),0,IF(AND(E6&gt;15,E6&lt;66),0.01,IF(E6&gt;316,6,ROUNDDOWN((E6-16)/50,0))))</f>
@@ -24480,17 +24480,17 @@
       </c>
       <c r="G6" s="8">
         <f>IF(F6=0.01,E6-16,E6-F6*50)</f>
-        <v>320</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9" t="str">
-        <f t="array" ref="A7">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A4)))&amp;""</f>
-        <v>ヅ醉晴空</v>
+        <f t="array" ref="A7">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
+        <v>一时春色</v>
       </c>
       <c r="B7" s="4">
         <f>VLOOKUP(A7,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A7,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A7,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="C7" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
@@ -24502,7 +24502,7 @@
       </c>
       <c r="E7" s="20">
         <f>SUM(B7:D7)</f>
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="F7" s="20">
         <f>IF(ISNA(E7),0,IF(AND(E7&gt;15,E7&lt;66),0.01,IF(E7&gt;316,6,ROUNDDOWN((E7-16)/50,0))))</f>
@@ -24510,29 +24510,29 @@
       </c>
       <c r="G7" s="8">
         <f>IF(F7=0.01,E7-16,E7-F7*50)</f>
-        <v>212</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9" t="str">
-        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A7)))&amp;""</f>
-        <v>小草包的狼哥哥</v>
+        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
+        <v>ヅ伴烟萝</v>
       </c>
       <c r="B8" s="4">
         <f>VLOOKUP(A8,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C8" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D8" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A8)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8" s="20">
         <f>SUM(B8:D8)</f>
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="F8" s="20">
         <f>IF(ISNA(E8),0,IF(AND(E8&gt;15,E8&lt;66),0.01,IF(E8&gt;316,6,ROUNDDOWN((E8-16)/50,0))))</f>
@@ -24540,17 +24540,17 @@
       </c>
       <c r="G8" s="8">
         <f>IF(F8=0.01,E8-16,E8-F8*50)</f>
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9" t="str">
-        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
-        <v>木清。</v>
+        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
+        <v>〆神原秋人</v>
       </c>
       <c r="B9" s="4">
         <f>VLOOKUP(A9,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C9" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
@@ -24558,11 +24558,11 @@
       </c>
       <c r="D9" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A9)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9" s="20">
         <f>SUM(B9:D9)</f>
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F9" s="20">
         <f>IF(ISNA(E9),0,IF(AND(E9&gt;15,E9&lt;66),0.01,IF(E9&gt;316,6,ROUNDDOWN((E9-16)/50,0))))</f>
@@ -24570,29 +24570,29 @@
       </c>
       <c r="G9" s="8">
         <f>IF(F9=0.01,E9-16,E9-F9*50)</f>
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9" t="str">
-        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
-        <v>ヅ伴烟萝</v>
+        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
+        <v>牛奶奶奶奶</v>
       </c>
       <c r="B10" s="4">
         <f>VLOOKUP(A10,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C10" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D10" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A10)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="20">
         <f>SUM(B10:D10)</f>
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="F10" s="20">
         <f>IF(ISNA(E10),0,IF(AND(E10&gt;15,E10&lt;66),0.01,IF(E10&gt;316,6,ROUNDDOWN((E10-16)/50,0))))</f>
@@ -24600,29 +24600,29 @@
       </c>
       <c r="G10" s="8">
         <f>IF(F10=0.01,E10-16,E10-F10*50)</f>
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9" t="str">
-        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
-        <v>〆神原秋人</v>
+        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
+        <v>南宫絮语</v>
       </c>
       <c r="B11" s="4">
         <f>VLOOKUP(A11,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="C11" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A11)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20">
         <f>SUM(B11:D11)</f>
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F11" s="20">
         <f>IF(ISNA(E11),0,IF(AND(E11&gt;15,E11&lt;66),0.01,IF(E11&gt;316,6,ROUNDDOWN((E11-16)/50,0))))</f>
@@ -24630,17 +24630,17 @@
       </c>
       <c r="G11" s="8">
         <f>IF(F11=0.01,E11-16,E11-F11*50)</f>
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9" t="str">
-        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
-        <v>牛奶奶奶奶</v>
+        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
+        <v>墨河</v>
       </c>
       <c r="B12" s="4">
         <f>VLOOKUP(A12,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C12" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
@@ -24648,11 +24648,11 @@
       </c>
       <c r="D12" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A12)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" s="20">
         <f>SUM(B12:D12)</f>
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="F12" s="20">
         <f>IF(ISNA(E12),0,IF(AND(E12&gt;15,E12&lt;66),0.01,IF(E12&gt;316,6,ROUNDDOWN((E12-16)/50,0))))</f>
@@ -24660,137 +24660,137 @@
       </c>
       <c r="G12" s="8">
         <f>IF(F12=0.01,E12-16,E12-F12*50)</f>
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9" t="str">
-        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
-        <v>墨河</v>
+        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
+        <v>琴织儿</v>
       </c>
       <c r="B13" s="4">
         <f>VLOOKUP(A13,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D13" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A13)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E13" s="20">
         <f>SUM(B13:D13)</f>
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="F13" s="20">
         <f>IF(ISNA(E13),0,IF(AND(E13&gt;15,E13&lt;66),0.01,IF(E13&gt;316,6,ROUNDDOWN((E13-16)/50,0))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8">
         <f>IF(F13=0.01,E13-16,E13-F13*50)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9" t="str">
-        <f t="array" ref="A14">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A3)))&amp;""</f>
-        <v>浪迹小秦</v>
+        <f t="array" ref="A14">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
+        <v>梦寻千古香ゝ</v>
       </c>
       <c r="B14" s="4">
         <f>VLOOKUP(A14,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A14,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A14,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C14" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D14" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A14)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E14" s="20">
         <f>SUM(B14:D14)</f>
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="F14" s="20">
         <f>IF(ISNA(E14),0,IF(AND(E14&gt;15,E14&lt;66),0.01,IF(E14&gt;316,6,ROUNDDOWN((E14-16)/50,0))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="8">
         <f>IF(F14=0.01,E14-16,E14-F14*50)</f>
-        <v>186</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9" t="str">
-        <f t="array" ref="A15">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A1)))&amp;""</f>
-        <v>漓泉一九九八</v>
+        <f t="array" ref="A15">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
+        <v>花炮炮炮炮</v>
       </c>
       <c r="B15" s="4">
         <f>VLOOKUP(A15,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A15,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A15,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="C15" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D15" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A15)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="20">
         <f>SUM(B15:D15)</f>
-        <v>598</v>
+        <v>263</v>
       </c>
       <c r="F15" s="20">
         <f>IF(ISNA(E15),0,IF(AND(E15&gt;15,E15&lt;66),0.01,IF(E15&gt;316,6,ROUNDDOWN((E15-16)/50,0))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="8">
         <f>IF(F15=0.01,E15-16,E15-F15*50)</f>
-        <v>298</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9" t="str">
-        <f t="array" ref="A16">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
-        <v>一时春色</v>
+        <f t="array" ref="A16">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
+        <v>栖零刻</v>
       </c>
       <c r="B16" s="4">
         <f>VLOOKUP(A16,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A16,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A16,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="C16" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D16" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A16)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E16" s="20">
         <f>SUM(B16:D16)</f>
-        <v>421</v>
+        <v>229</v>
       </c>
       <c r="F16" s="20">
         <f>IF(ISNA(E16),0,IF(AND(E16&gt;15,E16&lt;66),0.01,IF(E16&gt;316,6,ROUNDDOWN((E16-16)/50,0))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
         <f>IF(F16=0.01,E16-16,E16-F16*50)</f>
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="9" t="str">
-        <f t="array" ref="A17">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
-        <v>梦寻千古香ゝ</v>
+        <f t="array" ref="A17">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A20)))&amp;""</f>
+        <v>茨木与酒吞与狗</v>
       </c>
       <c r="B17" s="4">
         <f>VLOOKUP(A17,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A17,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A17,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="C17" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
@@ -24798,11 +24798,11 @@
       </c>
       <c r="D17" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A17)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E17" s="20">
         <f>SUM(B17:D17)</f>
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="F17" s="20">
         <f>IF(ISNA(E17),0,IF(AND(E17&gt;15,E17&lt;66),0.01,IF(E17&gt;316,6,ROUNDDOWN((E17-16)/50,0))))</f>
@@ -24810,17 +24810,17 @@
       </c>
       <c r="G17" s="8">
         <f>IF(F17=0.01,E17-16,E17-F17*50)</f>
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="9" t="str">
-        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
-        <v>栖零刻</v>
+        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
+        <v>潇萧雨未歇</v>
       </c>
       <c r="B18" s="4">
         <f>VLOOKUP(A18,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C18" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
@@ -24832,85 +24832,85 @@
       </c>
       <c r="E18" s="20">
         <f>SUM(B18:D18)</f>
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F18" s="20">
         <f>IF(ISNA(E18),0,IF(AND(E18&gt;15,E18&lt;66),0.01,IF(E18&gt;316,6,ROUNDDOWN((E18-16)/50,0))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="8">
         <f>IF(F18=0.01,E18-16,E18-F18*50)</f>
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9" t="str">
-        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
-        <v>琴织儿</v>
+        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
+        <v>〆栗山未来</v>
       </c>
       <c r="B19" s="4">
         <f>VLOOKUP(A19,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C19" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A19)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E19" s="20">
         <f>SUM(B19:D19)</f>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F19" s="20">
         <f>IF(ISNA(E19),0,IF(AND(E19&gt;15,E19&lt;66),0.01,IF(E19&gt;316,6,ROUNDDOWN((E19-16)/50,0))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="8">
         <f>IF(F19=0.01,E19-16,E19-F19*50)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="9" t="str">
-        <f t="array" ref="A20">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
-        <v>花炮炮炮炮</v>
+        <f t="array" ref="A20">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A23)))&amp;""</f>
+        <v>时钟轻摇孤独</v>
       </c>
       <c r="B20" s="4">
         <f>VLOOKUP(A20,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A20,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A20,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C20" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D20" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A20)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E20" s="20">
         <f>SUM(B20:D20)</f>
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="F20" s="20">
         <f>IF(ISNA(E20),0,IF(AND(E20&gt;15,E20&lt;66),0.01,IF(E20&gt;316,6,ROUNDDOWN((E20-16)/50,0))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="8">
         <f>IF(F20=0.01,E20-16,E20-F20*50)</f>
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="9" t="str">
-        <f t="array" ref="A21">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A20)))&amp;""</f>
-        <v>茨木与酒吞与狗</v>
+        <f t="array" ref="A21">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A24)))&amp;""</f>
+        <v>雪の下八幡</v>
       </c>
       <c r="B21" s="4">
         <f>VLOOKUP(A21,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A21,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A21,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C21" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
@@ -24922,15 +24922,15 @@
       </c>
       <c r="E21" s="20">
         <f>SUM(B21:D21)</f>
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F21" s="20">
         <f>IF(ISNA(E21),0,IF(AND(E21&gt;15,E21&lt;66),0.01,IF(E21&gt;316,6,ROUNDDOWN((E21-16)/50,0))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="8">
         <f>IF(F21=0.01,E21-16,E21-F21*50)</f>
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5">
@@ -24965,24 +24965,24 @@
     </row>
     <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="9" t="str">
-        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
-        <v>〆栗山未来</v>
+        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A31)))&amp;""</f>
+        <v>神荼夜</v>
       </c>
       <c r="B23" s="4">
         <f>VLOOKUP(A23,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C23" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D23" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A23)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" s="20">
         <f>SUM(B23:D23)</f>
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F23" s="20">
         <f>IF(ISNA(E23),0,IF(AND(E23&gt;15,E23&lt;66),0.01,IF(E23&gt;316,6,ROUNDDOWN((E23-16)/50,0))))</f>
@@ -24990,21 +24990,21 @@
       </c>
       <c r="G23" s="8">
         <f>IF(F23=0.01,E23-16,E23-F23*50)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="9" t="str">
-        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A23)))&amp;""</f>
-        <v>时钟轻摇孤独</v>
+        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A22)))&amp;""</f>
+        <v>鲜虾鱼板很Q弹</v>
       </c>
       <c r="B24" s="4">
         <f>VLOOKUP(A24,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C24" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D24" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A24)</f>
@@ -25012,29 +25012,29 @@
       </c>
       <c r="E24" s="20">
         <f>SUM(B24:D24)</f>
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F24" s="20">
         <f>IF(ISNA(E24),0,IF(AND(E24&gt;15,E24&lt;66),0.01,IF(E24&gt;316,6,ROUNDDOWN((E24-16)/50,0))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="8">
         <f>IF(F24=0.01,E24-16,E24-F24*50)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="9" t="str">
-        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A31)))&amp;""</f>
-        <v>神荼夜</v>
+        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
+        <v>素蝶</v>
       </c>
       <c r="B25" s="4">
         <f>VLOOKUP(A25,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C25" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D25" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A25)</f>
@@ -25042,29 +25042,29 @@
       </c>
       <c r="E25" s="20">
         <f>SUM(B25:D25)</f>
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="F25" s="20">
         <f>IF(ISNA(E25),0,IF(AND(E25&gt;15,E25&lt;66),0.01,IF(E25&gt;316,6,ROUNDDOWN((E25-16)/50,0))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="8">
         <f>IF(F25=0.01,E25-16,E25-F25*50)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="9" t="str">
-        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
-        <v>潇萧雨未歇</v>
+        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A27)))&amp;""</f>
+        <v>不见青山</v>
       </c>
       <c r="B26" s="4">
         <f>VLOOKUP(A26,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C26" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D26" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A26)</f>
@@ -25072,55 +25072,55 @@
       </c>
       <c r="E26" s="20">
         <f>SUM(B26:D26)</f>
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="F26" s="20">
         <f>IF(ISNA(E26),0,IF(AND(E26&gt;15,E26&lt;66),0.01,IF(E26&gt;316,6,ROUNDDOWN((E26-16)/50,0))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="8">
         <f>IF(F26=0.01,E26-16,E26-F26*50)</f>
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="9" t="str">
-        <f t="array" ref="A27">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A24)))&amp;""</f>
-        <v>雪の下八幡</v>
+        <f t="array" ref="A27">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A28)))&amp;""</f>
+        <v>机智的兰兰</v>
       </c>
       <c r="B27" s="4">
         <f>VLOOKUP(A27,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A27,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A27,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C27" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D27" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A27)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E27" s="20">
         <f>SUM(B27:D27)</f>
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="F27" s="20">
         <f>IF(ISNA(E27),0,IF(AND(E27&gt;15,E27&lt;66),0.01,IF(E27&gt;316,6,ROUNDDOWN((E27-16)/50,0))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8">
         <f>IF(F27=0.01,E27-16,E27-F27*50)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="9" t="str">
-        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A22)))&amp;""</f>
-        <v>鲜虾鱼板很Q弹</v>
+        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
+        <v>千古风流一坛醋</v>
       </c>
       <c r="B28" s="4">
         <f>VLOOKUP(A28,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C28" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
@@ -25128,29 +25128,29 @@
       </c>
       <c r="D28" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A28)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E28" s="20">
         <f>SUM(B28:D28)</f>
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F28" s="20">
         <f>IF(ISNA(E28),0,IF(AND(E28&gt;15,E28&lt;66),0.01,IF(E28&gt;316,6,ROUNDDOWN((E28-16)/50,0))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="8">
         <f>IF(F28=0.01,E28-16,E28-F28*50)</f>
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="9" t="str">
-        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
-        <v>素蝶</v>
+        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A33)))&amp;""</f>
+        <v>飒爽的专家</v>
       </c>
       <c r="B29" s="4">
         <f>VLOOKUP(A29,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C29" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
@@ -25162,25 +25162,25 @@
       </c>
       <c r="E29" s="20">
         <f>SUM(B29:D29)</f>
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F29" s="20">
         <f>IF(ISNA(E29),0,IF(AND(E29&gt;15,E29&lt;66),0.01,IF(E29&gt;316,6,ROUNDDOWN((E29-16)/50,0))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="8">
         <f>IF(F29=0.01,E29-16,E29-F29*50)</f>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="9" t="str">
-        <f t="array" ref="A30">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A28)))&amp;""</f>
-        <v>机智的兰兰</v>
+        <f t="array" ref="A30">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A34)))&amp;""</f>
+        <v>冥辕</v>
       </c>
       <c r="B30" s="4">
         <f>VLOOKUP(A30,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A30,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A30,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C30" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="E30" s="20">
         <f>SUM(B30:D30)</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F30" s="20">
         <f>IF(ISNA(E30),0,IF(AND(E30&gt;15,E30&lt;66),0.01,IF(E30&gt;316,6,ROUNDDOWN((E30-16)/50,0))))</f>
@@ -25200,21 +25200,21 @@
       </c>
       <c r="G30" s="8">
         <f>IF(F30=0.01,E30-16,E30-F30*50)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="9" t="str">
-        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A33)))&amp;""</f>
-        <v>飒爽的专家</v>
+        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
+        <v>小仙女上天吗</v>
       </c>
       <c r="B31" s="4">
         <f>VLOOKUP(A31,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C31" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D31" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A31)</f>
@@ -25222,7 +25222,7 @@
       </c>
       <c r="E31" s="20">
         <f>SUM(B31:D31)</f>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F31" s="20">
         <f>IF(ISNA(E31),0,IF(AND(E31&gt;15,E31&lt;66),0.01,IF(E31&gt;316,6,ROUNDDOWN((E31-16)/50,0))))</f>
@@ -25230,21 +25230,21 @@
       </c>
       <c r="G31" s="8">
         <f>IF(F31=0.01,E31-16,E31-F31*50)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="9" t="str">
-        <f t="array" ref="A32">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A27)))&amp;""</f>
-        <v>不见青山</v>
+        <f t="array" ref="A32">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
+        <v>君莘妍</v>
       </c>
       <c r="B32" s="4">
         <f>VLOOKUP(A32,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A32,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A32,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C32" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D32" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A32)</f>
@@ -25265,24 +25265,24 @@
     </row>
     <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="9" t="str">
-        <f t="array" ref="A33">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
-        <v>千古风流一坛醋</v>
+        <f t="array" ref="A33">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
+        <v>赵昊昌</v>
       </c>
       <c r="B33" s="4">
         <f>VLOOKUP(A33,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A33,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A33,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C33" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D33" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A33)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(B33:D33)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F33" s="20">
         <f>IF(ISNA(E33),0,IF(AND(E33&gt;15,E33&lt;66),0.01,IF(E33&gt;316,6,ROUNDDOWN((E33-16)/50,0))))</f>
@@ -25290,21 +25290,21 @@
       </c>
       <c r="G33" s="8">
         <f>IF(F33=0.01,E33-16,E33-F33*50)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="9" t="str">
-        <f t="array" ref="A34">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A34)))&amp;""</f>
-        <v>冥辕</v>
+        <f t="array" ref="A34">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A29)))&amp;""</f>
+        <v>一舞翩照影</v>
       </c>
       <c r="B34" s="4">
         <f>VLOOKUP(A34,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A34,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A34,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C34" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D34" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A34)</f>
@@ -25312,25 +25312,25 @@
       </c>
       <c r="E34" s="20">
         <f>SUM(B34:D34)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F34" s="20">
         <f>IF(ISNA(E34),0,IF(AND(E34&gt;15,E34&lt;66),0.01,IF(E34&gt;316,6,ROUNDDOWN((E34-16)/50,0))))</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G34" s="8">
         <f>IF(F34=0.01,E34-16,E34-F34*50)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="9" t="str">
-        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
-        <v>小仙女上天吗</v>
+        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
+        <v>ޓ已暮暮ޓ</v>
       </c>
       <c r="B35" s="4">
         <f>VLOOKUP(A35,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C35" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
@@ -25342,21 +25342,21 @@
       </c>
       <c r="E35" s="20">
         <f>SUM(B35:D35)</f>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F35" s="20">
         <f>IF(ISNA(E35),0,IF(AND(E35&gt;15,E35&lt;66),0.01,IF(E35&gt;316,6,ROUNDDOWN((E35-16)/50,0))))</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G35" s="8">
         <f>IF(F35=0.01,E35-16,E35-F35*50)</f>
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="9" t="str">
-        <f t="array" ref="A36">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
-        <v>君莘妍</v>
+        <f t="array" ref="A36">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A37)))&amp;""</f>
+        <v>偶盖伦贼6丶</v>
       </c>
       <c r="B36" s="4">
         <f>VLOOKUP(A36,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A36,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A36,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="C36" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D36" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A36)</f>
@@ -25372,29 +25372,29 @@
       </c>
       <c r="E36" s="20">
         <f>SUM(B36:D36)</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F36" s="20">
         <f>IF(ISNA(E36),0,IF(AND(E36&gt;15,E36&lt;66),0.01,IF(E36&gt;316,6,ROUNDDOWN((E36-16)/50,0))))</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G36" s="8">
         <f>IF(F36=0.01,E36-16,E36-F36*50)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="9" t="str">
-        <f t="array" ref="A37">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
-        <v>赵昊昌</v>
+        <f t="array" ref="A37">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
+        <v>刀锋之影丶尧</v>
       </c>
       <c r="B37" s="4">
         <f>VLOOKUP(A37,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A37,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A37,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C37" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D37" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A37)</f>
@@ -25402,21 +25402,21 @@
       </c>
       <c r="E37" s="20">
         <f>SUM(B37:D37)</f>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F37" s="20">
         <f>IF(ISNA(E37),0,IF(AND(E37&gt;15,E37&lt;66),0.01,IF(E37&gt;316,6,ROUNDDOWN((E37-16)/50,0))))</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G37" s="8">
         <f>IF(F37=0.01,E37-16,E37-F37*50)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="9" t="str">
-        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A37)))&amp;""</f>
-        <v>偶盖伦贼6丶</v>
+        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
+        <v>宇文瀚ゝ</v>
       </c>
       <c r="B38" s="4">
         <f>VLOOKUP(A38,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25445,12 +25445,12 @@
     </row>
     <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="9" t="str">
-        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A29)))&amp;""</f>
-        <v>一舞翩照影</v>
+        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
+        <v>沉默的天使</v>
       </c>
       <c r="B39" s="4">
         <f>VLOOKUP(A39,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C39" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="E39" s="20">
         <f>SUM(B39:D39)</f>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F39" s="20">
         <f>IF(ISNA(E39),0,IF(AND(E39&gt;15,E39&lt;66),0.01,IF(E39&gt;316,6,ROUNDDOWN((E39-16)/50,0))))</f>
@@ -25470,17 +25470,17 @@
       </c>
       <c r="G39" s="8">
         <f>IF(F39=0.01,E39-16,E39-F39*50)</f>
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="9" t="str">
-        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
-        <v>ޓ已暮暮ޓ</v>
+        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
+        <v>请叫我小五哥</v>
       </c>
       <c r="B40" s="4">
         <f>VLOOKUP(A40,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C40" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
@@ -25492,7 +25492,7 @@
       </c>
       <c r="E40" s="20">
         <f>SUM(B40:D40)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F40" s="20">
         <f>IF(ISNA(E40),0,IF(AND(E40&gt;15,E40&lt;66),0.01,IF(E40&gt;316,6,ROUNDDOWN((E40-16)/50,0))))</f>
@@ -25500,17 +25500,17 @@
       </c>
       <c r="G40" s="8">
         <f>IF(F40=0.01,E40-16,E40-F40*50)</f>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="9" t="str">
-        <f t="array" ref="A41">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
-        <v>刀锋之影丶尧</v>
+        <f t="array" ref="A41">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
+        <v>一只大狼狗</v>
       </c>
       <c r="B41" s="4">
         <f>VLOOKUP(A41,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A41,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A41,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C41" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
@@ -25522,7 +25522,7 @@
       </c>
       <c r="E41" s="20">
         <f>SUM(B41:D41)</f>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F41" s="20">
         <f>IF(ISNA(E41),0,IF(AND(E41&gt;15,E41&lt;66),0.01,IF(E41&gt;316,6,ROUNDDOWN((E41-16)/50,0))))</f>
@@ -25530,17 +25530,17 @@
       </c>
       <c r="G41" s="8">
         <f>IF(F41=0.01,E41-16,E41-F41*50)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="9" t="str">
-        <f t="array" ref="A42">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
-        <v>宇文瀚ゝ</v>
+        <f t="array" ref="A42">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
+        <v>一曲入惊鸿</v>
       </c>
       <c r="B42" s="4">
         <f>VLOOKUP(A42,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A42,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A42,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C42" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
@@ -25552,7 +25552,7 @@
       </c>
       <c r="E42" s="20">
         <f>SUM(B42:D42)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F42" s="20">
         <f>IF(ISNA(E42),0,IF(AND(E42&gt;15,E42&lt;66),0.01,IF(E42&gt;316,6,ROUNDDOWN((E42-16)/50,0))))</f>
@@ -25560,17 +25560,17 @@
       </c>
       <c r="G42" s="8">
         <f>IF(F42=0.01,E42-16,E42-F42*50)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="9" t="str">
-        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
-        <v>沉默的天使</v>
+        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
+        <v>糖小妖ゞ</v>
       </c>
       <c r="B43" s="4">
         <f>VLOOKUP(A43,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C43" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="E43" s="20">
         <f>SUM(B43:D43)</f>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F43" s="20">
         <f>IF(ISNA(E43),0,IF(AND(E43&gt;15,E43&lt;66),0.01,IF(E43&gt;316,6,ROUNDDOWN((E43-16)/50,0))))</f>
@@ -25590,13 +25590,13 @@
       </c>
       <c r="G43" s="8">
         <f>IF(F43=0.01,E43-16,E43-F43*50)</f>
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="9" t="str">
-        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
-        <v>一只大狼狗</v>
+        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
+        <v>Mr丶J丨</v>
       </c>
       <c r="B44" s="4">
         <f>VLOOKUP(A44,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25625,12 +25625,12 @@
     </row>
     <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="9" t="str">
-        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
-        <v>Mr丶J丨</v>
+        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
+        <v>叨叨</v>
       </c>
       <c r="B45" s="4">
         <f>VLOOKUP(A45,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C45" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
@@ -25642,7 +25642,7 @@
       </c>
       <c r="E45" s="20">
         <f>SUM(B45:D45)</f>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20">
         <f>IF(ISNA(E45),0,IF(AND(E45&gt;15,E45&lt;66),0.01,IF(E45&gt;316,6,ROUNDDOWN((E45-16)/50,0))))</f>
@@ -25650,7 +25650,7 @@
       </c>
       <c r="G45" s="8">
         <f>IF(F45=0.01,E45-16,E45-F45*50)</f>
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5">
@@ -25685,12 +25685,12 @@
     </row>
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="9" t="str">
-        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A135)))&amp;""</f>
-        <v>陨星泪</v>
+        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
+        <v>渡亡</v>
       </c>
       <c r="B47" s="4">
         <f>VLOOKUP(A47,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C47" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
@@ -25702,7 +25702,7 @@
       </c>
       <c r="E47" s="20">
         <f>SUM(B47:D47)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F47" s="20">
         <f>IF(ISNA(E47),0,IF(AND(E47&gt;15,E47&lt;66),0.01,IF(E47&gt;316,6,ROUNDDOWN((E47-16)/50,0))))</f>
@@ -25710,17 +25710,17 @@
       </c>
       <c r="G47" s="8">
         <f>IF(F47=0.01,E47-16,E47-F47*50)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="9" t="str">
-        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
-        <v>请叫我小五哥</v>
+        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A135)))&amp;""</f>
+        <v>陨星泪</v>
       </c>
       <c r="B48" s="4">
         <f>VLOOKUP(A48,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C48" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
@@ -25732,7 +25732,7 @@
       </c>
       <c r="E48" s="20">
         <f>SUM(B48:D48)</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F48" s="20">
         <f>IF(ISNA(E48),0,IF(AND(E48&gt;15,E48&lt;66),0.01,IF(E48&gt;316,6,ROUNDDOWN((E48-16)/50,0))))</f>
@@ -25740,17 +25740,17 @@
       </c>
       <c r="G48" s="8">
         <f>IF(F48=0.01,E48-16,E48-F48*50)</f>
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="9" t="str">
-        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
-        <v>一曲入惊鸿</v>
+        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
+        <v>慕落弦</v>
       </c>
       <c r="B49" s="4">
         <f>VLOOKUP(A49,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C49" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
@@ -25762,25 +25762,25 @@
       </c>
       <c r="E49" s="20">
         <f>SUM(B49:D49)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F49" s="20">
         <f>IF(ISNA(E49),0,IF(AND(E49&gt;15,E49&lt;66),0.01,IF(E49&gt;316,6,ROUNDDOWN((E49-16)/50,0))))</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <f>IF(F49=0.01,E49-16,E49-F49*50)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="9" t="str">
-        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
-        <v>糖小妖ゞ</v>
+        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
+        <v>√蓝莓巧克力丶</v>
       </c>
       <c r="B50" s="4">
         <f>VLOOKUP(A50,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
@@ -25792,25 +25792,25 @@
       </c>
       <c r="E50" s="20">
         <f>SUM(B50:D50)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F50" s="20">
         <f>IF(ISNA(E50),0,IF(AND(E50&gt;15,E50&lt;66),0.01,IF(E50&gt;316,6,ROUNDDOWN((E50-16)/50,0))))</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8">
         <f>IF(F50=0.01,E50-16,E50-F50*50)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="9" t="str">
-        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
-        <v>叨叨</v>
+        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
+        <v>QQ绿钻</v>
       </c>
       <c r="B51" s="4">
         <f>VLOOKUP(A51,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C51" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
@@ -25822,25 +25822,25 @@
       </c>
       <c r="E51" s="20">
         <f>SUM(B51:D51)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F51" s="20">
         <f>IF(ISNA(E51),0,IF(AND(E51&gt;15,E51&lt;66),0.01,IF(E51&gt;316,6,ROUNDDOWN((E51-16)/50,0))))</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <f>IF(F51=0.01,E51-16,E51-F51*50)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5">
       <c r="A52" s="9" t="str">
-        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
-        <v>渡亡</v>
+        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
+        <v>ZzEvi11qRuxi</v>
       </c>
       <c r="B52" s="4">
         <f>VLOOKUP(A52,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C52" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
@@ -25852,21 +25852,21 @@
       </c>
       <c r="E52" s="20">
         <f>SUM(B52:D52)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F52" s="20">
         <f>IF(ISNA(E52),0,IF(AND(E52&gt;15,E52&lt;66),0.01,IF(E52&gt;316,6,ROUNDDOWN((E52-16)/50,0))))</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <f>IF(F52=0.01,E52-16,E52-F52*50)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5">
       <c r="A53" s="9" t="str">
-        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
-        <v>QQ绿钻</v>
+        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
+        <v>上去就是一插</v>
       </c>
       <c r="B53" s="4">
         <f>VLOOKUP(A53,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25895,12 +25895,12 @@
     </row>
     <row r="54" spans="1:7" ht="16.5">
       <c r="A54" s="9" t="str">
-        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
-        <v>五圆</v>
+        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
+        <v>与尔同销萬古愁</v>
       </c>
       <c r="B54" s="4">
         <f>VLOOKUP(A54,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C54" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
@@ -25912,7 +25912,7 @@
       </c>
       <c r="E54" s="20">
         <f>SUM(B54:D54)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F54" s="20">
         <f>IF(ISNA(E54),0,IF(AND(E54&gt;15,E54&lt;66),0.01,IF(E54&gt;316,6,ROUNDDOWN((E54-16)/50,0))))</f>
@@ -25920,13 +25920,13 @@
       </c>
       <c r="G54" s="8">
         <f>IF(F54=0.01,E54-16,E54-F54*50)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5">
       <c r="A55" s="9" t="str">
-        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
-        <v>慕容舒清</v>
+        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
+        <v>丐亞能量炮</v>
       </c>
       <c r="B55" s="4">
         <f>VLOOKUP(A55,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25955,8 +25955,8 @@
     </row>
     <row r="56" spans="1:7" ht="16.5">
       <c r="A56" s="9" t="str">
-        <f t="array" ref="A56">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
-        <v>满分丶离渊</v>
+        <f t="array" ref="A56">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
+        <v>丶古力豆</v>
       </c>
       <c r="B56" s="4">
         <f>VLOOKUP(A56,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A56,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A56,历史结余DKP!A$1:B$599,2,0))</f>
@@ -25985,8 +25985,8 @@
     </row>
     <row r="57" spans="1:7" ht="16.5">
       <c r="A57" s="9" t="str">
-        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
-        <v>白素。</v>
+        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
+        <v>丶天才小熊猫丶</v>
       </c>
       <c r="B57" s="4">
         <f>VLOOKUP(A57,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26015,8 +26015,8 @@
     </row>
     <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="9" t="str">
-        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
-        <v>碧眼狐狸、赵四</v>
+        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
+        <v>乌龙擦汗</v>
       </c>
       <c r="B58" s="4">
         <f>VLOOKUP(A58,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26045,8 +26045,8 @@
     </row>
     <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="9" t="str">
-        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
-        <v>褚御</v>
+        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
+        <v>五圆</v>
       </c>
       <c r="B59" s="4">
         <f>VLOOKUP(A59,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26075,8 +26075,8 @@
     </row>
     <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="9" t="str">
-        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A134)))&amp;""</f>
-        <v>除了帅还有酷</v>
+        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
+        <v>代璟瑗</v>
       </c>
       <c r="B60" s="4">
         <f>VLOOKUP(A60,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26105,8 +26105,8 @@
     </row>
     <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="9" t="str">
-        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A136)))&amp;""</f>
-        <v>雕枭</v>
+        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
+        <v>伞小七</v>
       </c>
       <c r="B61" s="4">
         <f>VLOOKUP(A61,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26135,8 +26135,8 @@
     </row>
     <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="9" t="str">
-        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A142)))&amp;""</f>
-        <v>青絲伴雪</v>
+        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
+        <v>冷殘心</v>
       </c>
       <c r="B62" s="4">
         <f>VLOOKUP(A62,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26165,12 +26165,12 @@
     </row>
     <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="9" t="str">
-        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
-        <v>慕落弦</v>
+        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
+        <v>凡盻</v>
       </c>
       <c r="B63" s="4">
         <f>VLOOKUP(A63,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
@@ -26182,7 +26182,7 @@
       </c>
       <c r="E63" s="20">
         <f>SUM(B63:D63)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="20">
         <f>IF(ISNA(E63),0,IF(AND(E63&gt;15,E63&lt;66),0.01,IF(E63&gt;316,6,ROUNDDOWN((E63-16)/50,0))))</f>
@@ -26190,13 +26190,13 @@
       </c>
       <c r="G63" s="8">
         <f>IF(F63=0.01,E63-16,E63-F63*50)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="9" t="str">
-        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
-        <v>√蓝莓巧克力丶</v>
+        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
+        <v>凰荼歌</v>
       </c>
       <c r="B64" s="4">
         <f>VLOOKUP(A64,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26225,8 +26225,8 @@
     </row>
     <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="9" t="str">
-        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
-        <v>ZzEvi11qRuxi</v>
+        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
+        <v>劍月</v>
       </c>
       <c r="B65" s="4">
         <f>VLOOKUP(A65,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26255,8 +26255,8 @@
     </row>
     <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="9" t="str">
-        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
-        <v>上去就是一插</v>
+        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
+        <v>北夕寒笙丶</v>
       </c>
       <c r="B66" s="4">
         <f>VLOOKUP(A66,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26285,12 +26285,12 @@
     </row>
     <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="9" t="str">
-        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
-        <v>与尔同销萬古愁</v>
+        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
+        <v>古兰月下</v>
       </c>
       <c r="B67" s="4">
         <f>VLOOKUP(A67,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C67" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
@@ -26302,7 +26302,7 @@
       </c>
       <c r="E67" s="20">
         <f>SUM(B67:D67)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F67" s="20">
         <f>IF(ISNA(E67),0,IF(AND(E67&gt;15,E67&lt;66),0.01,IF(E67&gt;316,6,ROUNDDOWN((E67-16)/50,0))))</f>
@@ -26310,13 +26310,13 @@
       </c>
       <c r="G67" s="8">
         <f>IF(F67=0.01,E67-16,E67-F67*50)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="9" t="str">
-        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
-        <v>丐亞能量炮</v>
+        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
+        <v>吕小栋</v>
       </c>
       <c r="B68" s="4">
         <f>VLOOKUP(A68,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26345,8 +26345,8 @@
     </row>
     <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="9" t="str">
-        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
-        <v>丶古力豆</v>
+        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
+        <v>唐门仐少</v>
       </c>
       <c r="B69" s="4">
         <f>VLOOKUP(A69,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26375,8 +26375,8 @@
     </row>
     <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="9" t="str">
-        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
-        <v>丶天才小熊猫丶</v>
+        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
+        <v>墨如渊</v>
       </c>
       <c r="B70" s="4">
         <f>VLOOKUP(A70,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26405,8 +26405,8 @@
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="9" t="str">
-        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
-        <v>乌龙擦汗</v>
+        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
+        <v>天使二号</v>
       </c>
       <c r="B71" s="4">
         <f>VLOOKUP(A71,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26435,8 +26435,8 @@
     </row>
     <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="9" t="str">
-        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
-        <v>代璟瑗</v>
+        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
+        <v>太极神尊</v>
       </c>
       <c r="B72" s="4">
         <f>VLOOKUP(A72,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26465,8 +26465,8 @@
     </row>
     <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="9" t="str">
-        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
-        <v>伞小七</v>
+        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
+        <v>奥利奥。巧轻脆</v>
       </c>
       <c r="B73" s="4">
         <f>VLOOKUP(A73,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26495,8 +26495,8 @@
     </row>
     <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="9" t="str">
-        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
-        <v>冷殘心</v>
+        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
+        <v>子云书</v>
       </c>
       <c r="B74" s="4">
         <f>VLOOKUP(A74,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26525,8 +26525,8 @@
     </row>
     <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="9" t="str">
-        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
-        <v>凡盻</v>
+        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
+        <v>孤心傲ソ</v>
       </c>
       <c r="B75" s="4">
         <f>VLOOKUP(A75,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26555,8 +26555,8 @@
     </row>
     <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="9" t="str">
-        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
-        <v>凰荼歌</v>
+        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
+        <v>寒绯丶月</v>
       </c>
       <c r="B76" s="4">
         <f>VLOOKUP(A76,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26585,8 +26585,8 @@
     </row>
     <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="9" t="str">
-        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
-        <v>劍月</v>
+        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
+        <v>岛是海的い泪</v>
       </c>
       <c r="B77" s="4">
         <f>VLOOKUP(A77,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26615,8 +26615,8 @@
     </row>
     <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="9" t="str">
-        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
-        <v>北夕寒笙丶</v>
+        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
+        <v>巡山的人</v>
       </c>
       <c r="B78" s="4">
         <f>VLOOKUP(A78,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26645,8 +26645,8 @@
     </row>
     <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="9" t="str">
-        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
-        <v>古兰月下</v>
+        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
+        <v>帅气老航哥</v>
       </c>
       <c r="B79" s="4">
         <f>VLOOKUP(A79,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26675,8 +26675,8 @@
     </row>
     <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="9" t="str">
-        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
-        <v>吕小栋</v>
+        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
+        <v>张灵风</v>
       </c>
       <c r="B80" s="4">
         <f>VLOOKUP(A80,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26705,8 +26705,8 @@
     </row>
     <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="9" t="str">
-        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
-        <v>唐门仐少</v>
+        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
+        <v>当归ゞ</v>
       </c>
       <c r="B81" s="4">
         <f>VLOOKUP(A81,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26735,8 +26735,8 @@
     </row>
     <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="9" t="str">
-        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
-        <v>墨如渊</v>
+        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
+        <v>怪我吗</v>
       </c>
       <c r="B82" s="4">
         <f>VLOOKUP(A82,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26765,8 +26765,8 @@
     </row>
     <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="9" t="str">
-        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
-        <v>天使二号</v>
+        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
+        <v>想象未来的幸福</v>
       </c>
       <c r="B83" s="4">
         <f>VLOOKUP(A83,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26795,8 +26795,8 @@
     </row>
     <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="9" t="str">
-        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
-        <v>太极神尊</v>
+        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
+        <v>慕容舒清</v>
       </c>
       <c r="B84" s="4">
         <f>VLOOKUP(A84,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26825,8 +26825,8 @@
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="9" t="str">
-        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
-        <v>奥利奥。巧轻脆</v>
+        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
+        <v>慕容诗情</v>
       </c>
       <c r="B85" s="4">
         <f>VLOOKUP(A85,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26855,8 +26855,8 @@
     </row>
     <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="9" t="str">
-        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
-        <v>子云书</v>
+        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
+        <v>我亦有路自己走</v>
       </c>
       <c r="B86" s="4">
         <f>VLOOKUP(A86,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26885,8 +26885,8 @@
     </row>
     <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="9" t="str">
-        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
-        <v>孤心傲ソ</v>
+        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
+        <v>我是农村人，</v>
       </c>
       <c r="B87" s="4">
         <f>VLOOKUP(A87,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26915,8 +26915,8 @@
     </row>
     <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="9" t="str">
-        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
-        <v>寒绯丶月</v>
+        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
+        <v>我是萝卜啊</v>
       </c>
       <c r="B88" s="4">
         <f>VLOOKUP(A88,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26945,8 +26945,8 @@
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="9" t="str">
-        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
-        <v>岛是海的い泪</v>
+        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
+        <v>打尼媽的香蕉船</v>
       </c>
       <c r="B89" s="4">
         <f>VLOOKUP(A89,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0))</f>
@@ -26975,8 +26975,8 @@
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="9" t="str">
-        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
-        <v>巡山的人</v>
+        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
+        <v>承受我得狂或野</v>
       </c>
       <c r="B90" s="4">
         <f>VLOOKUP(A90,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27005,8 +27005,8 @@
     </row>
     <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="9" t="str">
-        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
-        <v>帅气老航哥</v>
+        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
+        <v>提莫似的家里蹲</v>
       </c>
       <c r="B91" s="4">
         <f>VLOOKUP(A91,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27035,8 +27035,8 @@
     </row>
     <row r="92" spans="1:7" ht="16.5">
       <c r="A92" s="9" t="str">
-        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
-        <v>张灵风</v>
+        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
+        <v>明月心丨丶</v>
       </c>
       <c r="B92" s="4">
         <f>VLOOKUP(A92,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27065,8 +27065,8 @@
     </row>
     <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="9" t="str">
-        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
-        <v>当归ゞ</v>
+        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
+        <v>未来斗战士</v>
       </c>
       <c r="B93" s="4">
         <f>VLOOKUP(A93,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27095,12 +27095,12 @@
     </row>
     <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="9" t="str">
-        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
-        <v>怪我吗</v>
+        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
+        <v>机智勇敢的小珞</v>
       </c>
       <c r="B94" s="4">
         <f>VLOOKUP(A94,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C94" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
@@ -27112,7 +27112,7 @@
       </c>
       <c r="E94" s="20">
         <f>SUM(B94:D94)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F94" s="20">
         <f>IF(ISNA(E94),0,IF(AND(E94&gt;15,E94&lt;66),0.01,IF(E94&gt;316,6,ROUNDDOWN((E94-16)/50,0))))</f>
@@ -27120,13 +27120,13 @@
       </c>
       <c r="G94" s="8">
         <f>IF(F94=0.01,E94-16,E94-F94*50)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="9" t="str">
-        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
-        <v>想象未来的幸福</v>
+        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
+        <v>李红尘丶</v>
       </c>
       <c r="B95" s="4">
         <f>VLOOKUP(A95,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27155,8 +27155,8 @@
     </row>
     <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="9" t="str">
-        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
-        <v>慕容诗情</v>
+        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
+        <v>枫吟挽歌</v>
       </c>
       <c r="B96" s="4">
         <f>VLOOKUP(A96,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27185,8 +27185,8 @@
     </row>
     <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="9" t="str">
-        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
-        <v>我亦有路自己走</v>
+        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
+        <v>栀酒弥礼</v>
       </c>
       <c r="B97" s="4">
         <f>VLOOKUP(A97,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27215,8 +27215,8 @@
     </row>
     <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="9" t="str">
-        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
-        <v>我是农村人，</v>
+        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
+        <v>水墨丶兮</v>
       </c>
       <c r="B98" s="4">
         <f>VLOOKUP(A98,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27245,8 +27245,8 @@
     </row>
     <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="9" t="str">
-        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
-        <v>我是萝卜啊</v>
+        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
+        <v>沐伯乾</v>
       </c>
       <c r="B99" s="4">
         <f>VLOOKUP(A99,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27275,8 +27275,8 @@
     </row>
     <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="9" t="str">
-        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
-        <v>打尼媽的香蕉船</v>
+        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
+        <v>洛城有胥歌</v>
       </c>
       <c r="B100" s="4">
         <f>VLOOKUP(A100,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27305,12 +27305,12 @@
     </row>
     <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="9" t="str">
-        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
-        <v>承受我得狂或野</v>
+        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
+        <v>浮生半日</v>
       </c>
       <c r="B101" s="4">
         <f>VLOOKUP(A101,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C101" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
@@ -27322,7 +27322,7 @@
       </c>
       <c r="E101" s="20">
         <f>SUM(B101:D101)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F101" s="20">
         <f>IF(ISNA(E101),0,IF(AND(E101&gt;15,E101&lt;66),0.01,IF(E101&gt;316,6,ROUNDDOWN((E101-16)/50,0))))</f>
@@ -27330,13 +27330,13 @@
       </c>
       <c r="G101" s="8">
         <f>IF(F101=0.01,E101-16,E101-F101*50)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="9" t="str">
-        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
-        <v>提莫似的家里蹲</v>
+        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
+        <v>深海与我长眠</v>
       </c>
       <c r="B102" s="4">
         <f>VLOOKUP(A102,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27365,8 +27365,8 @@
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="9" t="str">
-        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
-        <v>明月心丨丶</v>
+        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
+        <v>满分丶离渊</v>
       </c>
       <c r="B103" s="4">
         <f>VLOOKUP(A103,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27395,8 +27395,8 @@
     </row>
     <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="9" t="str">
-        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
-        <v>未来斗战士</v>
+        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
+        <v>澪澪</v>
       </c>
       <c r="B104" s="4">
         <f>VLOOKUP(A104,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27425,12 +27425,12 @@
     </row>
     <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="9" t="str">
-        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
-        <v>机智勇敢的小珞</v>
+        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
+        <v>火柴叔叔</v>
       </c>
       <c r="B105" s="4">
         <f>VLOOKUP(A105,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C105" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="E105" s="20">
         <f>SUM(B105:D105)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F105" s="20">
         <f>IF(ISNA(E105),0,IF(AND(E105&gt;15,E105&lt;66),0.01,IF(E105&gt;316,6,ROUNDDOWN((E105-16)/50,0))))</f>
@@ -27450,13 +27450,13 @@
       </c>
       <c r="G105" s="8">
         <f>IF(F105=0.01,E105-16,E105-F105*50)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="9" t="str">
-        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
-        <v>李红尘丶</v>
+        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
+        <v>無為誰心</v>
       </c>
       <c r="B106" s="4">
         <f>VLOOKUP(A106,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27485,8 +27485,8 @@
     </row>
     <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="9" t="str">
-        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
-        <v>枫吟挽歌</v>
+        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
+        <v>爱的时辰</v>
       </c>
       <c r="B107" s="4">
         <f>VLOOKUP(A107,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27515,8 +27515,8 @@
     </row>
     <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="9" t="str">
-        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
-        <v>栀酒弥礼</v>
+        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
+        <v>狼哥哥的小草包</v>
       </c>
       <c r="B108" s="4">
         <f>VLOOKUP(A108,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27545,8 +27545,8 @@
     </row>
     <row r="109" spans="1:7" ht="16.5">
       <c r="A109" s="9" t="str">
-        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
-        <v>水墨丶兮</v>
+        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
+        <v>白素。</v>
       </c>
       <c r="B109" s="4">
         <f>VLOOKUP(A109,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27575,12 +27575,12 @@
     </row>
     <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="9" t="str">
-        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
-        <v>沐伯乾</v>
+        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
+        <v>眉间一点白</v>
       </c>
       <c r="B110" s="4">
         <f>VLOOKUP(A110,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
@@ -27592,7 +27592,7 @@
       </c>
       <c r="E110" s="20">
         <f>SUM(B110:D110)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F110" s="20">
         <f>IF(ISNA(E110),0,IF(AND(E110&gt;15,E110&lt;66),0.01,IF(E110&gt;316,6,ROUNDDOWN((E110-16)/50,0))))</f>
@@ -27600,13 +27600,13 @@
       </c>
       <c r="G110" s="8">
         <f>IF(F110=0.01,E110-16,E110-F110*50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5">
       <c r="A111" s="9" t="str">
-        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
-        <v>洛城有胥歌</v>
+        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
+        <v>破穿</v>
       </c>
       <c r="B111" s="4">
         <f>VLOOKUP(A111,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27635,12 +27635,12 @@
     </row>
     <row r="112" spans="1:7" ht="16.5">
       <c r="A112" s="9" t="str">
-        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
-        <v>浮生半日</v>
+        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
+        <v>碧眼狐狸、赵四</v>
       </c>
       <c r="B112" s="4">
         <f>VLOOKUP(A112,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C112" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
@@ -27652,7 +27652,7 @@
       </c>
       <c r="E112" s="20">
         <f>SUM(B112:D112)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F112" s="20">
         <f>IF(ISNA(E112),0,IF(AND(E112&gt;15,E112&lt;66),0.01,IF(E112&gt;316,6,ROUNDDOWN((E112-16)/50,0))))</f>
@@ -27660,13 +27660,13 @@
       </c>
       <c r="G112" s="8">
         <f>IF(F112=0.01,E112-16,E112-F112*50)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="9" t="str">
-        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
-        <v>深海与我长眠</v>
+        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
+        <v>祖文彬</v>
       </c>
       <c r="B113" s="4">
         <f>VLOOKUP(A113,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27695,8 +27695,8 @@
     </row>
     <row r="114" spans="1:7" ht="16.5">
       <c r="A114" s="9" t="str">
-        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
-        <v>澪澪</v>
+        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
+        <v>穆洛晗</v>
       </c>
       <c r="B114" s="4">
         <f>VLOOKUP(A114,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27725,8 +27725,8 @@
     </row>
     <row r="115" spans="1:7" ht="16.5">
       <c r="A115" s="9" t="str">
-        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
-        <v>火柴叔叔</v>
+        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
+        <v>空阑珊</v>
       </c>
       <c r="B115" s="4">
         <f>VLOOKUP(A115,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27755,8 +27755,8 @@
     </row>
     <row r="116" spans="1:7" ht="16.5">
       <c r="A116" s="9" t="str">
-        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
-        <v>無為誰心</v>
+        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
+        <v>糖衣朵朵</v>
       </c>
       <c r="B116" s="4">
         <f>VLOOKUP(A116,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27785,8 +27785,8 @@
     </row>
     <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="9" t="str">
-        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
-        <v>爱的时辰</v>
+        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
+        <v>给我一束花</v>
       </c>
       <c r="B117" s="4">
         <f>VLOOKUP(A117,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27815,8 +27815,8 @@
     </row>
     <row r="118" spans="1:7" ht="16.5">
       <c r="A118" s="9" t="str">
-        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
-        <v>狼哥哥的小草包</v>
+        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
+        <v>耀眼五毒</v>
       </c>
       <c r="B118" s="4">
         <f>VLOOKUP(A118,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27845,12 +27845,12 @@
     </row>
     <row r="119" spans="1:7" ht="16.5">
       <c r="A119" s="9" t="str">
-        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
-        <v>眉间一点白</v>
+        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
+        <v>老娘是人来疯</v>
       </c>
       <c r="B119" s="4">
         <f>VLOOKUP(A119,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
@@ -27862,7 +27862,7 @@
       </c>
       <c r="E119" s="20">
         <f>SUM(B119:D119)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F119" s="20">
         <f>IF(ISNA(E119),0,IF(AND(E119&gt;15,E119&lt;66),0.01,IF(E119&gt;316,6,ROUNDDOWN((E119-16)/50,0))))</f>
@@ -27870,13 +27870,13 @@
       </c>
       <c r="G119" s="8">
         <f>IF(F119=0.01,E119-16,E119-F119*50)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5">
       <c r="A120" s="9" t="str">
-        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
-        <v>破穿</v>
+        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
+        <v>舒三岁。</v>
       </c>
       <c r="B120" s="4">
         <f>VLOOKUP(A120,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27905,8 +27905,8 @@
     </row>
     <row r="121" spans="1:7" ht="16.5">
       <c r="A121" s="9" t="str">
-        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
-        <v>祖文彬</v>
+        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
+        <v>苏逸星</v>
       </c>
       <c r="B121" s="4">
         <f>VLOOKUP(A121,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27935,8 +27935,8 @@
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="9" t="str">
-        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
-        <v>穆洛晗</v>
+        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
+        <v>苏霖枫</v>
       </c>
       <c r="B122" s="4">
         <f>VLOOKUP(A122,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27965,8 +27965,8 @@
     </row>
     <row r="123" spans="1:7" ht="16.5">
       <c r="A123" s="9" t="str">
-        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
-        <v>空阑珊</v>
+        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
+        <v>萝卜配白菜</v>
       </c>
       <c r="B123" s="4">
         <f>VLOOKUP(A123,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0))</f>
@@ -27995,8 +27995,8 @@
     </row>
     <row r="124" spans="1:7" ht="16.5">
       <c r="A124" s="9" t="str">
-        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
-        <v>糖衣朵朵</v>
+        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
+        <v>袅袅余音灬</v>
       </c>
       <c r="B124" s="4">
         <f>VLOOKUP(A124,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28025,8 +28025,8 @@
     </row>
     <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="9" t="str">
-        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
-        <v>给我一束花</v>
+        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
+        <v>褚御</v>
       </c>
       <c r="B125" s="4">
         <f>VLOOKUP(A125,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28055,8 +28055,8 @@
     </row>
     <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="9" t="str">
-        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
-        <v>耀眼五毒</v>
+        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
+        <v>西瓜抓老鹰</v>
       </c>
       <c r="B126" s="4">
         <f>VLOOKUP(A126,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28085,8 +28085,8 @@
     </row>
     <row r="127" spans="1:7" ht="16.5">
       <c r="A127" s="9" t="str">
-        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
-        <v>老娘是人来疯</v>
+        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
+        <v>谈洛烟</v>
       </c>
       <c r="B127" s="4">
         <f>VLOOKUP(A127,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28115,8 +28115,8 @@
     </row>
     <row r="128" spans="1:7" ht="16.5">
       <c r="A128" s="9" t="str">
-        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
-        <v>舒三岁。</v>
+        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
+        <v>郑亚荣</v>
       </c>
       <c r="B128" s="4">
         <f>VLOOKUP(A128,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28145,8 +28145,8 @@
     </row>
     <row r="129" spans="1:7" ht="16.5">
       <c r="A129" s="9" t="str">
-        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
-        <v>苏逸星</v>
+        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
+        <v>长得不行zzZ</v>
       </c>
       <c r="B129" s="4">
         <f>VLOOKUP(A129,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28175,8 +28175,8 @@
     </row>
     <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="9" t="str">
-        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
-        <v>苏霖枫</v>
+        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
+        <v>阴萤儿</v>
       </c>
       <c r="B130" s="4">
         <f>VLOOKUP(A130,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28205,8 +28205,8 @@
     </row>
     <row r="131" spans="1:7" ht="16.5">
       <c r="A131" s="9" t="str">
-        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
-        <v>萝卜配白菜</v>
+        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A133)))&amp;""</f>
+        <v>陈凌风</v>
       </c>
       <c r="B131" s="4">
         <f>VLOOKUP(A131,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28235,8 +28235,8 @@
     </row>
     <row r="132" spans="1:7" ht="16.5">
       <c r="A132" s="9" t="str">
-        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
-        <v>袅袅余音灬</v>
+        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A134)))&amp;""</f>
+        <v>除了帅还有酷</v>
       </c>
       <c r="B132" s="4">
         <f>VLOOKUP(A132,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28265,8 +28265,8 @@
     </row>
     <row r="133" spans="1:7" ht="16.5">
       <c r="A133" s="9" t="str">
-        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
-        <v>西瓜抓老鹰</v>
+        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A136)))&amp;""</f>
+        <v>雕枭</v>
       </c>
       <c r="B133" s="4">
         <f>VLOOKUP(A133,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28295,8 +28295,8 @@
     </row>
     <row r="134" spans="1:7" ht="16.5">
       <c r="A134" s="9" t="str">
-        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
-        <v>谈洛烟</v>
+        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A137)))&amp;""</f>
+        <v>雨下的泪</v>
       </c>
       <c r="B134" s="4">
         <f>VLOOKUP(A134,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28325,8 +28325,8 @@
     </row>
     <row r="135" spans="1:7" ht="16.5">
       <c r="A135" s="9" t="str">
-        <f t="array" ref="A135">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
-        <v>郑亚荣</v>
+        <f t="array" ref="A135">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A138)))&amp;""</f>
+        <v>雪之痕月</v>
       </c>
       <c r="B135" s="4">
         <f>VLOOKUP(A135,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A135,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A135,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28355,12 +28355,12 @@
     </row>
     <row r="136" spans="1:7" ht="16.5">
       <c r="A136" s="9" t="str">
-        <f t="array" ref="A136">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
-        <v>长得不行zzZ</v>
+        <f t="array" ref="A136">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A139)))&amp;""</f>
+        <v>雪糕失望</v>
       </c>
       <c r="B136" s="4">
         <f>VLOOKUP(A136,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A136,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A136,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C136" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
@@ -28372,7 +28372,7 @@
       </c>
       <c r="E136" s="20">
         <f>SUM(B136:D136)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F136" s="20">
         <f>IF(ISNA(E136),0,IF(AND(E136&gt;15,E136&lt;66),0.01,IF(E136&gt;316,6,ROUNDDOWN((E136-16)/50,0))))</f>
@@ -28380,13 +28380,13 @@
       </c>
       <c r="G136" s="8">
         <f>IF(F136=0.01,E136-16,E136-F136*50)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5">
       <c r="A137" s="9" t="str">
-        <f t="array" ref="A137">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
-        <v>阴萤儿</v>
+        <f t="array" ref="A137">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A140)))&amp;""</f>
+        <v>青丝枫凌</v>
       </c>
       <c r="B137" s="4">
         <f>VLOOKUP(A137,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A137,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A137,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28415,8 +28415,8 @@
     </row>
     <row r="138" spans="1:7" ht="16.5">
       <c r="A138" s="9" t="str">
-        <f t="array" ref="A138">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A133)))&amp;""</f>
-        <v>陈凌风</v>
+        <f t="array" ref="A138">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A141)))&amp;""</f>
+        <v>青丶玄</v>
       </c>
       <c r="B138" s="4">
         <f>VLOOKUP(A138,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A138,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A138,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28445,8 +28445,8 @@
     </row>
     <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="9" t="str">
-        <f t="array" ref="A139">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A137)))&amp;""</f>
-        <v>雨下的泪</v>
+        <f t="array" ref="A139">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A142)))&amp;""</f>
+        <v>青絲伴雪</v>
       </c>
       <c r="B139" s="4">
         <f>VLOOKUP(A139,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A139,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A139,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28475,8 +28475,8 @@
     </row>
     <row r="140" spans="1:7" ht="16.5">
       <c r="A140" s="9" t="str">
-        <f t="array" ref="A140">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A138)))&amp;""</f>
-        <v>雪之痕月</v>
+        <f t="array" ref="A140">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A143)))&amp;""</f>
+        <v>青虹剑客</v>
       </c>
       <c r="B140" s="4">
         <f>VLOOKUP(A140,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A140,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A140,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28505,12 +28505,12 @@
     </row>
     <row r="141" spans="1:7" ht="16.5">
       <c r="A141" s="9" t="str">
-        <f t="array" ref="A141">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A139)))&amp;""</f>
-        <v>雪糕失望</v>
+        <f t="array" ref="A141">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A144)))&amp;""</f>
+        <v>频相见</v>
       </c>
       <c r="B141" s="4">
         <f>VLOOKUP(A141,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A141,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A141,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C141" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
@@ -28522,7 +28522,7 @@
       </c>
       <c r="E141" s="20">
         <f>SUM(B141:D141)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F141" s="20">
         <f>IF(ISNA(E141),0,IF(AND(E141&gt;15,E141&lt;66),0.01,IF(E141&gt;316,6,ROUNDDOWN((E141-16)/50,0))))</f>
@@ -28530,13 +28530,13 @@
       </c>
       <c r="G141" s="8">
         <f>IF(F141=0.01,E141-16,E141-F141*50)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5">
       <c r="A142" s="9" t="str">
-        <f t="array" ref="A142">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A140)))&amp;""</f>
-        <v>青丝枫凌</v>
+        <f t="array" ref="A142">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A145)))&amp;""</f>
+        <v>颖凌雪</v>
       </c>
       <c r="B142" s="4">
         <f>VLOOKUP(A142,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A142,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A142,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28565,8 +28565,8 @@
     </row>
     <row r="143" spans="1:7" ht="16.5">
       <c r="A143" s="9" t="str">
-        <f t="array" ref="A143">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A141)))&amp;""</f>
-        <v>青丶玄</v>
+        <f t="array" ref="A143">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A146)))&amp;""</f>
+        <v>风涧酒</v>
       </c>
       <c r="B143" s="4">
         <f>VLOOKUP(A143,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A143,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A143,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28595,8 +28595,8 @@
     </row>
     <row r="144" spans="1:7" ht="16.5">
       <c r="A144" s="9" t="str">
-        <f t="array" ref="A144">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A143)))&amp;""</f>
-        <v>青虹剑客</v>
+        <f t="array" ref="A144">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A147)))&amp;""</f>
+        <v>风雨流浪</v>
       </c>
       <c r="B144" s="4">
         <f>VLOOKUP(A144,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A144,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A144,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28625,8 +28625,8 @@
     </row>
     <row r="145" spans="1:7" ht="16.5">
       <c r="A145" s="9" t="str">
-        <f t="array" ref="A145">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A144)))&amp;""</f>
-        <v>频相见</v>
+        <f t="array" ref="A145">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A148)))&amp;""</f>
+        <v>香香伮</v>
       </c>
       <c r="B145" s="4">
         <f>VLOOKUP(A145,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A145,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A145,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28655,8 +28655,8 @@
     </row>
     <row r="146" spans="1:7" ht="16.5">
       <c r="A146" s="9" t="str">
-        <f t="array" ref="A146">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A145)))&amp;""</f>
-        <v>颖凌雪</v>
+        <f t="array" ref="A146">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A149)))&amp;""</f>
+        <v>黎卿歌</v>
       </c>
       <c r="B146" s="4">
         <f>VLOOKUP(A146,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A146,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A146,历史结余DKP!A$1:B$599,2,0))</f>
@@ -28685,92 +28685,92 @@
     </row>
     <row r="147" spans="1:7" ht="16.5">
       <c r="A147" s="9" t="str">
-        <f t="array" ref="A147">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A146)))&amp;""</f>
-        <v>风涧酒</v>
-      </c>
-      <c r="B147" s="4">
+        <f t="array" ref="A147">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A150)))&amp;""</f>
+        <v/>
+      </c>
+      <c r="B147" s="4" t="e">
         <f>VLOOKUP(A147,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A147,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A147,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C147" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
-        <v>0</v>
+        <v>364520</v>
       </c>
       <c r="D147" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A147)</f>
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
+        <v>34900</v>
+      </c>
+      <c r="E147" s="20" t="e">
         <f>SUM(B147:D147)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="F147" s="20">
         <f>IF(ISNA(E147),0,IF(AND(E147&gt;15,E147&lt;66),0.01,IF(E147&gt;316,6,ROUNDDOWN((E147-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="8" t="e">
         <f>IF(F147=0.01,E147-16,E147-F147*50)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5">
       <c r="A148" s="9" t="str">
-        <f t="array" ref="A148">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A147)))&amp;""</f>
-        <v>风雨流浪</v>
-      </c>
-      <c r="B148" s="4">
+        <f t="array" ref="A148">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A151)))&amp;""</f>
+        <v/>
+      </c>
+      <c r="B148" s="4" t="e">
         <f>VLOOKUP(A148,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A148,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A148,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C148" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
-        <v>0</v>
+        <v>364520</v>
       </c>
       <c r="D148" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A148)</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
+        <v>34900</v>
+      </c>
+      <c r="E148" s="20" t="e">
         <f>SUM(B148:D148)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="F148" s="20">
         <f>IF(ISNA(E148),0,IF(AND(E148&gt;15,E148&lt;66),0.01,IF(E148&gt;316,6,ROUNDDOWN((E148-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="8" t="e">
         <f>IF(F148=0.01,E148-16,E148-F148*50)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5">
       <c r="A149" s="9" t="str">
-        <f t="array" ref="A149">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A148)))&amp;""</f>
-        <v>香香伮</v>
-      </c>
-      <c r="B149" s="4">
+        <f t="array" ref="A149">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生逐梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A152)))&amp;""</f>
+        <v/>
+      </c>
+      <c r="B149" s="4" t="e">
         <f>VLOOKUP(A149,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A149,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A149,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C149" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
-        <v>0</v>
+        <v>364520</v>
       </c>
       <c r="D149" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A149)</f>
-        <v>0</v>
-      </c>
-      <c r="E149" s="20">
+        <v>34900</v>
+      </c>
+      <c r="E149" s="20" t="e">
         <f>SUM(B149:D149)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="F149" s="20">
         <f>IF(ISNA(E149),0,IF(AND(E149&gt;15,E149&lt;66),0.01,IF(E149&gt;316,6,ROUNDDOWN((E149-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="8" t="e">
         <f>IF(F149=0.01,E149-16,E149-F149*50)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -28815,7 +28815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28895,23 +28895,23 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="str">
-        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A3)))&amp;""</f>
-        <v>唐道人</v>
+        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A2)))&amp;""</f>
+        <v>杏花村政委白米</v>
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C3" s="20">
         <v>180</v>
       </c>
       <c r="D3" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A3)</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="F3" s="20">
         <f>IF(ISNA(E3),0,IF(AND(E3&gt;15,E3&lt;66),0.01,IF(E3&gt;316,6,ROUNDDOWN((E3-16)/50,0))))</f>
@@ -28919,7 +28919,7 @@
       </c>
       <c r="G3" s="8">
         <f>IF(F3=0.01,E3-16,E3-F3*50)</f>
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -28928,12 +28928,12 @@
     </row>
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9" t="str">
-        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
-        <v>俱利摩</v>
+        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A3)))&amp;""</f>
+        <v>唐道人</v>
       </c>
       <c r="B4" s="4">
         <f>VLOOKUP(A4,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="C4" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
@@ -28941,11 +28941,11 @@
       </c>
       <c r="D4" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A4)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>414</v>
+        <v>529</v>
       </c>
       <c r="F4" s="20">
         <f>IF(ISNA(E4),0,IF(AND(E4&gt;15,E4&lt;66),0.01,IF(E4&gt;316,6,ROUNDDOWN((E4-16)/50,0))))</f>
@@ -28953,7 +28953,7 @@
       </c>
       <c r="G4" s="8">
         <f>IF(F4=0.01,E4-16,E4-F4*50)</f>
-        <v>114</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
@@ -28988,16 +28988,16 @@
     </row>
     <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9" t="str">
-        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
-        <v>衰嗨揸兜男</v>
+        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A5)))&amp;""</f>
+        <v>只想做个好人</v>
       </c>
       <c r="B6" s="4">
         <f>VLOOKUP(A6,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="C6" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D6" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A6)</f>
@@ -29005,7 +29005,7 @@
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>360</v>
+        <v>466</v>
       </c>
       <c r="F6" s="20">
         <f>IF(ISNA(E6),0,IF(AND(E6&gt;15,E6&lt;66),0.01,IF(E6&gt;316,6,ROUNDDOWN((E6-16)/50,0))))</f>
@@ -29013,29 +29013,29 @@
       </c>
       <c r="G6" s="8">
         <f>IF(F6=0.01,E6-16,E6-F6*50)</f>
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9" t="str">
-        <f t="array" ref="A7">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
-        <v>淺笙</v>
+        <f t="array" ref="A7">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
+        <v>落笔如歌歌如月</v>
       </c>
       <c r="B7" s="4">
         <f>VLOOKUP(A7,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A7,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A7,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="C7" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D7" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A7)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7" s="20">
         <f>SUM(B7:D7)</f>
-        <v>443</v>
+        <v>556</v>
       </c>
       <c r="F7" s="20">
         <f>IF(ISNA(E7),0,IF(AND(E7&gt;15,E7&lt;66),0.01,IF(E7&gt;316,6,ROUNDDOWN((E7-16)/50,0))))</f>
@@ -29043,29 +29043,29 @@
       </c>
       <c r="G7" s="8">
         <f>IF(F7=0.01,E7-16,E7-F7*50)</f>
-        <v>143</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9" t="str">
-        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
-        <v>凌渃尘</v>
+        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A7)))&amp;""</f>
+        <v>北城别＂</v>
       </c>
       <c r="B8" s="4">
         <f>VLOOKUP(A8,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="C8" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D8" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A8)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20">
         <f>SUM(B8:D8)</f>
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F8" s="20">
         <f>IF(ISNA(E8),0,IF(AND(E8&gt;15,E8&lt;66),0.01,IF(E8&gt;316,6,ROUNDDOWN((E8-16)/50,0))))</f>
@@ -29073,29 +29073,29 @@
       </c>
       <c r="G8" s="8">
         <f>IF(F8=0.01,E8-16,E8-F8*50)</f>
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9" t="str">
-        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A2)))&amp;""</f>
-        <v>杏花村政委白米</v>
+        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
+        <v>衰嗨揸兜男</v>
       </c>
       <c r="B9" s="4">
         <f>VLOOKUP(A9,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="C9" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D9" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A9)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" s="20">
         <f>SUM(B9:D9)</f>
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="F9" s="20">
         <f>IF(ISNA(E9),0,IF(AND(E9&gt;15,E9&lt;66),0.01,IF(E9&gt;316,6,ROUNDDOWN((E9-16)/50,0))))</f>
@@ -29103,17 +29103,17 @@
       </c>
       <c r="G9" s="8">
         <f>IF(F9=0.01,E9-16,E9-F9*50)</f>
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9" t="str">
-        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
-        <v>落笔如歌歌如月</v>
+        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
+        <v>太极至尊</v>
       </c>
       <c r="B10" s="4">
         <f>VLOOKUP(A10,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="C10" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
@@ -29121,11 +29121,11 @@
       </c>
       <c r="D10" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A10)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="20">
         <f>SUM(B10:D10)</f>
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="F10" s="20">
         <f>IF(ISNA(E10),0,IF(AND(E10&gt;15,E10&lt;66),0.01,IF(E10&gt;316,6,ROUNDDOWN((E10-16)/50,0))))</f>
@@ -29133,7 +29133,7 @@
       </c>
       <c r="G10" s="8">
         <f>IF(F10=0.01,E10-16,E10-F10*50)</f>
-        <v>256</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
@@ -29168,24 +29168,24 @@
     </row>
     <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9" t="str">
-        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A5)))&amp;""</f>
-        <v>只想做个好人</v>
+        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
+        <v>倾舞情儿</v>
       </c>
       <c r="B12" s="4">
         <f>VLOOKUP(A12,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C12" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A12)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" s="20">
         <f>SUM(B12:D12)</f>
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="F12" s="20">
         <f>IF(ISNA(E12),0,IF(AND(E12&gt;15,E12&lt;66),0.01,IF(E12&gt;316,6,ROUNDDOWN((E12-16)/50,0))))</f>
@@ -29193,29 +29193,29 @@
       </c>
       <c r="G12" s="8">
         <f>IF(F12=0.01,E12-16,E12-F12*50)</f>
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9" t="str">
-        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
-        <v>太极至尊</v>
+        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
+        <v>淺笙</v>
       </c>
       <c r="B13" s="4">
         <f>VLOOKUP(A13,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="C13" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A13)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E13" s="20">
         <f>SUM(B13:D13)</f>
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="F13" s="20">
         <f>IF(ISNA(E13),0,IF(AND(E13&gt;15,E13&lt;66),0.01,IF(E13&gt;316,6,ROUNDDOWN((E13-16)/50,0))))</f>
@@ -29223,17 +29223,17 @@
       </c>
       <c r="G13" s="8">
         <f>IF(F13=0.01,E13-16,E13-F13*50)</f>
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9" t="str">
-        <f t="array" ref="A14">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
-        <v>倾舞情儿</v>
+        <f t="array" ref="A14">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
+        <v>俱利摩</v>
       </c>
       <c r="B14" s="4">
         <f>VLOOKUP(A14,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A14,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A14,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C14" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
@@ -29245,7 +29245,7 @@
       </c>
       <c r="E14" s="20">
         <f>SUM(B14:D14)</f>
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F14" s="20">
         <f>IF(ISNA(E14),0,IF(AND(E14&gt;15,E14&lt;66),0.01,IF(E14&gt;316,6,ROUNDDOWN((E14-16)/50,0))))</f>
@@ -29253,29 +29253,29 @@
       </c>
       <c r="G14" s="8">
         <f>IF(F14=0.01,E14-16,E14-F14*50)</f>
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9" t="str">
-        <f t="array" ref="A15">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
-        <v>糯米</v>
+        <f t="array" ref="A15">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
+        <v>凌渃尘</v>
       </c>
       <c r="B15" s="4">
         <f>VLOOKUP(A15,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A15,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A15,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="C15" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D15" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A15)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E15" s="20">
         <f>SUM(B15:D15)</f>
-        <v>320</v>
+        <v>461</v>
       </c>
       <c r="F15" s="20">
         <f>IF(ISNA(E15),0,IF(AND(E15&gt;15,E15&lt;66),0.01,IF(E15&gt;316,6,ROUNDDOWN((E15-16)/50,0))))</f>
@@ -29283,21 +29283,21 @@
       </c>
       <c r="G15" s="8">
         <f>IF(F15=0.01,E15-16,E15-F15*50)</f>
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9" t="str">
-        <f t="array" ref="A16">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
-        <v>扛旗</v>
+        <f t="array" ref="A16">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
+        <v>登徒浪子可奈何</v>
       </c>
       <c r="B16" s="4">
         <f>VLOOKUP(A16,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A16,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A16,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="C16" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D16" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A16)</f>
@@ -29305,7 +29305,7 @@
       </c>
       <c r="E16" s="20">
         <f>SUM(B16:D16)</f>
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="F16" s="20">
         <f>IF(ISNA(E16),0,IF(AND(E16&gt;15,E16&lt;66),0.01,IF(E16&gt;316,6,ROUNDDOWN((E16-16)/50,0))))</f>
@@ -29313,17 +29313,17 @@
       </c>
       <c r="G16" s="8">
         <f>IF(F16=0.01,E16-16,E16-F16*50)</f>
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="9" t="str">
-        <f t="array" ref="A17">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A7)))&amp;""</f>
-        <v>北城别＂</v>
+        <f t="array" ref="A17">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
+        <v>糯米</v>
       </c>
       <c r="B17" s="4">
         <f>VLOOKUP(A17,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A17,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A17,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="C17" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
@@ -29335,7 +29335,7 @@
       </c>
       <c r="E17" s="20">
         <f>SUM(B17:D17)</f>
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="F17" s="20">
         <f>IF(ISNA(E17),0,IF(AND(E17&gt;15,E17&lt;66),0.01,IF(E17&gt;316,6,ROUNDDOWN((E17-16)/50,0))))</f>
@@ -29343,21 +29343,21 @@
       </c>
       <c r="G17" s="8">
         <f>IF(F17=0.01,E17-16,E17-F17*50)</f>
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="9" t="str">
-        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
-        <v>登徒浪子可奈何</v>
+        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
+        <v>扛旗</v>
       </c>
       <c r="B18" s="4">
         <f>VLOOKUP(A18,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="C18" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D18" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A18)</f>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="E18" s="20">
         <f>SUM(B18:D18)</f>
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="F18" s="20">
         <f>IF(ISNA(E18),0,IF(AND(E18&gt;15,E18&lt;66),0.01,IF(E18&gt;316,6,ROUNDDOWN((E18-16)/50,0))))</f>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="G18" s="8">
         <f>IF(F18=0.01,E18-16,E18-F18*50)</f>
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5">
@@ -29498,12 +29498,12 @@
     </row>
     <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="9" t="str">
-        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
-        <v>小雪妖</v>
+        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
+        <v>澄不二</v>
       </c>
       <c r="B23" s="4">
         <f>VLOOKUP(A23,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C23" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
@@ -29515,7 +29515,7 @@
       </c>
       <c r="E23" s="20">
         <f>SUM(B23:D23)</f>
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F23" s="20">
         <f>IF(ISNA(E23),0,IF(AND(E23&gt;15,E23&lt;66),0.01,IF(E23&gt;316,6,ROUNDDOWN((E23-16)/50,0))))</f>
@@ -29523,17 +29523,17 @@
       </c>
       <c r="G23" s="8">
         <f>IF(F23=0.01,E23-16,E23-F23*50)</f>
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="9" t="str">
-        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
-        <v>澄不二</v>
+        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
+        <v>小雪妖</v>
       </c>
       <c r="B24" s="4">
         <f>VLOOKUP(A24,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C24" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
@@ -29545,7 +29545,7 @@
       </c>
       <c r="E24" s="20">
         <f>SUM(B24:D24)</f>
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F24" s="20">
         <f>IF(ISNA(E24),0,IF(AND(E24&gt;15,E24&lt;66),0.01,IF(E24&gt;316,6,ROUNDDOWN((E24-16)/50,0))))</f>
@@ -29553,7 +29553,7 @@
       </c>
       <c r="G24" s="8">
         <f>IF(F24=0.01,E24-16,E24-F24*50)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
@@ -29648,16 +29648,16 @@
     </row>
     <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="9" t="str">
-        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A27)))&amp;""</f>
-        <v>月落雅雅</v>
+        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
+        <v>毒辣小可乐</v>
       </c>
       <c r="B28" s="4">
         <f>VLOOKUP(A28,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="C28" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D28" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A28)</f>
@@ -29665,7 +29665,7 @@
       </c>
       <c r="E28" s="20">
         <f>SUM(B28:D28)</f>
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F28" s="20">
         <f>IF(ISNA(E28),0,IF(AND(E28&gt;15,E28&lt;66),0.01,IF(E28&gt;316,6,ROUNDDOWN((E28-16)/50,0))))</f>
@@ -29673,21 +29673,21 @@
       </c>
       <c r="G28" s="8">
         <f>IF(F28=0.01,E28-16,E28-F28*50)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="9" t="str">
-        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
-        <v>毒辣小可乐</v>
+        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A27)))&amp;""</f>
+        <v>月落雅雅</v>
       </c>
       <c r="B29" s="4">
         <f>VLOOKUP(A29,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C29" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D29" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A29)</f>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="E29" s="20">
         <f>SUM(B29:D29)</f>
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F29" s="20">
         <f>IF(ISNA(E29),0,IF(AND(E29&gt;15,E29&lt;66),0.01,IF(E29&gt;316,6,ROUNDDOWN((E29-16)/50,0))))</f>
@@ -29703,7 +29703,7 @@
       </c>
       <c r="G29" s="8">
         <f>IF(F29=0.01,E29-16,E29-F29*50)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5">
@@ -29948,16 +29948,16 @@
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="9" t="str">
-        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
-        <v>野原美伢伢</v>
+        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
+        <v>剑独醉</v>
       </c>
       <c r="B38" s="4">
         <f>VLOOKUP(A38,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C38" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D38" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A38)</f>
@@ -29965,7 +29965,7 @@
       </c>
       <c r="E38" s="20">
         <f>SUM(B38:D38)</f>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F38" s="20">
         <f>IF(ISNA(E38),0,IF(AND(E38&gt;15,E38&lt;66),0.01,IF(E38&gt;316,6,ROUNDDOWN((E38-16)/50,0))))</f>
@@ -29973,17 +29973,17 @@
       </c>
       <c r="G38" s="8">
         <f>IF(F38=0.01,E38-16,E38-F38*50)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="9" t="str">
-        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
-        <v>手握大牙签</v>
+        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
+        <v>日无际</v>
       </c>
       <c r="B39" s="4">
         <f>VLOOKUP(A39,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C39" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="E39" s="20">
         <f>SUM(B39:D39)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F39" s="20">
         <f>IF(ISNA(E39),0,IF(AND(E39&gt;15,E39&lt;66),0.01,IF(E39&gt;316,6,ROUNDDOWN((E39-16)/50,0))))</f>
@@ -30003,17 +30003,17 @@
       </c>
       <c r="G39" s="8">
         <f>IF(F39=0.01,E39-16,E39-F39*50)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="9" t="str">
-        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
-        <v>裴述</v>
+        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
+        <v>野原美伢伢</v>
       </c>
       <c r="B40" s="4">
         <f>VLOOKUP(A40,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C40" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
@@ -30025,7 +30025,7 @@
       </c>
       <c r="E40" s="20">
         <f>SUM(B40:D40)</f>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F40" s="20">
         <f>IF(ISNA(E40),0,IF(AND(E40&gt;15,E40&lt;66),0.01,IF(E40&gt;316,6,ROUNDDOWN((E40-16)/50,0))))</f>
@@ -30033,21 +30033,21 @@
       </c>
       <c r="G40" s="8">
         <f>IF(F40=0.01,E40-16,E40-F40*50)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="9" t="str">
-        <f t="array" ref="A41">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
-        <v>剑独醉</v>
+        <f t="array" ref="A41">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
+        <v>手握大牙签</v>
       </c>
       <c r="B41" s="4">
         <f>VLOOKUP(A41,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A41,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A41,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C41" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D41" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A41)</f>
@@ -30055,7 +30055,7 @@
       </c>
       <c r="E41" s="20">
         <f>SUM(B41:D41)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F41" s="20">
         <f>IF(ISNA(E41),0,IF(AND(E41&gt;15,E41&lt;66),0.01,IF(E41&gt;316,6,ROUNDDOWN((E41-16)/50,0))))</f>
@@ -30063,17 +30063,17 @@
       </c>
       <c r="G41" s="8">
         <f>IF(F41=0.01,E41-16,E41-F41*50)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="9" t="str">
-        <f t="array" ref="A42">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
-        <v>日无际</v>
+        <f t="array" ref="A42">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
+        <v>烟雨青黛</v>
       </c>
       <c r="B42" s="4">
         <f>VLOOKUP(A42,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A42,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A42,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C42" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
@@ -30085,7 +30085,7 @@
       </c>
       <c r="E42" s="20">
         <f>SUM(B42:D42)</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F42" s="20">
         <f>IF(ISNA(E42),0,IF(AND(E42&gt;15,E42&lt;66),0.01,IF(E42&gt;316,6,ROUNDDOWN((E42-16)/50,0))))</f>
@@ -30093,17 +30093,17 @@
       </c>
       <c r="G42" s="8">
         <f>IF(F42=0.01,E42-16,E42-F42*50)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="9" t="str">
-        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
-        <v>守护</v>
+        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
+        <v>友善的大夫</v>
       </c>
       <c r="B43" s="4">
         <f>VLOOKUP(A43,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C43" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="E43" s="20">
         <f>SUM(B43:D43)</f>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F43" s="20">
         <f>IF(ISNA(E43),0,IF(AND(E43&gt;15,E43&lt;66),0.01,IF(E43&gt;316,6,ROUNDDOWN((E43-16)/50,0))))</f>
@@ -30123,17 +30123,17 @@
       </c>
       <c r="G43" s="8">
         <f>IF(F43=0.01,E43-16,E43-F43*50)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="9" t="str">
-        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
-        <v>烟雨青黛</v>
+        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
+        <v>南邦佳人呀</v>
       </c>
       <c r="B44" s="4">
         <f>VLOOKUP(A44,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C44" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
@@ -30145,7 +30145,7 @@
       </c>
       <c r="E44" s="20">
         <f>SUM(B44:D44)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F44" s="20">
         <f>IF(ISNA(E44),0,IF(AND(E44&gt;15,E44&lt;66),0.01,IF(E44&gt;316,6,ROUNDDOWN((E44-16)/50,0))))</f>
@@ -30153,17 +30153,17 @@
       </c>
       <c r="G44" s="8">
         <f>IF(F44=0.01,E44-16,E44-F44*50)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="9" t="str">
-        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
-        <v>友善的大夫</v>
+        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
+        <v>守护</v>
       </c>
       <c r="B45" s="4">
         <f>VLOOKUP(A45,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C45" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
@@ -30175,7 +30175,7 @@
       </c>
       <c r="E45" s="20">
         <f>SUM(B45:D45)</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F45" s="20">
         <f>IF(ISNA(E45),0,IF(AND(E45&gt;15,E45&lt;66),0.01,IF(E45&gt;316,6,ROUNDDOWN((E45-16)/50,0))))</f>
@@ -30183,17 +30183,17 @@
       </c>
       <c r="G45" s="8">
         <f>IF(F45=0.01,E45-16,E45-F45*50)</f>
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="9" t="str">
-        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
-        <v>南邦佳人呀</v>
+        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
+        <v>猜猜ぃ</v>
       </c>
       <c r="B46" s="4">
         <f>VLOOKUP(A46,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C46" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
@@ -30205,7 +30205,7 @@
       </c>
       <c r="E46" s="20">
         <f>SUM(B46:D46)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F46" s="20">
         <f>IF(ISNA(E46),0,IF(AND(E46&gt;15,E46&lt;66),0.01,IF(E46&gt;316,6,ROUNDDOWN((E46-16)/50,0))))</f>
@@ -30213,17 +30213,17 @@
       </c>
       <c r="G46" s="8">
         <f>IF(F46=0.01,E46-16,E46-F46*50)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="9" t="str">
-        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
-        <v>猜猜ぃ</v>
+        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
+        <v>裴述</v>
       </c>
       <c r="B47" s="4">
         <f>VLOOKUP(A47,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C47" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="E47" s="20">
         <f>SUM(B47:D47)</f>
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F47" s="20">
         <f>IF(ISNA(E47),0,IF(AND(E47&gt;15,E47&lt;66),0.01,IF(E47&gt;316,6,ROUNDDOWN((E47-16)/50,0))))</f>
@@ -30243,7 +30243,7 @@
       </c>
       <c r="G47" s="8">
         <f>IF(F47=0.01,E47-16,E47-F47*50)</f>
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5">
@@ -30278,12 +30278,12 @@
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="9" t="str">
-        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
-        <v>FAKE弑神</v>
+        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
+        <v>花辞树</v>
       </c>
       <c r="B49" s="4">
         <f>VLOOKUP(A49,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C49" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
@@ -30295,7 +30295,7 @@
       </c>
       <c r="E49" s="20">
         <f>SUM(B49:D49)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F49" s="20">
         <f>IF(ISNA(E49),0,IF(AND(E49&gt;15,E49&lt;66),0.01,IF(E49&gt;316,6,ROUNDDOWN((E49-16)/50,0))))</f>
@@ -30303,17 +30303,17 @@
       </c>
       <c r="G49" s="8">
         <f>IF(F49=0.01,E49-16,E49-F49*50)</f>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="9" t="str">
-        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
-        <v>童话话</v>
+        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
+        <v>大大大大西瓜丶</v>
       </c>
       <c r="B50" s="4">
         <f>VLOOKUP(A50,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C50" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
@@ -30325,7 +30325,7 @@
       </c>
       <c r="E50" s="20">
         <f>SUM(B50:D50)</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F50" s="20">
         <f>IF(ISNA(E50),0,IF(AND(E50&gt;15,E50&lt;66),0.01,IF(E50&gt;316,6,ROUNDDOWN((E50-16)/50,0))))</f>
@@ -30333,17 +30333,17 @@
       </c>
       <c r="G50" s="8">
         <f>IF(F50=0.01,E50-16,E50-F50*50)</f>
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="9" t="str">
-        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
-        <v>凡人的梦</v>
+        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
+        <v>池小晚</v>
       </c>
       <c r="B51" s="4">
         <f>VLOOKUP(A51,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C51" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="E51" s="20">
         <f>SUM(B51:D51)</f>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F51" s="20">
         <f>IF(ISNA(E51),0,IF(AND(E51&gt;15,E51&lt;66),0.01,IF(E51&gt;316,6,ROUNDDOWN((E51-16)/50,0))))</f>
@@ -30363,17 +30363,17 @@
       </c>
       <c r="G51" s="8">
         <f>IF(F51=0.01,E51-16,E51-F51*50)</f>
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5">
       <c r="A52" s="9" t="str">
-        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
-        <v>北城初夏</v>
+        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
+        <v>鹿山丶政政</v>
       </c>
       <c r="B52" s="4">
         <f>VLOOKUP(A52,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C52" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
@@ -30385,7 +30385,7 @@
       </c>
       <c r="E52" s="20">
         <f>SUM(B52:D52)</f>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F52" s="20">
         <f>IF(ISNA(E52),0,IF(AND(E52&gt;15,E52&lt;66),0.01,IF(E52&gt;316,6,ROUNDDOWN((E52-16)/50,0))))</f>
@@ -30393,17 +30393,17 @@
       </c>
       <c r="G52" s="8">
         <f>IF(F52=0.01,E52-16,E52-F52*50)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5">
       <c r="A53" s="9" t="str">
-        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
-        <v>神威小枪将</v>
+        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
+        <v>FAKE弑神</v>
       </c>
       <c r="B53" s="4">
         <f>VLOOKUP(A53,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C53" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
@@ -30415,7 +30415,7 @@
       </c>
       <c r="E53" s="20">
         <f>SUM(B53:D53)</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F53" s="20">
         <f>IF(ISNA(E53),0,IF(AND(E53&gt;15,E53&lt;66),0.01,IF(E53&gt;316,6,ROUNDDOWN((E53-16)/50,0))))</f>
@@ -30423,17 +30423,17 @@
       </c>
       <c r="G53" s="8">
         <f>IF(F53=0.01,E53-16,E53-F53*50)</f>
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5">
       <c r="A54" s="9" t="str">
-        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
-        <v>花辞树</v>
+        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
+        <v>南音潇潇洒洒ご</v>
       </c>
       <c r="B54" s="4">
         <f>VLOOKUP(A54,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C54" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
@@ -30445,7 +30445,7 @@
       </c>
       <c r="E54" s="20">
         <f>SUM(B54:D54)</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F54" s="20">
         <f>IF(ISNA(E54),0,IF(AND(E54&gt;15,E54&lt;66),0.01,IF(E54&gt;316,6,ROUNDDOWN((E54-16)/50,0))))</f>
@@ -30453,17 +30453,17 @@
       </c>
       <c r="G54" s="8">
         <f>IF(F54=0.01,E54-16,E54-F54*50)</f>
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5">
       <c r="A55" s="9" t="str">
-        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
-        <v>大大大大西瓜丶</v>
+        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
+        <v>百花图</v>
       </c>
       <c r="B55" s="4">
         <f>VLOOKUP(A55,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C55" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="E55" s="20">
         <f>SUM(B55:D55)</f>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F55" s="20">
         <f>IF(ISNA(E55),0,IF(AND(E55&gt;15,E55&lt;66),0.01,IF(E55&gt;316,6,ROUNDDOWN((E55-16)/50,0))))</f>
@@ -30483,17 +30483,17 @@
       </c>
       <c r="G55" s="8">
         <f>IF(F55=0.01,E55-16,E55-F55*50)</f>
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5">
       <c r="A56" s="9" t="str">
-        <f t="array" ref="A56">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
-        <v>池小晚</v>
+        <f t="array" ref="A56">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
+        <v>童话话</v>
       </c>
       <c r="B56" s="4">
         <f>VLOOKUP(A56,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A56,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A56,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C56" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="E56" s="20">
         <f>SUM(B56:D56)</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F56" s="20">
         <f>IF(ISNA(E56),0,IF(AND(E56&gt;15,E56&lt;66),0.01,IF(E56&gt;316,6,ROUNDDOWN((E56-16)/50,0))))</f>
@@ -30513,17 +30513,17 @@
       </c>
       <c r="G56" s="8">
         <f>IF(F56=0.01,E56-16,E56-F56*50)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5">
       <c r="A57" s="9" t="str">
-        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
-        <v>鹿山丶政政</v>
+        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
+        <v>笑崖</v>
       </c>
       <c r="B57" s="4">
         <f>VLOOKUP(A57,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
@@ -30535,7 +30535,7 @@
       </c>
       <c r="E57" s="20">
         <f>SUM(B57:D57)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="20">
         <f>IF(ISNA(E57),0,IF(AND(E57&gt;15,E57&lt;66),0.01,IF(E57&gt;316,6,ROUNDDOWN((E57-16)/50,0))))</f>
@@ -30543,17 +30543,17 @@
       </c>
       <c r="G57" s="8">
         <f>IF(F57=0.01,E57-16,E57-F57*50)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="9" t="str">
-        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
-        <v>南音潇潇洒洒ご</v>
+        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
+        <v>검奕瑾검검검＊</v>
       </c>
       <c r="B58" s="4">
         <f>VLOOKUP(A58,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C58" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="E58" s="20">
         <f>SUM(B58:D58)</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F58" s="20">
         <f>IF(ISNA(E58),0,IF(AND(E58&gt;15,E58&lt;66),0.01,IF(E58&gt;316,6,ROUNDDOWN((E58-16)/50,0))))</f>
@@ -30573,17 +30573,17 @@
       </c>
       <c r="G58" s="8">
         <f>IF(F58=0.01,E58-16,E58-F58*50)</f>
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="9" t="str">
-        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
-        <v>百花图</v>
+        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
+        <v>泯渊</v>
       </c>
       <c r="B59" s="4">
         <f>VLOOKUP(A59,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C59" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="E59" s="20">
         <f>SUM(B59:D59)</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F59" s="20">
         <f>IF(ISNA(E59),0,IF(AND(E59&gt;15,E59&lt;66),0.01,IF(E59&gt;316,6,ROUNDDOWN((E59-16)/50,0))))</f>
@@ -30603,13 +30603,13 @@
       </c>
       <c r="G59" s="8">
         <f>IF(F59=0.01,E59-16,E59-F59*50)</f>
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="9" t="str">
-        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
-        <v>笑崖</v>
+        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
+        <v>一朝花满城</v>
       </c>
       <c r="B60" s="4">
         <f>VLOOKUP(A60,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0))</f>
@@ -30638,12 +30638,12 @@
     </row>
     <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="9" t="str">
-        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
-        <v>검奕瑾검검검＊</v>
+        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
+        <v>丿几度度丶</v>
       </c>
       <c r="B61" s="4">
         <f>VLOOKUP(A61,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C61" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
@@ -30655,7 +30655,7 @@
       </c>
       <c r="E61" s="20">
         <f>SUM(B61:D61)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F61" s="20">
         <f>IF(ISNA(E61),0,IF(AND(E61&gt;15,E61&lt;66),0.01,IF(E61&gt;316,6,ROUNDDOWN((E61-16)/50,0))))</f>
@@ -30663,17 +30663,17 @@
       </c>
       <c r="G61" s="8">
         <f>IF(F61=0.01,E61-16,E61-F61*50)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="9" t="str">
-        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
-        <v>泯渊</v>
+        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
+        <v>凉人丨、梦</v>
       </c>
       <c r="B62" s="4">
         <f>VLOOKUP(A62,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C62" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
@@ -30685,7 +30685,7 @@
       </c>
       <c r="E62" s="20">
         <f>SUM(B62:D62)</f>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F62" s="20">
         <f>IF(ISNA(E62),0,IF(AND(E62&gt;15,E62&lt;66),0.01,IF(E62&gt;316,6,ROUNDDOWN((E62-16)/50,0))))</f>
@@ -30693,17 +30693,17 @@
       </c>
       <c r="G62" s="8">
         <f>IF(F62=0.01,E62-16,E62-F62*50)</f>
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="9" t="str">
-        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
-        <v>一朝花满城</v>
+        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
+        <v>凡人的梦</v>
       </c>
       <c r="B63" s="4">
         <f>VLOOKUP(A63,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C63" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="E63" s="20">
         <f>SUM(B63:D63)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F63" s="20">
         <f>IF(ISNA(E63),0,IF(AND(E63&gt;15,E63&lt;66),0.01,IF(E63&gt;316,6,ROUNDDOWN((E63-16)/50,0))))</f>
@@ -30723,17 +30723,17 @@
       </c>
       <c r="G63" s="8">
         <f>IF(F63=0.01,E63-16,E63-F63*50)</f>
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="9" t="str">
-        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
-        <v>丿几度度丶</v>
+        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
+        <v>北城初夏</v>
       </c>
       <c r="B64" s="4">
         <f>VLOOKUP(A64,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C64" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
@@ -30745,7 +30745,7 @@
       </c>
       <c r="E64" s="20">
         <f>SUM(B64:D64)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F64" s="20">
         <f>IF(ISNA(E64),0,IF(AND(E64&gt;15,E64&lt;66),0.01,IF(E64&gt;316,6,ROUNDDOWN((E64-16)/50,0))))</f>
@@ -30753,17 +30753,17 @@
       </c>
       <c r="G64" s="8">
         <f>IF(F64=0.01,E64-16,E64-F64*50)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="9" t="str">
-        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
-        <v>凉人丨、梦</v>
+        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
+        <v>听一曲清金钩钓</v>
       </c>
       <c r="B65" s="4">
         <f>VLOOKUP(A65,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C65" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="E65" s="20">
         <f>SUM(B65:D65)</f>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F65" s="20">
         <f>IF(ISNA(E65),0,IF(AND(E65&gt;15,E65&lt;66),0.01,IF(E65&gt;316,6,ROUNDDOWN((E65-16)/50,0))))</f>
@@ -30783,17 +30783,17 @@
       </c>
       <c r="G65" s="8">
         <f>IF(F65=0.01,E65-16,E65-F65*50)</f>
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="9" t="str">
-        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
-        <v>听一曲清金钩钓</v>
+        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
+        <v>毒药奶茶</v>
       </c>
       <c r="B66" s="4">
         <f>VLOOKUP(A66,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
@@ -30805,7 +30805,7 @@
       </c>
       <c r="E66" s="20">
         <f>SUM(B66:D66)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="20">
         <f>IF(ISNA(E66),0,IF(AND(E66&gt;15,E66&lt;66),0.01,IF(E66&gt;316,6,ROUNDDOWN((E66-16)/50,0))))</f>
@@ -30813,17 +30813,17 @@
       </c>
       <c r="G66" s="8">
         <f>IF(F66=0.01,E66-16,E66-F66*50)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="9" t="str">
-        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
-        <v>毒药奶茶</v>
+        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
+        <v>神威小枪将</v>
       </c>
       <c r="B67" s="4">
         <f>VLOOKUP(A67,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C67" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="E67" s="20">
         <f>SUM(B67:D67)</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F67" s="20">
         <f>IF(ISNA(E67),0,IF(AND(E67&gt;15,E67&lt;66),0.01,IF(E67&gt;316,6,ROUNDDOWN((E67-16)/50,0))))</f>
@@ -30843,7 +30843,7 @@
       </c>
       <c r="G67" s="8">
         <f>IF(F67=0.01,E67-16,E67-F67*50)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5">
@@ -30878,8 +30878,8 @@
     </row>
     <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="9" t="str">
-        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
-        <v>凱蒂喵</v>
+        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
+        <v>（轩辕道尘）</v>
       </c>
       <c r="B69" s="4">
         <f>VLOOKUP(A69,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0))</f>
@@ -30908,8 +30908,8 @@
     </row>
     <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="9" t="str">
-        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
-        <v>友善的若云</v>
+        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
+        <v>kingdan</v>
       </c>
       <c r="B70" s="4">
         <f>VLOOKUP(A70,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0))</f>
@@ -30938,12 +30938,12 @@
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="9" t="str">
-        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
-        <v>无丶聊</v>
+        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
+        <v>Mask、天洛</v>
       </c>
       <c r="B71" s="4">
         <f>VLOOKUP(A71,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C71" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
@@ -30955,7 +30955,7 @@
       </c>
       <c r="E71" s="20">
         <f>SUM(B71:D71)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F71" s="20">
         <f>IF(ISNA(E71),0,IF(AND(E71&gt;15,E71&lt;66),0.01,IF(E71&gt;316,6,ROUNDDOWN((E71-16)/50,0))))</f>
@@ -30963,17 +30963,17 @@
       </c>
       <c r="G71" s="8">
         <f>IF(F71=0.01,E71-16,E71-F71*50)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="9" t="str">
-        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
-        <v>蓝莓小恋人</v>
+        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
+        <v>ジ我走后面</v>
       </c>
       <c r="B72" s="4">
         <f>VLOOKUP(A72,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
@@ -30985,7 +30985,7 @@
       </c>
       <c r="E72" s="20">
         <f>SUM(B72:D72)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72" s="20">
         <f>IF(ISNA(E72),0,IF(AND(E72&gt;15,E72&lt;66),0.01,IF(E72&gt;316,6,ROUNDDOWN((E72-16)/50,0))))</f>
@@ -30993,13 +30993,13 @@
       </c>
       <c r="G72" s="8">
         <f>IF(F72=0.01,E72-16,E72-F72*50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="9" t="str">
-        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
-        <v>云祗琉璃旧゛</v>
+        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
+        <v>㊦゛晴时雨ヾ。</v>
       </c>
       <c r="B73" s="4">
         <f>VLOOKUP(A73,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31028,8 +31028,8 @@
     </row>
     <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="9" t="str">
-        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
-        <v>娜迦海妖</v>
+        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
+        <v>一个有内涵的人</v>
       </c>
       <c r="B74" s="4">
         <f>VLOOKUP(A74,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31058,12 +31058,12 @@
     </row>
     <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="9" t="str">
-        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
-        <v>心远地自翩</v>
+        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
+        <v>一夜雪千山</v>
       </c>
       <c r="B75" s="4">
         <f>VLOOKUP(A75,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="E75" s="20">
         <f>SUM(B75:D75)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75" s="20">
         <f>IF(ISNA(E75),0,IF(AND(E75&gt;15,E75&lt;66),0.01,IF(E75&gt;316,6,ROUNDDOWN((E75-16)/50,0))))</f>
@@ -31083,13 +31083,13 @@
       </c>
       <c r="G75" s="8">
         <f>IF(F75=0.01,E75-16,E75-F75*50)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="9" t="str">
-        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
-        <v>我要摸你的大鸟</v>
+        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
+        <v>丰兰无息</v>
       </c>
       <c r="B76" s="4">
         <f>VLOOKUP(A76,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31118,12 +31118,12 @@
     </row>
     <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="9" t="str">
-        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
-        <v>最爱熊猫</v>
+        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
+        <v>丶北风吹啸月</v>
       </c>
       <c r="B77" s="4">
         <f>VLOOKUP(A77,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C77" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
@@ -31135,7 +31135,7 @@
       </c>
       <c r="E77" s="20">
         <f>SUM(B77:D77)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F77" s="20">
         <f>IF(ISNA(E77),0,IF(AND(E77&gt;15,E77&lt;66),0.01,IF(E77&gt;316,6,ROUNDDOWN((E77-16)/50,0))))</f>
@@ -31143,13 +31143,13 @@
       </c>
       <c r="G77" s="8">
         <f>IF(F77=0.01,E77-16,E77-F77*50)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="9" t="str">
-        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
-        <v>柚子茶花丶</v>
+        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
+        <v>主流丶指尖</v>
       </c>
       <c r="B78" s="4">
         <f>VLOOKUP(A78,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31178,8 +31178,8 @@
     </row>
     <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="9" t="str">
-        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
-        <v>柠檬雪碧√</v>
+        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
+        <v>九霄风霜</v>
       </c>
       <c r="B79" s="4">
         <f>VLOOKUP(A79,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31208,8 +31208,8 @@
     </row>
     <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="9" t="str">
-        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
-        <v>离骚笑</v>
+        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
+        <v>云祗琉璃旧゛</v>
       </c>
       <c r="B80" s="4">
         <f>VLOOKUP(A80,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31238,8 +31238,8 @@
     </row>
     <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="9" t="str">
-        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
-        <v>莫念起</v>
+        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
+        <v>云飞奇</v>
       </c>
       <c r="B81" s="4">
         <f>VLOOKUP(A81,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31268,8 +31268,8 @@
     </row>
     <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="9" t="str">
-        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
-        <v>褚墨儿</v>
+        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
+        <v>仁剑震音扬</v>
       </c>
       <c r="B82" s="4">
         <f>VLOOKUP(A82,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31298,12 +31298,12 @@
     </row>
     <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="9" t="str">
-        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
-        <v>謎恋</v>
+        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
+        <v>八块腹肌小官人</v>
       </c>
       <c r="B83" s="4">
         <f>VLOOKUP(A83,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C83" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="E83" s="20">
         <f>SUM(B83:D83)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F83" s="20">
         <f>IF(ISNA(E83),0,IF(AND(E83&gt;15,E83&lt;66),0.01,IF(E83&gt;316,6,ROUNDDOWN((E83-16)/50,0))))</f>
@@ -31323,13 +31323,13 @@
       </c>
       <c r="G83" s="8">
         <f>IF(F83=0.01,E83-16,E83-F83*50)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="9" t="str">
-        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
-        <v>谁家娇妻守空房</v>
+        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
+        <v>冷空雾月</v>
       </c>
       <c r="B84" s="4">
         <f>VLOOKUP(A84,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31358,8 +31358,8 @@
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="9" t="str">
-        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A140)))&amp;""</f>
-        <v>魅丿无情</v>
+        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
+        <v>凌凌要采莲</v>
       </c>
       <c r="B85" s="4">
         <f>VLOOKUP(A85,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31388,8 +31388,8 @@
     </row>
     <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="9" t="str">
-        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A141)))&amp;""</f>
-        <v>鵼韛</v>
+        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
+        <v>凱蒂喵</v>
       </c>
       <c r="B86" s="4">
         <f>VLOOKUP(A86,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31418,12 +31418,12 @@
     </row>
     <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="9" t="str">
-        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A143)))&amp;""</f>
-        <v>龙丘妙之</v>
+        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
+        <v>刀灵媛</v>
       </c>
       <c r="B87" s="4">
         <f>VLOOKUP(A87,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C87" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
@@ -31435,7 +31435,7 @@
       </c>
       <c r="E87" s="20">
         <f>SUM(B87:D87)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F87" s="20">
         <f>IF(ISNA(E87),0,IF(AND(E87&gt;15,E87&lt;66),0.01,IF(E87&gt;316,6,ROUNDDOWN((E87-16)/50,0))))</f>
@@ -31443,73 +31443,73 @@
       </c>
       <c r="G87" s="8">
         <f>IF(F87=0.01,E87-16,E87-F87*50)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="9" t="str">
-        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A144)))&amp;""</f>
-        <v/>
-      </c>
-      <c r="B88" s="4" t="e">
+        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
+        <v>刁起奶嘴闯天下</v>
+      </c>
+      <c r="B88" s="4">
         <f>VLOOKUP(A88,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C88" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
-        <v>364520</v>
+        <v>0</v>
       </c>
       <c r="D88" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A88)</f>
-        <v>34900</v>
-      </c>
-      <c r="E88" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="E88" s="20">
         <f>SUM(B88:D88)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F88" s="20">
         <f>IF(ISNA(E88),0,IF(AND(E88&gt;15,E88&lt;66),0.01,IF(E88&gt;316,6,ROUNDDOWN((E88-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G88" s="8" t="e">
+      <c r="G88" s="8">
         <f>IF(F88=0.01,E88-16,E88-F88*50)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="9" t="str">
-        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A146)))&amp;""</f>
-        <v/>
-      </c>
-      <c r="B89" s="4" t="e">
+        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
+        <v>刃歌</v>
+      </c>
+      <c r="B89" s="4">
         <f>VLOOKUP(A89,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C89" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
-        <v>364520</v>
+        <v>0</v>
       </c>
       <c r="D89" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A89)</f>
-        <v>34900</v>
-      </c>
-      <c r="E89" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="E89" s="20">
         <f>SUM(B89:D89)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F89" s="20">
         <f>IF(ISNA(E89),0,IF(AND(E89&gt;15,E89&lt;66),0.01,IF(E89&gt;316,6,ROUNDDOWN((E89-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G89" s="8" t="e">
+      <c r="G89" s="8">
         <f>IF(F89=0.01,E89-16,E89-F89*50)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="9" t="str">
-        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
-        <v>（轩辕道尘）</v>
+        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
+        <v>博刷</v>
       </c>
       <c r="B90" s="4">
         <f>VLOOKUP(A90,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31538,8 +31538,8 @@
     </row>
     <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="9" t="str">
-        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
-        <v>kingdan</v>
+        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
+        <v>友善的若云</v>
       </c>
       <c r="B91" s="4">
         <f>VLOOKUP(A91,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31568,12 +31568,12 @@
     </row>
     <row r="92" spans="1:7" ht="16.5">
       <c r="A92" s="9" t="str">
-        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
-        <v>Mask、天洛</v>
+        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
+        <v>唐唐最傲天</v>
       </c>
       <c r="B92" s="4">
         <f>VLOOKUP(A92,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C92" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
@@ -31585,7 +31585,7 @@
       </c>
       <c r="E92" s="20">
         <f>SUM(B92:D92)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F92" s="20">
         <f>IF(ISNA(E92),0,IF(AND(E92&gt;15,E92&lt;66),0.01,IF(E92&gt;316,6,ROUNDDOWN((E92-16)/50,0))))</f>
@@ -31593,13 +31593,13 @@
       </c>
       <c r="G92" s="8">
         <f>IF(F92=0.01,E92-16,E92-F92*50)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="9" t="str">
-        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
-        <v>ジ我走后面</v>
+        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
+        <v>圈圈</v>
       </c>
       <c r="B93" s="4">
         <f>VLOOKUP(A93,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31628,8 +31628,8 @@
     </row>
     <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="9" t="str">
-        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
-        <v>㊦゛晴时雨ヾ。</v>
+        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
+        <v>坂田金时丶</v>
       </c>
       <c r="B94" s="4">
         <f>VLOOKUP(A94,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31658,8 +31658,8 @@
     </row>
     <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="9" t="str">
-        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
-        <v>一个有内涵的人</v>
+        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A91)))&amp;""</f>
+        <v>太阳骑士炮灰</v>
       </c>
       <c r="B95" s="4">
         <f>VLOOKUP(A95,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31688,8 +31688,8 @@
     </row>
     <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="9" t="str">
-        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
-        <v>一夜雪千山</v>
+        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
+        <v>如酒如笙歌ゎ</v>
       </c>
       <c r="B96" s="4">
         <f>VLOOKUP(A96,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31718,8 +31718,8 @@
     </row>
     <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="9" t="str">
-        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
-        <v>丰兰无息</v>
+        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
+        <v>娜迦海妖</v>
       </c>
       <c r="B97" s="4">
         <f>VLOOKUP(A97,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31748,8 +31748,8 @@
     </row>
     <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="9" t="str">
-        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
-        <v>丶北风吹啸月</v>
+        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
+        <v>寒心蕊</v>
       </c>
       <c r="B98" s="4">
         <f>VLOOKUP(A98,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31778,12 +31778,12 @@
     </row>
     <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="9" t="str">
-        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
-        <v>主流丶指尖</v>
+        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
+        <v>巽雷风动</v>
       </c>
       <c r="B99" s="4">
         <f>VLOOKUP(A99,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="E99" s="20">
         <f>SUM(B99:D99)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="20">
         <f>IF(ISNA(E99),0,IF(AND(E99&gt;15,E99&lt;66),0.01,IF(E99&gt;316,6,ROUNDDOWN((E99-16)/50,0))))</f>
@@ -31803,13 +31803,13 @@
       </c>
       <c r="G99" s="8">
         <f>IF(F99=0.01,E99-16,E99-F99*50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="9" t="str">
-        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
-        <v>九霄风霜</v>
+        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
+        <v>帝喾</v>
       </c>
       <c r="B100" s="4">
         <f>VLOOKUP(A100,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31838,8 +31838,8 @@
     </row>
     <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="9" t="str">
-        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
-        <v>云飞奇</v>
+        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
+        <v>心远地自翩</v>
       </c>
       <c r="B101" s="4">
         <f>VLOOKUP(A101,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31868,8 +31868,8 @@
     </row>
     <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="9" t="str">
-        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
-        <v>仁剑震音扬</v>
+        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
+        <v>忘忧忘我</v>
       </c>
       <c r="B102" s="4">
         <f>VLOOKUP(A102,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31898,12 +31898,12 @@
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="9" t="str">
-        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
-        <v>八块腹肌小官人</v>
+        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
+        <v>惜雨</v>
       </c>
       <c r="B103" s="4">
         <f>VLOOKUP(A103,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C103" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
@@ -31915,7 +31915,7 @@
       </c>
       <c r="E103" s="20">
         <f>SUM(B103:D103)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F103" s="20">
         <f>IF(ISNA(E103),0,IF(AND(E103&gt;15,E103&lt;66),0.01,IF(E103&gt;316,6,ROUNDDOWN((E103-16)/50,0))))</f>
@@ -31923,13 +31923,13 @@
       </c>
       <c r="G103" s="8">
         <f>IF(F103=0.01,E103-16,E103-F103*50)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="9" t="str">
-        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
-        <v>冷空雾月</v>
+        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
+        <v>我要摸你的大鸟</v>
       </c>
       <c r="B104" s="4">
         <f>VLOOKUP(A104,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31958,8 +31958,8 @@
     </row>
     <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="9" t="str">
-        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
-        <v>凌凌要采莲</v>
+        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
+        <v>拉轰小女子</v>
       </c>
       <c r="B105" s="4">
         <f>VLOOKUP(A105,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0))</f>
@@ -31988,12 +31988,12 @@
     </row>
     <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="9" t="str">
-        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
-        <v>刀灵媛</v>
+        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
+        <v>无丶聊</v>
       </c>
       <c r="B106" s="4">
         <f>VLOOKUP(A106,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C106" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
@@ -32005,7 +32005,7 @@
       </c>
       <c r="E106" s="20">
         <f>SUM(B106:D106)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F106" s="20">
         <f>IF(ISNA(E106),0,IF(AND(E106&gt;15,E106&lt;66),0.01,IF(E106&gt;316,6,ROUNDDOWN((E106-16)/50,0))))</f>
@@ -32013,13 +32013,13 @@
       </c>
       <c r="G106" s="8">
         <f>IF(F106=0.01,E106-16,E106-F106*50)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="9" t="str">
-        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
-        <v>刁起奶嘴闯天下</v>
+        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
+        <v>春天在车厢里丶</v>
       </c>
       <c r="B107" s="4">
         <f>VLOOKUP(A107,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32048,12 +32048,12 @@
     </row>
     <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="9" t="str">
-        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
-        <v>刃歌</v>
+        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
+        <v>最爱熊猫</v>
       </c>
       <c r="B108" s="4">
         <f>VLOOKUP(A108,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C108" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
@@ -32065,7 +32065,7 @@
       </c>
       <c r="E108" s="20">
         <f>SUM(B108:D108)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F108" s="20">
         <f>IF(ISNA(E108),0,IF(AND(E108&gt;15,E108&lt;66),0.01,IF(E108&gt;316,6,ROUNDDOWN((E108-16)/50,0))))</f>
@@ -32073,13 +32073,13 @@
       </c>
       <c r="G108" s="8">
         <f>IF(F108=0.01,E108-16,E108-F108*50)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5">
       <c r="A109" s="9" t="str">
-        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
-        <v>博刷</v>
+        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
+        <v>月影粟</v>
       </c>
       <c r="B109" s="4">
         <f>VLOOKUP(A109,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32108,8 +32108,8 @@
     </row>
     <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="9" t="str">
-        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
-        <v>唐唐最傲天</v>
+        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
+        <v>未杳丶</v>
       </c>
       <c r="B110" s="4">
         <f>VLOOKUP(A110,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32138,12 +32138,12 @@
     </row>
     <row r="111" spans="1:7" ht="16.5">
       <c r="A111" s="9" t="str">
-        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
-        <v>圈圈</v>
+        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
+        <v>杜凡</v>
       </c>
       <c r="B111" s="4">
         <f>VLOOKUP(A111,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
@@ -32155,7 +32155,7 @@
       </c>
       <c r="E111" s="20">
         <f>SUM(B111:D111)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F111" s="20">
         <f>IF(ISNA(E111),0,IF(AND(E111&gt;15,E111&lt;66),0.01,IF(E111&gt;316,6,ROUNDDOWN((E111-16)/50,0))))</f>
@@ -32163,13 +32163,13 @@
       </c>
       <c r="G111" s="8">
         <f>IF(F111=0.01,E111-16,E111-F111*50)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5">
       <c r="A112" s="9" t="str">
-        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
-        <v>坂田金时丶</v>
+        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
+        <v>柚子茶花丶</v>
       </c>
       <c r="B112" s="4">
         <f>VLOOKUP(A112,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32198,8 +32198,8 @@
     </row>
     <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="9" t="str">
-        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A91)))&amp;""</f>
-        <v>太阳骑士炮灰</v>
+        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
+        <v>柠檬汽酒</v>
       </c>
       <c r="B113" s="4">
         <f>VLOOKUP(A113,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32228,12 +32228,12 @@
     </row>
     <row r="114" spans="1:7" ht="16.5">
       <c r="A114" s="9" t="str">
-        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
-        <v>如酒如笙歌ゎ</v>
+        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
+        <v>柠檬雪碧√</v>
       </c>
       <c r="B114" s="4">
         <f>VLOOKUP(A114,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C114" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
@@ -32245,7 +32245,7 @@
       </c>
       <c r="E114" s="20">
         <f>SUM(B114:D114)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F114" s="20">
         <f>IF(ISNA(E114),0,IF(AND(E114&gt;15,E114&lt;66),0.01,IF(E114&gt;316,6,ROUNDDOWN((E114-16)/50,0))))</f>
@@ -32253,13 +32253,13 @@
       </c>
       <c r="G114" s="8">
         <f>IF(F114=0.01,E114-16,E114-F114*50)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5">
       <c r="A115" s="9" t="str">
-        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
-        <v>寒心蕊</v>
+        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
+        <v>椛灯</v>
       </c>
       <c r="B115" s="4">
         <f>VLOOKUP(A115,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32288,12 +32288,12 @@
     </row>
     <row r="116" spans="1:7" ht="16.5">
       <c r="A116" s="9" t="str">
-        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
-        <v>巽雷风动</v>
+        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
+        <v>殇如此忧伤</v>
       </c>
       <c r="B116" s="4">
         <f>VLOOKUP(A116,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
@@ -32305,7 +32305,7 @@
       </c>
       <c r="E116" s="20">
         <f>SUM(B116:D116)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" s="20">
         <f>IF(ISNA(E116),0,IF(AND(E116&gt;15,E116&lt;66),0.01,IF(E116&gt;316,6,ROUNDDOWN((E116-16)/50,0))))</f>
@@ -32313,13 +32313,13 @@
       </c>
       <c r="G116" s="8">
         <f>IF(F116=0.01,E116-16,E116-F116*50)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="9" t="str">
-        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
-        <v>帝喾</v>
+        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
+        <v>洛阳承</v>
       </c>
       <c r="B117" s="4">
         <f>VLOOKUP(A117,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32348,8 +32348,8 @@
     </row>
     <row r="118" spans="1:7" ht="16.5">
       <c r="A118" s="9" t="str">
-        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
-        <v>忘忧忘我</v>
+        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
+        <v>爱酸酸</v>
       </c>
       <c r="B118" s="4">
         <f>VLOOKUP(A118,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32378,8 +32378,8 @@
     </row>
     <row r="119" spans="1:7" ht="16.5">
       <c r="A119" s="9" t="str">
-        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
-        <v>惜雨</v>
+        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
+        <v>祢璟</v>
       </c>
       <c r="B119" s="4">
         <f>VLOOKUP(A119,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32408,8 +32408,8 @@
     </row>
     <row r="120" spans="1:7" ht="16.5">
       <c r="A120" s="9" t="str">
-        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
-        <v>拉轰小女子</v>
+        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
+        <v>离骚笑</v>
       </c>
       <c r="B120" s="4">
         <f>VLOOKUP(A120,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32438,8 +32438,8 @@
     </row>
     <row r="121" spans="1:7" ht="16.5">
       <c r="A121" s="9" t="str">
-        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
-        <v>春天在车厢里丶</v>
+        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
+        <v>米兰的阳光</v>
       </c>
       <c r="B121" s="4">
         <f>VLOOKUP(A121,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32468,8 +32468,8 @@
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="9" t="str">
-        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
-        <v>月影粟</v>
+        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
+        <v>糖糖哒</v>
       </c>
       <c r="B122" s="4">
         <f>VLOOKUP(A122,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32498,8 +32498,8 @@
     </row>
     <row r="123" spans="1:7" ht="16.5">
       <c r="A123" s="9" t="str">
-        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
-        <v>未杳丶</v>
+        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
+        <v>红毛</v>
       </c>
       <c r="B123" s="4">
         <f>VLOOKUP(A123,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32528,8 +32528,8 @@
     </row>
     <row r="124" spans="1:7" ht="16.5">
       <c r="A124" s="9" t="str">
-        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
-        <v>杜凡</v>
+        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
+        <v>红颜痴情笑</v>
       </c>
       <c r="B124" s="4">
         <f>VLOOKUP(A124,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32558,8 +32558,8 @@
     </row>
     <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="9" t="str">
-        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
-        <v>柠檬汽酒</v>
+        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
+        <v>纳加法</v>
       </c>
       <c r="B125" s="4">
         <f>VLOOKUP(A125,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32588,8 +32588,8 @@
     </row>
     <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="9" t="str">
-        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
-        <v>椛灯</v>
+        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
+        <v>臻臻无敌衰</v>
       </c>
       <c r="B126" s="4">
         <f>VLOOKUP(A126,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32618,8 +32618,8 @@
     </row>
     <row r="127" spans="1:7" ht="16.5">
       <c r="A127" s="9" t="str">
-        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
-        <v>殇如此忧伤</v>
+        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
+        <v>莫念起</v>
       </c>
       <c r="B127" s="4">
         <f>VLOOKUP(A127,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32648,8 +32648,8 @@
     </row>
     <row r="128" spans="1:7" ht="16.5">
       <c r="A128" s="9" t="str">
-        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
-        <v>洛阳承</v>
+        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
+        <v>莫雪飞飞</v>
       </c>
       <c r="B128" s="4">
         <f>VLOOKUP(A128,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32678,8 +32678,8 @@
     </row>
     <row r="129" spans="1:7" ht="16.5">
       <c r="A129" s="9" t="str">
-        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
-        <v>爱酸酸</v>
+        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
+        <v>萌萌的小旦</v>
       </c>
       <c r="B129" s="4">
         <f>VLOOKUP(A129,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32708,8 +32708,8 @@
     </row>
     <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="9" t="str">
-        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
-        <v>祢璟</v>
+        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
+        <v>落落清歡丶</v>
       </c>
       <c r="B130" s="4">
         <f>VLOOKUP(A130,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32738,8 +32738,8 @@
     </row>
     <row r="131" spans="1:7" ht="16.5">
       <c r="A131" s="9" t="str">
-        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
-        <v>米兰的阳光</v>
+        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
+        <v>蓝莓小恋人</v>
       </c>
       <c r="B131" s="4">
         <f>VLOOKUP(A131,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32768,8 +32768,8 @@
     </row>
     <row r="132" spans="1:7" ht="16.5">
       <c r="A132" s="9" t="str">
-        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
-        <v>糖糖哒</v>
+        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
+        <v>褚墨儿</v>
       </c>
       <c r="B132" s="4">
         <f>VLOOKUP(A132,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32798,8 +32798,8 @@
     </row>
     <row r="133" spans="1:7" ht="16.5">
       <c r="A133" s="9" t="str">
-        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
-        <v>红毛</v>
+        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
+        <v>謎恋</v>
       </c>
       <c r="B133" s="4">
         <f>VLOOKUP(A133,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32828,8 +32828,8 @@
     </row>
     <row r="134" spans="1:7" ht="16.5">
       <c r="A134" s="9" t="str">
-        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
-        <v>红颜痴情笑</v>
+        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
+        <v>谁家娇妻守空房</v>
       </c>
       <c r="B134" s="4">
         <f>VLOOKUP(A134,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32858,8 +32858,8 @@
     </row>
     <row r="135" spans="1:7" ht="16.5">
       <c r="A135" s="9" t="str">
-        <f t="array" ref="A135">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
-        <v>纳加法</v>
+        <f t="array" ref="A135">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A133)))&amp;""</f>
+        <v>轩辕明风</v>
       </c>
       <c r="B135" s="4">
         <f>VLOOKUP(A135,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A135,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A135,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32888,8 +32888,8 @@
     </row>
     <row r="136" spans="1:7" ht="16.5">
       <c r="A136" s="9" t="str">
-        <f t="array" ref="A136">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
-        <v>臻臻无敌衰</v>
+        <f t="array" ref="A136">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A134)))&amp;""</f>
+        <v>达娃央宗</v>
       </c>
       <c r="B136" s="4">
         <f>VLOOKUP(A136,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A136,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A136,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32918,8 +32918,8 @@
     </row>
     <row r="137" spans="1:7" ht="16.5">
       <c r="A137" s="9" t="str">
-        <f t="array" ref="A137">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
-        <v>莫雪飞飞</v>
+        <f t="array" ref="A137">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A135)))&amp;""</f>
+        <v>这游戏真挺难啊</v>
       </c>
       <c r="B137" s="4">
         <f>VLOOKUP(A137,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A137,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A137,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32948,8 +32948,8 @@
     </row>
     <row r="138" spans="1:7" ht="16.5">
       <c r="A138" s="9" t="str">
-        <f t="array" ref="A138">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
-        <v>萌萌的小旦</v>
+        <f t="array" ref="A138">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A136)))&amp;""</f>
+        <v>醉里论道、</v>
       </c>
       <c r="B138" s="4">
         <f>VLOOKUP(A138,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A138,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A138,历史结余DKP!A$1:B$599,2,0))</f>
@@ -32978,8 +32978,8 @@
     </row>
     <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="9" t="str">
-        <f t="array" ref="A139">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
-        <v>落落清歡丶</v>
+        <f t="array" ref="A139">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A137)))&amp;""</f>
+        <v>闭月羞</v>
       </c>
       <c r="B139" s="4">
         <f>VLOOKUP(A139,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A139,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A139,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33008,8 +33008,8 @@
     </row>
     <row r="140" spans="1:7" ht="16.5">
       <c r="A140" s="9" t="str">
-        <f t="array" ref="A140">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A133)))&amp;""</f>
-        <v>轩辕明风</v>
+        <f t="array" ref="A140">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A138)))&amp;""</f>
+        <v>雪域星空</v>
       </c>
       <c r="B140" s="4">
         <f>VLOOKUP(A140,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A140,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A140,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33038,8 +33038,8 @@
     </row>
     <row r="141" spans="1:7" ht="16.5">
       <c r="A141" s="9" t="str">
-        <f t="array" ref="A141">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A134)))&amp;""</f>
-        <v>达娃央宗</v>
+        <f t="array" ref="A141">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A139)))&amp;""</f>
+        <v>‭雪练ゞ</v>
       </c>
       <c r="B141" s="4">
         <f>VLOOKUP(A141,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A141,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A141,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33068,8 +33068,8 @@
     </row>
     <row r="142" spans="1:7" ht="16.5">
       <c r="A142" s="9" t="str">
-        <f t="array" ref="A142">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A135)))&amp;""</f>
-        <v>这游戏真挺难啊</v>
+        <f t="array" ref="A142">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A140)))&amp;""</f>
+        <v>魅丿无情</v>
       </c>
       <c r="B142" s="4">
         <f>VLOOKUP(A142,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A142,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A142,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33098,8 +33098,8 @@
     </row>
     <row r="143" spans="1:7" ht="16.5">
       <c r="A143" s="9" t="str">
-        <f t="array" ref="A143">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A136)))&amp;""</f>
-        <v>醉里论道、</v>
+        <f t="array" ref="A143">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A141)))&amp;""</f>
+        <v>鵼韛</v>
       </c>
       <c r="B143" s="4">
         <f>VLOOKUP(A143,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A143,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A143,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33128,8 +33128,8 @@
     </row>
     <row r="144" spans="1:7" ht="16.5">
       <c r="A144" s="9" t="str">
-        <f t="array" ref="A144">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A137)))&amp;""</f>
-        <v>闭月羞</v>
+        <f t="array" ref="A144">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A143)))&amp;""</f>
+        <v>龙丘妙之</v>
       </c>
       <c r="B144" s="4">
         <f>VLOOKUP(A144,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A144,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A144,历史结余DKP!A$1:B$599,2,0))</f>
@@ -33158,67 +33158,67 @@
     </row>
     <row r="145" spans="1:7" ht="16.5">
       <c r="A145" s="9" t="str">
-        <f t="array" ref="A145">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A138)))&amp;""</f>
-        <v>雪域星空</v>
-      </c>
-      <c r="B145" s="4">
+        <f t="array" ref="A145">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A144)))&amp;""</f>
+        <v/>
+      </c>
+      <c r="B145" s="4" t="e">
         <f>VLOOKUP(A145,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A145,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A145,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C145" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
-        <v>0</v>
+        <v>364520</v>
       </c>
       <c r="D145" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A145)</f>
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
+        <v>34900</v>
+      </c>
+      <c r="E145" s="20" t="e">
         <f>SUM(B145:D145)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="F145" s="20">
         <f>IF(ISNA(E145),0,IF(AND(E145&gt;15,E145&lt;66),0.01,IF(E145&gt;316,6,ROUNDDOWN((E145-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="8" t="e">
         <f>IF(F145=0.01,E145-16,E145-F145*50)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5">
       <c r="A146" s="9" t="str">
-        <f t="array" ref="A146">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A139)))&amp;""</f>
-        <v>‭雪练ゞ</v>
-      </c>
-      <c r="B146" s="4">
+        <f t="array" ref="A146">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A145)))&amp;""</f>
+        <v/>
+      </c>
+      <c r="B146" s="4" t="e">
         <f>VLOOKUP(A146,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A146,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A146,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="C146" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
-        <v>0</v>
+        <v>364520</v>
       </c>
       <c r="D146" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A146)</f>
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
+        <v>34900</v>
+      </c>
+      <c r="E146" s="20" t="e">
         <f>SUM(B146:D146)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="F146" s="20">
         <f>IF(ISNA(E146),0,IF(AND(E146&gt;15,E146&lt;66),0.01,IF(E146&gt;316,6,ROUNDDOWN((E146-16)/50,0))))</f>
         <v>0</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="8" t="e">
         <f>IF(F146=0.01,E146-16,E146-F146*50)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5">
       <c r="A147" s="9" t="str">
-        <f t="array" ref="A147">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A145)))&amp;""</f>
+        <f t="array" ref="A147">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生如梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A146)))&amp;""</f>
         <v/>
       </c>
       <c r="B147" s="4" t="e">
@@ -33428,24 +33428,24 @@
     </row>
     <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="9" t="str">
-        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
-        <v>冷晓汐丶</v>
+        <f t="array" ref="A3">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A2)))&amp;""</f>
+        <v>水影悠兰</v>
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A3,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>308</v>
+        <v>508</v>
       </c>
       <c r="C3" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D3" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>428</v>
+        <v>748</v>
       </c>
       <c r="F3" s="20">
         <f>IF(ISNA(E3),0,IF(AND(E3&gt;15,E3&lt;66),0.01,IF(E3&gt;316,6,ROUNDDOWN((E3-16)/50,0))))</f>
@@ -33453,17 +33453,17 @@
       </c>
       <c r="G3" s="8">
         <f>IF(F3=0.01,E3-16,E3-F3*50)</f>
-        <v>128</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="9" t="str">
-        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
-        <v>蝶舞旧梦</v>
+        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A4)))&amp;""</f>
+        <v>墨韵轩华</v>
       </c>
       <c r="B4" s="4">
         <f>VLOOKUP(A4,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C4" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
@@ -33471,11 +33471,11 @@
       </c>
       <c r="D4" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A4)</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F4" s="20">
         <f>IF(ISNA(E4),0,IF(AND(E4&gt;15,E4&lt;66),0.01,IF(E4&gt;316,6,ROUNDDOWN((E4-16)/50,0))))</f>
@@ -33483,17 +33483,17 @@
       </c>
       <c r="G4" s="8">
         <f>IF(F4=0.01,E4-16,E4-F4*50)</f>
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="9" t="str">
-        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A2)))&amp;""</f>
-        <v>水影悠兰</v>
+        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A5)))&amp;""</f>
+        <v>紫雨幽雲</v>
       </c>
       <c r="B5" s="4">
         <f>VLOOKUP(A5,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="C5" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
@@ -33505,7 +33505,7 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="F5" s="20">
         <f>IF(ISNA(E5),0,IF(AND(E5&gt;15,E5&lt;66),0.01,IF(E5&gt;316,6,ROUNDDOWN((E5-16)/50,0))))</f>
@@ -33513,29 +33513,29 @@
       </c>
       <c r="G5" s="8">
         <f>IF(F5=0.01,E5-16,E5-F5*50)</f>
-        <v>448</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="9" t="str">
-        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
-        <v>千绯</v>
+        <f t="array" ref="A6">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A6)))&amp;""</f>
+        <v>冷晓汐丶</v>
       </c>
       <c r="B6" s="4">
         <f>VLOOKUP(A6,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A6,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="C6" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D6" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A6)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F6" s="20">
         <f>IF(ISNA(E6),0,IF(AND(E6&gt;15,E6&lt;66),0.01,IF(E6&gt;316,6,ROUNDDOWN((E6-16)/50,0))))</f>
@@ -33543,7 +33543,7 @@
       </c>
       <c r="G6" s="8">
         <f>IF(F6=0.01,E6-16,E6-F6*50)</f>
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5">
@@ -33578,12 +33578,12 @@
     </row>
     <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="9" t="str">
-        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
-        <v>踏马清月夜</v>
+        <f t="array" ref="A8">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
+        <v>蝶舞旧梦</v>
       </c>
       <c r="B8" s="4">
         <f>VLOOKUP(A8,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A8,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="C8" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
@@ -33591,11 +33591,11 @@
       </c>
       <c r="D8" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A8)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="20">
         <f>SUM(B8:D8)</f>
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="F8" s="20">
         <f>IF(ISNA(E8),0,IF(AND(E8&gt;15,E8&lt;66),0.01,IF(E8&gt;316,6,ROUNDDOWN((E8-16)/50,0))))</f>
@@ -33603,29 +33603,29 @@
       </c>
       <c r="G8" s="8">
         <f>IF(F8=0.01,E8-16,E8-F8*50)</f>
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="9" t="str">
-        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
-        <v>伊贰叁</v>
+        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
+        <v>千绯</v>
       </c>
       <c r="B9" s="4">
         <f>VLOOKUP(A9,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C9" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D9" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A9)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E9" s="20">
         <f>SUM(B9:D9)</f>
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="F9" s="20">
         <f>IF(ISNA(E9),0,IF(AND(E9&gt;15,E9&lt;66),0.01,IF(E9&gt;316,6,ROUNDDOWN((E9-16)/50,0))))</f>
@@ -33633,29 +33633,29 @@
       </c>
       <c r="G9" s="8">
         <f>IF(F9=0.01,E9-16,E9-F9*50)</f>
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="9" t="str">
-        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
-        <v>何月凡</v>
+        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A11)))&amp;""</f>
+        <v>踏马清月夜</v>
       </c>
       <c r="B10" s="4">
         <f>VLOOKUP(A10,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="C10" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D10" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A10)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="20">
         <f>SUM(B10:D10)</f>
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="F10" s="20">
         <f>IF(ISNA(E10),0,IF(AND(E10&gt;15,E10&lt;66),0.01,IF(E10&gt;316,6,ROUNDDOWN((E10-16)/50,0))))</f>
@@ -33663,17 +33663,17 @@
       </c>
       <c r="G10" s="8">
         <f>IF(F10=0.01,E10-16,E10-F10*50)</f>
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="9" t="str">
-        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A4)))&amp;""</f>
-        <v>墨韵轩华</v>
+        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A13)))&amp;""</f>
+        <v>伊贰叁</v>
       </c>
       <c r="B11" s="4">
         <f>VLOOKUP(A11,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C11" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
@@ -33681,11 +33681,11 @@
       </c>
       <c r="D11" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A11)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" s="20">
         <f>SUM(B11:D11)</f>
-        <v>465</v>
+        <v>353</v>
       </c>
       <c r="F11" s="20">
         <f>IF(ISNA(E11),0,IF(AND(E11&gt;15,E11&lt;66),0.01,IF(E11&gt;316,6,ROUNDDOWN((E11-16)/50,0))))</f>
@@ -33693,29 +33693,29 @@
       </c>
       <c r="G11" s="8">
         <f>IF(F11=0.01,E11-16,E11-F11*50)</f>
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="9" t="str">
-        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A5)))&amp;""</f>
-        <v>紫雨幽雲</v>
+        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
+        <v>奶小牛丶</v>
       </c>
       <c r="B12" s="4">
         <f>VLOOKUP(A12,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>553</v>
+        <v>193</v>
       </c>
       <c r="C12" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D12" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A12)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" s="20">
         <f>SUM(B12:D12)</f>
-        <v>793</v>
+        <v>333</v>
       </c>
       <c r="F12" s="20">
         <f>IF(ISNA(E12),0,IF(AND(E12&gt;15,E12&lt;66),0.01,IF(E12&gt;316,6,ROUNDDOWN((E12-16)/50,0))))</f>
@@ -33723,21 +33723,21 @@
       </c>
       <c r="G12" s="8">
         <f>IF(F12=0.01,E12-16,E12-F12*50)</f>
-        <v>493</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="9" t="str">
-        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A14)))&amp;""</f>
-        <v>奶小牛丶</v>
+        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
+        <v>何月凡</v>
       </c>
       <c r="B13" s="4">
         <f>VLOOKUP(A13,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C13" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A13)</f>
@@ -33745,7 +33745,7 @@
       </c>
       <c r="E13" s="20">
         <f>SUM(B13:D13)</f>
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F13" s="20">
         <f>IF(ISNA(E13),0,IF(AND(E13&gt;15,E13&lt;66),0.01,IF(E13&gt;316,6,ROUNDDOWN((E13-16)/50,0))))</f>
@@ -33753,7 +33753,7 @@
       </c>
       <c r="G13" s="8">
         <f>IF(F13=0.01,E13-16,E13-F13*50)</f>
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
@@ -33878,12 +33878,12 @@
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="9" t="str">
-        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A26)))&amp;""</f>
-        <v>叫我杀手先生</v>
+        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
+        <v>叮当猫づ</v>
       </c>
       <c r="B18" s="4">
         <f>VLOOKUP(A18,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C18" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
@@ -33891,11 +33891,11 @@
       </c>
       <c r="D18" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A18)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E18" s="20">
         <f>SUM(B18:D18)</f>
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F18" s="20">
         <f>IF(ISNA(E18),0,IF(AND(E18&gt;15,E18&lt;66),0.01,IF(E18&gt;316,6,ROUNDDOWN((E18-16)/50,0))))</f>
@@ -33903,29 +33903,29 @@
       </c>
       <c r="G18" s="8">
         <f>IF(F18=0.01,E18-16,E18-F18*50)</f>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9" t="str">
-        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A15)))&amp;""</f>
-        <v>叮当猫づ</v>
+        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
+        <v>㏑ゞ初心ノ</v>
       </c>
       <c r="B19" s="4">
         <f>VLOOKUP(A19,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C19" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A19)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20">
         <f>SUM(B19:D19)</f>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F19" s="20">
         <f>IF(ISNA(E19),0,IF(AND(E19&gt;15,E19&lt;66),0.01,IF(E19&gt;316,6,ROUNDDOWN((E19-16)/50,0))))</f>
@@ -33933,17 +33933,17 @@
       </c>
       <c r="G19" s="8">
         <f>IF(F19=0.01,E19-16,E19-F19*50)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="9" t="str">
-        <f t="array" ref="A20">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
-        <v>㏑ゞ初心ノ</v>
+        <f t="array" ref="A20">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
+        <v>我讨厌用名字</v>
       </c>
       <c r="B20" s="4">
         <f>VLOOKUP(A20,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A20,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A20,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C20" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
@@ -33951,11 +33951,11 @@
       </c>
       <c r="D20" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A20)</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E20" s="20">
         <f>SUM(B20:D20)</f>
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F20" s="20">
         <f>IF(ISNA(E20),0,IF(AND(E20&gt;15,E20&lt;66),0.01,IF(E20&gt;316,6,ROUNDDOWN((E20-16)/50,0))))</f>
@@ -33963,29 +33963,29 @@
       </c>
       <c r="G20" s="8">
         <f>IF(F20=0.01,E20-16,E20-F20*50)</f>
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="9" t="str">
-        <f t="array" ref="A21">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A19)))&amp;""</f>
-        <v>我讨厌用名字</v>
+        <f t="array" ref="A21">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A26)))&amp;""</f>
+        <v>叫我杀手先生</v>
       </c>
       <c r="B21" s="4">
         <f>VLOOKUP(A21,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A21,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A21,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C21" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D21" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A21)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E21" s="20">
         <f>SUM(B21:D21)</f>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F21" s="20">
         <f>IF(ISNA(E21),0,IF(AND(E21&gt;15,E21&lt;66),0.01,IF(E21&gt;316,6,ROUNDDOWN((E21-16)/50,0))))</f>
@@ -33993,7 +33993,7 @@
       </c>
       <c r="G21" s="8">
         <f>IF(F21=0.01,E21-16,E21-F21*50)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5">
@@ -34028,12 +34028,12 @@
     </row>
     <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="9" t="str">
-        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
-        <v>几度。</v>
+        <f t="array" ref="A23">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
+        <v>翊兮</v>
       </c>
       <c r="B23" s="4">
         <f>VLOOKUP(A23,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A23,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C23" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
@@ -34045,7 +34045,7 @@
       </c>
       <c r="E23" s="20">
         <f>SUM(B23:D23)</f>
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F23" s="20">
         <f>IF(ISNA(E23),0,IF(AND(E23&gt;15,E23&lt;66),0.01,IF(E23&gt;316,6,ROUNDDOWN((E23-16)/50,0))))</f>
@@ -34053,17 +34053,17 @@
       </c>
       <c r="G23" s="8">
         <f>IF(F23=0.01,E23-16,E23-F23*50)</f>
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="9" t="str">
-        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
-        <v>翊兮</v>
+        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
+        <v>汪汪汪汪汪汪。</v>
       </c>
       <c r="B24" s="4">
         <f>VLOOKUP(A24,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C24" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
@@ -34075,7 +34075,7 @@
       </c>
       <c r="E24" s="20">
         <f>SUM(B24:D24)</f>
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F24" s="20">
         <f>IF(ISNA(E24),0,IF(AND(E24&gt;15,E24&lt;66),0.01,IF(E24&gt;316,6,ROUNDDOWN((E24-16)/50,0))))</f>
@@ -34083,21 +34083,21 @@
       </c>
       <c r="G24" s="8">
         <f>IF(F24=0.01,E24-16,E24-F24*50)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="9" t="str">
-        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
-        <v>汪汪汪汪汪汪。</v>
+        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A23)))&amp;""</f>
+        <v>丶吴宇森</v>
       </c>
       <c r="B25" s="4">
         <f>VLOOKUP(A25,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C25" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D25" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A25)</f>
@@ -34105,7 +34105,7 @@
       </c>
       <c r="E25" s="20">
         <f>SUM(B25:D25)</f>
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F25" s="20">
         <f>IF(ISNA(E25),0,IF(AND(E25&gt;15,E25&lt;66),0.01,IF(E25&gt;316,6,ROUNDDOWN((E25-16)/50,0))))</f>
@@ -34113,21 +34113,21 @@
       </c>
       <c r="G25" s="8">
         <f>IF(F25=0.01,E25-16,E25-F25*50)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="9" t="str">
-        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A23)))&amp;""</f>
-        <v>丶吴宇森</v>
+        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A25)))&amp;""</f>
+        <v>几度。</v>
       </c>
       <c r="B26" s="4">
         <f>VLOOKUP(A26,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C26" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D26" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A26)</f>
@@ -34135,7 +34135,7 @@
       </c>
       <c r="E26" s="20">
         <f>SUM(B26:D26)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="20">
         <f>IF(ISNA(E26),0,IF(AND(E26&gt;15,E26&lt;66),0.01,IF(E26&gt;316,6,ROUNDDOWN((E26-16)/50,0))))</f>
@@ -34143,17 +34143,17 @@
       </c>
       <c r="G26" s="8">
         <f>IF(F26=0.01,E26-16,E26-F26*50)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="9" t="str">
-        <f t="array" ref="A27">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A28)))&amp;""</f>
-        <v>艾莉亞史塔克</v>
+        <f t="array" ref="A27">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A20)))&amp;""</f>
+        <v>天下芒果</v>
       </c>
       <c r="B27" s="4">
         <f>VLOOKUP(A27,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A27,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A27,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C27" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
@@ -34165,7 +34165,7 @@
       </c>
       <c r="E27" s="20">
         <f>SUM(B27:D27)</f>
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F27" s="20">
         <f>IF(ISNA(E27),0,IF(AND(E27&gt;15,E27&lt;66),0.01,IF(E27&gt;316,6,ROUNDDOWN((E27-16)/50,0))))</f>
@@ -34173,17 +34173,17 @@
       </c>
       <c r="G27" s="8">
         <f>IF(F27=0.01,E27-16,E27-F27*50)</f>
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="9" t="str">
-        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A20)))&amp;""</f>
-        <v>天下芒果</v>
+        <f t="array" ref="A28">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A28)))&amp;""</f>
+        <v>艾莉亞史塔克</v>
       </c>
       <c r="B28" s="4">
         <f>VLOOKUP(A28,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A28,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C28" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="E28" s="20">
         <f>SUM(B28:D28)</f>
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F28" s="20">
         <f>IF(ISNA(E28),0,IF(AND(E28&gt;15,E28&lt;66),0.01,IF(E28&gt;316,6,ROUNDDOWN((E28-16)/50,0))))</f>
@@ -34203,17 +34203,17 @@
       </c>
       <c r="G28" s="8">
         <f>IF(F28=0.01,E28-16,E28-F28*50)</f>
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="9" t="str">
-        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A33)))&amp;""</f>
-        <v>帅气无敌康爸爸</v>
+        <f t="array" ref="A29">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
+        <v>喵喵喵喵喵喵。</v>
       </c>
       <c r="B29" s="4">
         <f>VLOOKUP(A29,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A29,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
@@ -34225,7 +34225,7 @@
       </c>
       <c r="E29" s="20">
         <f>SUM(B29:D29)</f>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F29" s="20">
         <f>IF(ISNA(E29),0,IF(AND(E29&gt;15,E29&lt;66),0.01,IF(E29&gt;316,6,ROUNDDOWN((E29-16)/50,0))))</f>
@@ -34233,7 +34233,7 @@
       </c>
       <c r="G29" s="8">
         <f>IF(F29=0.01,E29-16,E29-F29*50)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5">
@@ -34268,12 +34268,12 @@
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="9" t="str">
-        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
-        <v>喵喵喵喵喵喵。</v>
+        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A33)))&amp;""</f>
+        <v>帅气无敌康爸爸</v>
       </c>
       <c r="B31" s="4">
         <f>VLOOKUP(A31,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C31" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
@@ -34285,7 +34285,7 @@
       </c>
       <c r="E31" s="20">
         <f>SUM(B31:D31)</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F31" s="20">
         <f>IF(ISNA(E31),0,IF(AND(E31&gt;15,E31&lt;66),0.01,IF(E31&gt;316,6,ROUNDDOWN((E31-16)/50,0))))</f>
@@ -34293,7 +34293,7 @@
       </c>
       <c r="G31" s="8">
         <f>IF(F31=0.01,E31-16,E31-F31*50)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5">
@@ -34388,12 +34388,12 @@
     </row>
     <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="9" t="str">
-        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
-        <v>随你几时丶</v>
+        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
+        <v>訫醉陌影生若梦</v>
       </c>
       <c r="B35" s="4">
         <f>VLOOKUP(A35,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C35" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
@@ -34405,7 +34405,7 @@
       </c>
       <c r="E35" s="20">
         <f>SUM(B35:D35)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F35" s="20">
         <f>IF(ISNA(E35),0,IF(AND(E35&gt;15,E35&lt;66),0.01,IF(E35&gt;316,6,ROUNDDOWN((E35-16)/50,0))))</f>
@@ -34413,17 +34413,17 @@
       </c>
       <c r="G35" s="8">
         <f>IF(F35=0.01,E35-16,E35-F35*50)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="9" t="str">
-        <f t="array" ref="A36">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
-        <v>那年今若、</v>
+        <f t="array" ref="A36">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
+        <v>随你几时丶</v>
       </c>
       <c r="B36" s="4">
         <f>VLOOKUP(A36,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A36,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A36,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C36" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="E36" s="20">
         <f>SUM(B36:D36)</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F36" s="20">
         <f>IF(ISNA(E36),0,IF(AND(E36&gt;15,E36&lt;66),0.01,IF(E36&gt;316,6,ROUNDDOWN((E36-16)/50,0))))</f>
@@ -34443,29 +34443,29 @@
       </c>
       <c r="G36" s="8">
         <f>IF(F36=0.01,E36-16,E36-F36*50)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="9" t="str">
-        <f t="array" ref="A37">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
-        <v>乘風剑</v>
+        <f t="array" ref="A37">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
+        <v>冷如是丶</v>
       </c>
       <c r="B37" s="4">
         <f>VLOOKUP(A37,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A37,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A37,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C37" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D37" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A37)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E37" s="20">
         <f>SUM(B37:D37)</f>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F37" s="20">
         <f>IF(ISNA(E37),0,IF(AND(E37&gt;15,E37&lt;66),0.01,IF(E37&gt;316,6,ROUNDDOWN((E37-16)/50,0))))</f>
@@ -34473,17 +34473,17 @@
       </c>
       <c r="G37" s="8">
         <f>IF(F37=0.01,E37-16,E37-F37*50)</f>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="9" t="str">
-        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
-        <v>潇洒仗剑天下</v>
+        <f t="array" ref="A38">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
+        <v>那年今若、</v>
       </c>
       <c r="B38" s="4">
         <f>VLOOKUP(A38,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A38,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C38" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
@@ -34495,7 +34495,7 @@
       </c>
       <c r="E38" s="20">
         <f>SUM(B38:D38)</f>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F38" s="20">
         <f>IF(ISNA(E38),0,IF(AND(E38&gt;15,E38&lt;66),0.01,IF(E38&gt;316,6,ROUNDDOWN((E38-16)/50,0))))</f>
@@ -34503,17 +34503,17 @@
       </c>
       <c r="G38" s="8">
         <f>IF(F38=0.01,E38-16,E38-F38*50)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="9" t="str">
-        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A35)))&amp;""</f>
-        <v>訫醉陌影生若梦</v>
+        <f t="array" ref="A39">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
+        <v>乘風剑</v>
       </c>
       <c r="B39" s="4">
         <f>VLOOKUP(A39,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A39,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C39" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
@@ -34521,11 +34521,11 @@
       </c>
       <c r="D39" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A39)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E39" s="20">
         <f>SUM(B39:D39)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F39" s="20">
         <f>IF(ISNA(E39),0,IF(AND(E39&gt;15,E39&lt;66),0.01,IF(E39&gt;316,6,ROUNDDOWN((E39-16)/50,0))))</f>
@@ -34533,21 +34533,21 @@
       </c>
       <c r="G39" s="8">
         <f>IF(F39=0.01,E39-16,E39-F39*50)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="9" t="str">
-        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
-        <v>冷如是丶</v>
+        <f t="array" ref="A40">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
+        <v>潇洒仗剑天下</v>
       </c>
       <c r="B40" s="4">
         <f>VLOOKUP(A40,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A40,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C40" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D40" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A40)</f>
@@ -34555,7 +34555,7 @@
       </c>
       <c r="E40" s="20">
         <f>SUM(B40:D40)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F40" s="20">
         <f>IF(ISNA(E40),0,IF(AND(E40&gt;15,E40&lt;66),0.01,IF(E40&gt;316,6,ROUNDDOWN((E40-16)/50,0))))</f>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="G40" s="8">
         <f>IF(F40=0.01,E40-16,E40-F40*50)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5">
@@ -34628,12 +34628,12 @@
     </row>
     <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="9" t="str">
-        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
-        <v>逍遥凝月</v>
+        <f t="array" ref="A43">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
+        <v>四月耀阳</v>
       </c>
       <c r="B43" s="4">
         <f>VLOOKUP(A43,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A43,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C43" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
@@ -34645,7 +34645,7 @@
       </c>
       <c r="E43" s="20">
         <f>SUM(B43:D43)</f>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F43" s="20">
         <f>IF(ISNA(E43),0,IF(AND(E43&gt;15,E43&lt;66),0.01,IF(E43&gt;316,6,ROUNDDOWN((E43-16)/50,0))))</f>
@@ -34653,17 +34653,17 @@
       </c>
       <c r="G43" s="8">
         <f>IF(F43=0.01,E43-16,E43-F43*50)</f>
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="9" t="str">
-        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
-        <v>四月耀阳</v>
+        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
+        <v>二刀流冥魂</v>
       </c>
       <c r="B44" s="4">
         <f>VLOOKUP(A44,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="E44" s="20">
         <f>SUM(B44:D44)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F44" s="20">
         <f>IF(ISNA(E44),0,IF(AND(E44&gt;15,E44&lt;66),0.01,IF(E44&gt;316,6,ROUNDDOWN((E44-16)/50,0))))</f>
@@ -34683,13 +34683,13 @@
       </c>
       <c r="G44" s="8">
         <f>IF(F44=0.01,E44-16,E44-F44*50)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="9" t="str">
-        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
-        <v>二刀流冥魂</v>
+        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
+        <v>墨小豌</v>
       </c>
       <c r="B45" s="4">
         <f>VLOOKUP(A45,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0))</f>
@@ -34718,12 +34718,12 @@
     </row>
     <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="9" t="str">
-        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
-        <v>墨小豌</v>
+        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
+        <v>神经病的小迷妹</v>
       </c>
       <c r="B46" s="4">
         <f>VLOOKUP(A46,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
@@ -34735,7 +34735,7 @@
       </c>
       <c r="E46" s="20">
         <f>SUM(B46:D46)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F46" s="20">
         <f>IF(ISNA(E46),0,IF(AND(E46&gt;15,E46&lt;66),0.01,IF(E46&gt;316,6,ROUNDDOWN((E46-16)/50,0))))</f>
@@ -34743,17 +34743,17 @@
       </c>
       <c r="G46" s="8">
         <f>IF(F46=0.01,E46-16,E46-F46*50)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="9" t="str">
-        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
-        <v>等你放下</v>
+        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
+        <v>逍遥凝月</v>
       </c>
       <c r="B47" s="4">
         <f>VLOOKUP(A47,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C47" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
@@ -34765,7 +34765,7 @@
       </c>
       <c r="E47" s="20">
         <f>SUM(B47:D47)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F47" s="20">
         <f>IF(ISNA(E47),0,IF(AND(E47&gt;15,E47&lt;66),0.01,IF(E47&gt;316,6,ROUNDDOWN((E47-16)/50,0))))</f>
@@ -34773,17 +34773,17 @@
       </c>
       <c r="G47" s="8">
         <f>IF(F47=0.01,E47-16,E47-F47*50)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="9" t="str">
-        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
-        <v>仐仐、</v>
+        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
+        <v>小雨煕</v>
       </c>
       <c r="B48" s="4">
         <f>VLOOKUP(A48,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
@@ -34795,7 +34795,7 @@
       </c>
       <c r="E48" s="20">
         <f>SUM(B48:D48)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F48" s="20">
         <f>IF(ISNA(E48),0,IF(AND(E48&gt;15,E48&lt;66),0.01,IF(E48&gt;316,6,ROUNDDOWN((E48-16)/50,0))))</f>
@@ -34803,17 +34803,17 @@
       </c>
       <c r="G48" s="8">
         <f>IF(F48=0.01,E48-16,E48-F48*50)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="9" t="str">
-        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
-        <v>蝎子莱莱</v>
+        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A48)))&amp;""</f>
+        <v>等你放下</v>
       </c>
       <c r="B49" s="4">
         <f>VLOOKUP(A49,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C49" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
@@ -34825,7 +34825,7 @@
       </c>
       <c r="E49" s="20">
         <f>SUM(B49:D49)</f>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F49" s="20">
         <f>IF(ISNA(E49),0,IF(AND(E49&gt;15,E49&lt;66),0.01,IF(E49&gt;316,6,ROUNDDOWN((E49-16)/50,0))))</f>
@@ -34833,17 +34833,17 @@
       </c>
       <c r="G49" s="8">
         <f>IF(F49=0.01,E49-16,E49-F49*50)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="9" t="str">
-        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
-        <v>神经病的小迷妹</v>
+        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
+        <v>仐仐、</v>
       </c>
       <c r="B50" s="4">
         <f>VLOOKUP(A50,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C50" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
@@ -34855,7 +34855,7 @@
       </c>
       <c r="E50" s="20">
         <f>SUM(B50:D50)</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F50" s="20">
         <f>IF(ISNA(E50),0,IF(AND(E50&gt;15,E50&lt;66),0.01,IF(E50&gt;316,6,ROUNDDOWN((E50-16)/50,0))))</f>
@@ -34863,17 +34863,17 @@
       </c>
       <c r="G50" s="8">
         <f>IF(F50=0.01,E50-16,E50-F50*50)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="9" t="str">
-        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
-        <v>小雨煕</v>
+        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
+        <v>蝎子莱莱</v>
       </c>
       <c r="B51" s="4">
         <f>VLOOKUP(A51,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C51" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
@@ -34885,7 +34885,7 @@
       </c>
       <c r="E51" s="20">
         <f>SUM(B51:D51)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F51" s="20">
         <f>IF(ISNA(E51),0,IF(AND(E51&gt;15,E51&lt;66),0.01,IF(E51&gt;316,6,ROUNDDOWN((E51-16)/50,0))))</f>
@@ -34893,7 +34893,7 @@
       </c>
       <c r="G51" s="8">
         <f>IF(F51=0.01,E51-16,E51-F51*50)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5">
@@ -35048,12 +35048,12 @@
     </row>
     <row r="57" spans="1:7" ht="16.5">
       <c r="A57" s="9" t="str">
-        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
-        <v>东风路大狗蛋</v>
+        <f t="array" ref="A57">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
+        <v>妄于</v>
       </c>
       <c r="B57" s="4">
         <f>VLOOKUP(A57,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A57,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
@@ -35065,7 +35065,7 @@
       </c>
       <c r="E57" s="20">
         <f>SUM(B57:D57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="20">
         <f>IF(ISNA(E57),0,IF(AND(E57&gt;15,E57&lt;66),0.01,IF(E57&gt;316,6,ROUNDDOWN((E57-16)/50,0))))</f>
@@ -35073,17 +35073,17 @@
       </c>
       <c r="G57" s="8">
         <f>IF(F57=0.01,E57-16,E57-F57*50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="9" t="str">
-        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A49)))&amp;""</f>
-        <v>妄于</v>
+        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
+        <v>一夏薰墨颜</v>
       </c>
       <c r="B58" s="4">
         <f>VLOOKUP(A58,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
@@ -35095,7 +35095,7 @@
       </c>
       <c r="E58" s="20">
         <f>SUM(B58:D58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="20">
         <f>IF(ISNA(E58),0,IF(AND(E58&gt;15,E58&lt;66),0.01,IF(E58&gt;316,6,ROUNDDOWN((E58-16)/50,0))))</f>
@@ -35103,13 +35103,13 @@
       </c>
       <c r="G58" s="8">
         <f>IF(F58=0.01,E58-16,E58-F58*50)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="9" t="str">
-        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
-        <v>伐青</v>
+        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
+        <v>三辻而立</v>
       </c>
       <c r="B59" s="4">
         <f>VLOOKUP(A59,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35138,8 +35138,8 @@
     </row>
     <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="9" t="str">
-        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
-        <v>储舜</v>
+        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
+        <v>东风路大狗蛋</v>
       </c>
       <c r="B60" s="4">
         <f>VLOOKUP(A60,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35168,8 +35168,8 @@
     </row>
     <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="9" t="str">
-        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
-        <v>一夏薰墨颜</v>
+        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
+        <v>丨文静</v>
       </c>
       <c r="B61" s="4">
         <f>VLOOKUP(A61,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35198,8 +35198,8 @@
     </row>
     <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="9" t="str">
-        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
-        <v>三辻而立</v>
+        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
+        <v>丶魂兮龙游</v>
       </c>
       <c r="B62" s="4">
         <f>VLOOKUP(A62,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35228,12 +35228,12 @@
     </row>
     <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="9" t="str">
-        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
-        <v>乏乏</v>
+        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
+        <v>乄框框ら</v>
       </c>
       <c r="B63" s="4">
         <f>VLOOKUP(A63,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
@@ -35245,7 +35245,7 @@
       </c>
       <c r="E63" s="20">
         <f>SUM(B63:D63)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" s="20">
         <f>IF(ISNA(E63),0,IF(AND(E63&gt;15,E63&lt;66),0.01,IF(E63&gt;316,6,ROUNDDOWN((E63-16)/50,0))))</f>
@@ -35253,13 +35253,13 @@
       </c>
       <c r="G63" s="8">
         <f>IF(F63=0.01,E63-16,E63-F63*50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="9" t="str">
-        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
-        <v>九袋丐</v>
+        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
+        <v>乏乏</v>
       </c>
       <c r="B64" s="4">
         <f>VLOOKUP(A64,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35288,8 +35288,8 @@
     </row>
     <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="9" t="str">
-        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
-        <v>二瞳</v>
+        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
+        <v>九袋丐</v>
       </c>
       <c r="B65" s="4">
         <f>VLOOKUP(A65,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35318,8 +35318,8 @@
     </row>
     <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="9" t="str">
-        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
-        <v>唐舞桐灬</v>
+        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
+        <v>二瞳</v>
       </c>
       <c r="B66" s="4">
         <f>VLOOKUP(A66,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35348,8 +35348,8 @@
     </row>
     <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="9" t="str">
-        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
-        <v>就爱杯中物</v>
+        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
+        <v>人肉饭</v>
       </c>
       <c r="B67" s="4">
         <f>VLOOKUP(A67,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35378,8 +35378,8 @@
     </row>
     <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="9" t="str">
-        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
-        <v>岑經沧海難為水</v>
+        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
+        <v>伐青</v>
       </c>
       <c r="B68" s="4">
         <f>VLOOKUP(A68,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35408,8 +35408,8 @@
     </row>
     <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="9" t="str">
-        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
-        <v>最爱落烟景</v>
+        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
+        <v>优雅敏晓</v>
       </c>
       <c r="B69" s="4">
         <f>VLOOKUP(A69,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35438,8 +35438,8 @@
     </row>
     <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="9" t="str">
-        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
-        <v>特拉法尔加。罗</v>
+        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
+        <v>传奇客栈灬</v>
       </c>
       <c r="B70" s="4">
         <f>VLOOKUP(A70,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35468,8 +35468,8 @@
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="9" t="str">
-        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
-        <v>班婉音</v>
+        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
+        <v>伱的酒窝没有酒</v>
       </c>
       <c r="B71" s="4">
         <f>VLOOKUP(A71,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35498,8 +35498,8 @@
     </row>
     <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="9" t="str">
-        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
-        <v>纯情少妇马芳玲</v>
+        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
+        <v>你看我萌嘛丶</v>
       </c>
       <c r="B72" s="4">
         <f>VLOOKUP(A72,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35528,8 +35528,8 @@
     </row>
     <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="9" t="str">
-        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
-        <v>丨文静</v>
+        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
+        <v>储舜</v>
       </c>
       <c r="B73" s="4">
         <f>VLOOKUP(A73,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35558,8 +35558,8 @@
     </row>
     <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="9" t="str">
-        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A56)))&amp;""</f>
-        <v>丶魂兮龙游</v>
+        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
+        <v>冬瓜小荞</v>
       </c>
       <c r="B74" s="4">
         <f>VLOOKUP(A74,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35588,8 +35588,8 @@
     </row>
     <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="9" t="str">
-        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
-        <v>人肉饭</v>
+        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
+        <v>冷嫣妍</v>
       </c>
       <c r="B75" s="4">
         <f>VLOOKUP(A75,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35618,8 +35618,8 @@
     </row>
     <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="9" t="str">
-        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
-        <v>优雅敏晓</v>
+        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
+        <v>冷晓汐灬</v>
       </c>
       <c r="B76" s="4">
         <f>VLOOKUP(A76,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35648,8 +35648,8 @@
     </row>
     <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="9" t="str">
-        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
-        <v>你看我萌嘛丶</v>
+        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
+        <v>前辈别杀我</v>
       </c>
       <c r="B77" s="4">
         <f>VLOOKUP(A77,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35678,8 +35678,8 @@
     </row>
     <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="9" t="str">
-        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
-        <v>屁屁酱</v>
+        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
+        <v>助战勿点啊</v>
       </c>
       <c r="B78" s="4">
         <f>VLOOKUP(A78,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35708,8 +35708,8 @@
     </row>
     <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="9" t="str">
-        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A91)))&amp;""</f>
-        <v>心成雪</v>
+        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
+        <v>友善的小内衣</v>
       </c>
       <c r="B79" s="4">
         <f>VLOOKUP(A79,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35738,8 +35738,8 @@
     </row>
     <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="9" t="str">
-        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
-        <v>月随风动</v>
+        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
+        <v>双墨</v>
       </c>
       <c r="B80" s="4">
         <f>VLOOKUP(A80,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35768,8 +35768,8 @@
     </row>
     <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="9" t="str">
-        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
-        <v>木青花开</v>
+        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
+        <v>叶枫刃</v>
       </c>
       <c r="B81" s="4">
         <f>VLOOKUP(A81,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35798,8 +35798,8 @@
     </row>
     <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="9" t="str">
-        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
-        <v>洪时雪</v>
+        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
+        <v>叶菡</v>
       </c>
       <c r="B82" s="4">
         <f>VLOOKUP(A82,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35828,12 +35828,12 @@
     </row>
     <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="9" t="str">
-        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
-        <v>浩浩丶浩</v>
+        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
+        <v>唐川穹</v>
       </c>
       <c r="B83" s="4">
         <f>VLOOKUP(A83,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
@@ -35845,7 +35845,7 @@
       </c>
       <c r="E83" s="20">
         <f>SUM(B83:D83)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83" s="20">
         <f>IF(ISNA(E83),0,IF(AND(E83&gt;15,E83&lt;66),0.01,IF(E83&gt;316,6,ROUNDDOWN((E83-16)/50,0))))</f>
@@ -35853,13 +35853,13 @@
       </c>
       <c r="G83" s="8">
         <f>IF(F83=0.01,E83-16,E83-F83*50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="9" t="str">
-        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
-        <v>离渊不破笑道人</v>
+        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
+        <v>唐舞桐灬</v>
       </c>
       <c r="B84" s="4">
         <f>VLOOKUP(A84,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35888,8 +35888,8 @@
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="9" t="str">
-        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
-        <v>绿女</v>
+        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
+        <v>唐贤森</v>
       </c>
       <c r="B85" s="4">
         <f>VLOOKUP(A85,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35918,8 +35918,8 @@
     </row>
     <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="9" t="str">
-        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
-        <v>茶色香浓</v>
+        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
+        <v>嘿嘿嘿！</v>
       </c>
       <c r="B86" s="4">
         <f>VLOOKUP(A86,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0))</f>
@@ -35948,12 +35948,12 @@
     </row>
     <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="9" t="str">
-        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
-        <v>乄框框ら</v>
+        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
+        <v>墨筱柔</v>
       </c>
       <c r="B87" s="4">
         <f>VLOOKUP(A87,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
@@ -35965,7 +35965,7 @@
       </c>
       <c r="E87" s="20">
         <f>SUM(B87:D87)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F87" s="20">
         <f>IF(ISNA(E87),0,IF(AND(E87&gt;15,E87&lt;66),0.01,IF(E87&gt;316,6,ROUNDDOWN((E87-16)/50,0))))</f>
@@ -35973,13 +35973,13 @@
       </c>
       <c r="G87" s="8">
         <f>IF(F87=0.01,E87-16,E87-F87*50)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="9" t="str">
-        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
-        <v>传奇客栈灬</v>
+        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
+        <v>墨织丶</v>
       </c>
       <c r="B88" s="4">
         <f>VLOOKUP(A88,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36008,8 +36008,8 @@
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="9" t="str">
-        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
-        <v>伱的酒窝没有酒</v>
+        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
+        <v>夏鸳丶</v>
       </c>
       <c r="B89" s="4">
         <f>VLOOKUP(A89,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36038,8 +36038,8 @@
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="9" t="str">
-        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A68)))&amp;""</f>
-        <v>冬瓜小荞</v>
+        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
+        <v>天涯劍豪</v>
       </c>
       <c r="B90" s="4">
         <f>VLOOKUP(A90,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36068,8 +36068,8 @@
     </row>
     <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="9" t="str">
-        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
-        <v>冷嫣妍</v>
+        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
+        <v>太安温不胜</v>
       </c>
       <c r="B91" s="4">
         <f>VLOOKUP(A91,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36098,8 +36098,8 @@
     </row>
     <row r="92" spans="1:7" ht="16.5">
       <c r="A92" s="9" t="str">
-        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
-        <v>冷晓汐灬</v>
+        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
+        <v>宁北i</v>
       </c>
       <c r="B92" s="4">
         <f>VLOOKUP(A92,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36128,8 +36128,8 @@
     </row>
     <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="9" t="str">
-        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
-        <v>前辈别杀我</v>
+        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
+        <v>就爱杯中物</v>
       </c>
       <c r="B93" s="4">
         <f>VLOOKUP(A93,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36158,8 +36158,8 @@
     </row>
     <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="9" t="str">
-        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
-        <v>助战勿点啊</v>
+        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
+        <v>屁屁酱</v>
       </c>
       <c r="B94" s="4">
         <f>VLOOKUP(A94,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36188,8 +36188,8 @@
     </row>
     <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="9" t="str">
-        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
-        <v>友善的小内衣</v>
+        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
+        <v>岑經沧海難為水</v>
       </c>
       <c r="B95" s="4">
         <f>VLOOKUP(A95,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36218,8 +36218,8 @@
     </row>
     <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="9" t="str">
-        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
-        <v>双墨</v>
+        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
+        <v>彡电竞丿柯南乄</v>
       </c>
       <c r="B96" s="4">
         <f>VLOOKUP(A96,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36248,8 +36248,8 @@
     </row>
     <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="9" t="str">
-        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
-        <v>叶枫刃</v>
+        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A91)))&amp;""</f>
+        <v>心成雪</v>
       </c>
       <c r="B97" s="4">
         <f>VLOOKUP(A97,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36278,8 +36278,8 @@
     </row>
     <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="9" t="str">
-        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
-        <v>叶菡</v>
+        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
+        <v>志方</v>
       </c>
       <c r="B98" s="4">
         <f>VLOOKUP(A98,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36308,12 +36308,12 @@
     </row>
     <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="9" t="str">
-        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
-        <v>唐川穹</v>
+        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
+        <v>恶酒。</v>
       </c>
       <c r="B99" s="4">
         <f>VLOOKUP(A99,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
@@ -36325,7 +36325,7 @@
       </c>
       <c r="E99" s="20">
         <f>SUM(B99:D99)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F99" s="20">
         <f>IF(ISNA(E99),0,IF(AND(E99&gt;15,E99&lt;66),0.01,IF(E99&gt;316,6,ROUNDDOWN((E99-16)/50,0))))</f>
@@ -36333,13 +36333,13 @@
       </c>
       <c r="G99" s="8">
         <f>IF(F99=0.01,E99-16,E99-F99*50)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="9" t="str">
-        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
-        <v>唐贤森</v>
+        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
+        <v>情三思</v>
       </c>
       <c r="B100" s="4">
         <f>VLOOKUP(A100,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36368,8 +36368,8 @@
     </row>
     <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="9" t="str">
-        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
-        <v>嘿嘿嘿！</v>
+        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
+        <v>情多多哆情</v>
       </c>
       <c r="B101" s="4">
         <f>VLOOKUP(A101,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36398,8 +36398,8 @@
     </row>
     <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="9" t="str">
-        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
-        <v>墨筱柔</v>
+        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
+        <v>执令者</v>
       </c>
       <c r="B102" s="4">
         <f>VLOOKUP(A102,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36428,8 +36428,8 @@
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="9" t="str">
-        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
-        <v>墨织丶</v>
+        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
+        <v>撩动丶你心</v>
       </c>
       <c r="B103" s="4">
         <f>VLOOKUP(A103,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36458,8 +36458,8 @@
     </row>
     <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="9" t="str">
-        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
-        <v>夏鸳丶</v>
+        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
+        <v>旧梦丶如风</v>
       </c>
       <c r="B104" s="4">
         <f>VLOOKUP(A104,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36488,8 +36488,8 @@
     </row>
     <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="9" t="str">
-        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
-        <v>天涯劍豪</v>
+        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
+        <v>星殒辰落</v>
       </c>
       <c r="B105" s="4">
         <f>VLOOKUP(A105,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36518,8 +36518,8 @@
     </row>
     <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="9" t="str">
-        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
-        <v>太安温不胜</v>
+        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
+        <v>最可爱的师姐</v>
       </c>
       <c r="B106" s="4">
         <f>VLOOKUP(A106,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36548,8 +36548,8 @@
     </row>
     <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="9" t="str">
-        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
-        <v>宁北i</v>
+        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
+        <v>最爱落烟景</v>
       </c>
       <c r="B107" s="4">
         <f>VLOOKUP(A107,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36578,8 +36578,8 @@
     </row>
     <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="9" t="str">
-        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
-        <v>彡电竞丿柯南乄</v>
+        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
+        <v>月随风动</v>
       </c>
       <c r="B108" s="4">
         <f>VLOOKUP(A108,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36608,8 +36608,8 @@
     </row>
     <row r="109" spans="1:7" ht="16.5">
       <c r="A109" s="9" t="str">
-        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
-        <v>志方</v>
+        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
+        <v>木易开宇</v>
       </c>
       <c r="B109" s="4">
         <f>VLOOKUP(A109,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36638,8 +36638,8 @@
     </row>
     <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="9" t="str">
-        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
-        <v>恶酒。</v>
+        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
+        <v>木青花开</v>
       </c>
       <c r="B110" s="4">
         <f>VLOOKUP(A110,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36668,8 +36668,8 @@
     </row>
     <row r="111" spans="1:7" ht="16.5">
       <c r="A111" s="9" t="str">
-        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
-        <v>情三思</v>
+        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
+        <v>李小白是小圣</v>
       </c>
       <c r="B111" s="4">
         <f>VLOOKUP(A111,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36698,8 +36698,8 @@
     </row>
     <row r="112" spans="1:7" ht="16.5">
       <c r="A112" s="9" t="str">
-        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
-        <v>情多多哆情</v>
+        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
+        <v>果粒橙y</v>
       </c>
       <c r="B112" s="4">
         <f>VLOOKUP(A112,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36728,8 +36728,8 @@
     </row>
     <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="9" t="str">
-        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
-        <v>执令者</v>
+        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
+        <v>格七</v>
       </c>
       <c r="B113" s="4">
         <f>VLOOKUP(A113,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36758,8 +36758,8 @@
     </row>
     <row r="114" spans="1:7" ht="16.5">
       <c r="A114" s="9" t="str">
-        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
-        <v>撩动丶你心</v>
+        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
+        <v>格殺</v>
       </c>
       <c r="B114" s="4">
         <f>VLOOKUP(A114,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36788,8 +36788,8 @@
     </row>
     <row r="115" spans="1:7" ht="16.5">
       <c r="A115" s="9" t="str">
-        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
-        <v>旧梦丶如风</v>
+        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
+        <v>欧茜茜</v>
       </c>
       <c r="B115" s="4">
         <f>VLOOKUP(A115,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36818,8 +36818,8 @@
     </row>
     <row r="116" spans="1:7" ht="16.5">
       <c r="A116" s="9" t="str">
-        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
-        <v>星殒辰落</v>
+        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
+        <v>歌风路丶三狗蛋</v>
       </c>
       <c r="B116" s="4">
         <f>VLOOKUP(A116,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36848,8 +36848,8 @@
     </row>
     <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="9" t="str">
-        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
-        <v>最可爱的师姐</v>
+        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
+        <v>此情珂待</v>
       </c>
       <c r="B117" s="4">
         <f>VLOOKUP(A117,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36878,8 +36878,8 @@
     </row>
     <row r="118" spans="1:7" ht="16.5">
       <c r="A118" s="9" t="str">
-        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
-        <v>木易开宇</v>
+        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
+        <v>洪时雪</v>
       </c>
       <c r="B118" s="4">
         <f>VLOOKUP(A118,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36908,8 +36908,8 @@
     </row>
     <row r="119" spans="1:7" ht="16.5">
       <c r="A119" s="9" t="str">
-        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
-        <v>李小白是小圣</v>
+        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
+        <v>浩浩丶浩</v>
       </c>
       <c r="B119" s="4">
         <f>VLOOKUP(A119,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36938,8 +36938,8 @@
     </row>
     <row r="120" spans="1:7" ht="16.5">
       <c r="A120" s="9" t="str">
-        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
-        <v>果粒橙y</v>
+        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A116)))&amp;""</f>
+        <v>特拉法尔加。罗</v>
       </c>
       <c r="B120" s="4">
         <f>VLOOKUP(A120,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36968,8 +36968,8 @@
     </row>
     <row r="121" spans="1:7" ht="16.5">
       <c r="A121" s="9" t="str">
-        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
-        <v>格七</v>
+        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
+        <v>玄冬雪</v>
       </c>
       <c r="B121" s="4">
         <f>VLOOKUP(A121,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0))</f>
@@ -36998,8 +36998,8 @@
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="9" t="str">
-        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
-        <v>格殺</v>
+        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
+        <v>班婉音</v>
       </c>
       <c r="B122" s="4">
         <f>VLOOKUP(A122,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37028,12 +37028,12 @@
     </row>
     <row r="123" spans="1:7" ht="16.5">
       <c r="A123" s="9" t="str">
-        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
-        <v>欧茜茜</v>
+        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
+        <v>祠下</v>
       </c>
       <c r="B123" s="4">
         <f>VLOOKUP(A123,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C123" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
@@ -37045,7 +37045,7 @@
       </c>
       <c r="E123" s="20">
         <f>SUM(B123:D123)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123" s="20">
         <f>IF(ISNA(E123),0,IF(AND(E123&gt;15,E123&lt;66),0.01,IF(E123&gt;316,6,ROUNDDOWN((E123-16)/50,0))))</f>
@@ -37053,13 +37053,13 @@
       </c>
       <c r="G123" s="8">
         <f>IF(F123=0.01,E123-16,E123-F123*50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5">
       <c r="A124" s="9" t="str">
-        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
-        <v>歌风路丶三狗蛋</v>
+        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
+        <v>离渊不破笑道人</v>
       </c>
       <c r="B124" s="4">
         <f>VLOOKUP(A124,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37088,8 +37088,8 @@
     </row>
     <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="9" t="str">
-        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
-        <v>此情珂待</v>
+        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
+        <v>秋灬小天</v>
       </c>
       <c r="B125" s="4">
         <f>VLOOKUP(A125,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37118,8 +37118,8 @@
     </row>
     <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="9" t="str">
-        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
-        <v>玄冬雪</v>
+        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
+        <v>穆沉音</v>
       </c>
       <c r="B126" s="4">
         <f>VLOOKUP(A126,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37148,12 +37148,12 @@
     </row>
     <row r="127" spans="1:7" ht="16.5">
       <c r="A127" s="9" t="str">
-        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
-        <v>祠下</v>
+        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
+        <v>笙箫丨</v>
       </c>
       <c r="B127" s="4">
         <f>VLOOKUP(A127,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C127" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
@@ -37165,7 +37165,7 @@
       </c>
       <c r="E127" s="20">
         <f>SUM(B127:D127)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F127" s="20">
         <f>IF(ISNA(E127),0,IF(AND(E127&gt;15,E127&lt;66),0.01,IF(E127&gt;316,6,ROUNDDOWN((E127-16)/50,0))))</f>
@@ -37173,13 +37173,13 @@
       </c>
       <c r="G127" s="8">
         <f>IF(F127=0.01,E127-16,E127-F127*50)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5">
       <c r="A128" s="9" t="str">
-        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
-        <v>秋灬小天</v>
+        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
+        <v>紫心瞳</v>
       </c>
       <c r="B128" s="4">
         <f>VLOOKUP(A128,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37208,8 +37208,8 @@
     </row>
     <row r="129" spans="1:7" ht="16.5">
       <c r="A129" s="9" t="str">
-        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A122)))&amp;""</f>
-        <v>穆沉音</v>
+        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
+        <v>纯情少妇马芳玲</v>
       </c>
       <c r="B129" s="4">
         <f>VLOOKUP(A129,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37238,8 +37238,8 @@
     </row>
     <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="9" t="str">
-        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A123)))&amp;""</f>
-        <v>笙箫丨</v>
+        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
+        <v>绿女</v>
       </c>
       <c r="B130" s="4">
         <f>VLOOKUP(A130,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37268,8 +37268,8 @@
     </row>
     <row r="131" spans="1:7" ht="16.5">
       <c r="A131" s="9" t="str">
-        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
-        <v>紫心瞳</v>
+        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
+        <v>芷若云</v>
       </c>
       <c r="B131" s="4">
         <f>VLOOKUP(A131,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37298,8 +37298,8 @@
     </row>
     <row r="132" spans="1:7" ht="16.5">
       <c r="A132" s="9" t="str">
-        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
-        <v>芷若云</v>
+        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
+        <v>苏慕酒</v>
       </c>
       <c r="B132" s="4">
         <f>VLOOKUP(A132,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37328,8 +37328,8 @@
     </row>
     <row r="133" spans="1:7" ht="16.5">
       <c r="A133" s="9" t="str">
-        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
-        <v>苏慕酒</v>
+        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生若梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
+        <v>茶色香浓</v>
       </c>
       <c r="B133" s="4">
         <f>VLOOKUP(A133,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0))</f>
@@ -37878,7 +37878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37984,12 +37984,12 @@
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="9" t="str">
-        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
-        <v>晓月梦澈</v>
+        <f t="array" ref="A4">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A3)))&amp;""</f>
+        <v>明婕</v>
       </c>
       <c r="B4" s="4">
         <f>VLOOKUP(A4,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A4,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C4" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
@@ -38001,7 +38001,7 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F4" s="20">
         <f>IF(ISNA(E4),0,IF(AND(E4&gt;15,E4&lt;66),0.01,IF(E4&gt;316,6,ROUNDDOWN((E4-16)/50,0))))</f>
@@ -38009,29 +38009,29 @@
       </c>
       <c r="G4" s="8">
         <f>IF(F4=0.01,E4-16,E4-F4*50)</f>
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="9" t="str">
-        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A3)))&amp;""</f>
-        <v>明婕</v>
+        <f t="array" ref="A5">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A4)))&amp;""</f>
+        <v>墨萧炎</v>
       </c>
       <c r="B5" s="4">
         <f>VLOOKUP(A5,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A5,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C5" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D5" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A5)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="F5" s="20">
         <f>IF(ISNA(E5),0,IF(AND(E5&gt;15,E5&lt;66),0.01,IF(E5&gt;316,6,ROUNDDOWN((E5-16)/50,0))))</f>
@@ -38039,7 +38039,7 @@
       </c>
       <c r="G5" s="8">
         <f>IF(F5=0.01,E5-16,E5-F5*50)</f>
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5">
@@ -38134,16 +38134,16 @@
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="9" t="str">
-        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
-        <v>再见是否红着脸</v>
+        <f t="array" ref="A9">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
+        <v>❀❀長安゛</v>
       </c>
       <c r="B9" s="4">
         <f>VLOOKUP(A9,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A9,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C9" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D9" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A9)</f>
@@ -38151,7 +38151,7 @@
       </c>
       <c r="E9" s="20">
         <f>SUM(B9:D9)</f>
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="F9" s="20">
         <f>IF(ISNA(E9),0,IF(AND(E9&gt;15,E9&lt;66),0.01,IF(E9&gt;316,6,ROUNDDOWN((E9-16)/50,0))))</f>
@@ -38159,29 +38159,29 @@
       </c>
       <c r="G9" s="8">
         <f>IF(F9=0.01,E9-16,E9-F9*50)</f>
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="9" t="str">
-        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
-        <v>剑惜玉</v>
+        <f t="array" ref="A10">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A9)))&amp;""</f>
+        <v>晓月梦澈</v>
       </c>
       <c r="B10" s="4">
         <f>VLOOKUP(A10,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A10,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="C10" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D10" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A10)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E10" s="20">
         <f>SUM(B10:D10)</f>
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="F10" s="20">
         <f>IF(ISNA(E10),0,IF(AND(E10&gt;15,E10&lt;66),0.01,IF(E10&gt;316,6,ROUNDDOWN((E10-16)/50,0))))</f>
@@ -38189,29 +38189,29 @@
       </c>
       <c r="G10" s="8">
         <f>IF(F10=0.01,E10-16,E10-F10*50)</f>
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="9" t="str">
-        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
-        <v>真的很帅啊</v>
+        <f t="array" ref="A11">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A10)))&amp;""</f>
+        <v>再见是否红着脸</v>
       </c>
       <c r="B11" s="4">
         <f>VLOOKUP(A11,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A11,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="C11" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A11)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20">
         <f>SUM(B11:D11)</f>
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="F11" s="20">
         <f>IF(ISNA(E11),0,IF(AND(E11&gt;15,E11&lt;66),0.01,IF(E11&gt;316,6,ROUNDDOWN((E11-16)/50,0))))</f>
@@ -38219,17 +38219,17 @@
       </c>
       <c r="G11" s="8">
         <f>IF(F11=0.01,E11-16,E11-F11*50)</f>
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="9" t="str">
-        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A4)))&amp;""</f>
-        <v>墨萧炎</v>
+        <f t="array" ref="A12">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A12)))&amp;""</f>
+        <v>剑惜玉</v>
       </c>
       <c r="B12" s="4">
         <f>VLOOKUP(A12,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A12,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="C12" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
@@ -38241,7 +38241,7 @@
       </c>
       <c r="E12" s="20">
         <f>SUM(B12:D12)</f>
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="F12" s="20">
         <f>IF(ISNA(E12),0,IF(AND(E12&gt;15,E12&lt;66),0.01,IF(E12&gt;316,6,ROUNDDOWN((E12-16)/50,0))))</f>
@@ -38249,17 +38249,17 @@
       </c>
       <c r="G12" s="8">
         <f>IF(F12=0.01,E12-16,E12-F12*50)</f>
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="9" t="str">
-        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A8)))&amp;""</f>
-        <v>❀❀長安゛</v>
+        <f t="array" ref="A13">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A16)))&amp;""</f>
+        <v>真的很帅啊</v>
       </c>
       <c r="B13" s="4">
         <f>VLOOKUP(A13,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A13,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C13" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
@@ -38267,11 +38267,11 @@
       </c>
       <c r="D13" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A13)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E13" s="20">
         <f>SUM(B13:D13)</f>
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="F13" s="20">
         <f>IF(ISNA(E13),0,IF(AND(E13&gt;15,E13&lt;66),0.01,IF(E13&gt;316,6,ROUNDDOWN((E13-16)/50,0))))</f>
@@ -38279,7 +38279,7 @@
       </c>
       <c r="G13" s="8">
         <f>IF(F13=0.01,E13-16,E13-F13*50)</f>
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
@@ -38404,24 +38404,24 @@
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="9" t="str">
-        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
-        <v>丶摇光丶</v>
+        <f t="array" ref="A18">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
+        <v>黄怀雪华</v>
       </c>
       <c r="B18" s="4">
         <f>VLOOKUP(A18,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A18,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C18" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D18" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A18)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E18" s="20">
         <f>SUM(B18:D18)</f>
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F18" s="20">
         <f>IF(ISNA(E18),0,IF(AND(E18&gt;15,E18&lt;66),0.01,IF(E18&gt;316,6,ROUNDDOWN((E18-16)/50,0))))</f>
@@ -38429,29 +38429,29 @@
       </c>
       <c r="G18" s="8">
         <f>IF(F18=0.01,E18-16,E18-F18*50)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9" t="str">
-        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A17)))&amp;""</f>
-        <v>黄怀雪华</v>
+        <f t="array" ref="A19">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A18)))&amp;""</f>
+        <v>丶摇光丶</v>
       </c>
       <c r="B19" s="4">
         <f>VLOOKUP(A19,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A19,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C19" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D19" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A19)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E19" s="20">
         <f>SUM(B19:D19)</f>
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F19" s="20">
         <f>IF(ISNA(E19),0,IF(AND(E19&gt;15,E19&lt;66),0.01,IF(E19&gt;316,6,ROUNDDOWN((E19-16)/50,0))))</f>
@@ -38459,7 +38459,7 @@
       </c>
       <c r="G19" s="8">
         <f>IF(F19=0.01,E19-16,E19-F19*50)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5">
@@ -38584,12 +38584,12 @@
     </row>
     <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="9" t="str">
-        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A22)))&amp;""</f>
-        <v>惜玉挽轻裳</v>
+        <f t="array" ref="A24">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
+        <v>守护锋</v>
       </c>
       <c r="B24" s="4">
         <f>VLOOKUP(A24,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A24,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
@@ -38601,7 +38601,7 @@
       </c>
       <c r="E24" s="20">
         <f>SUM(B24:D24)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="20">
         <f>IF(ISNA(E24),0,IF(AND(E24&gt;15,E24&lt;66),0.01,IF(E24&gt;316,6,ROUNDDOWN((E24-16)/50,0))))</f>
@@ -38609,17 +38609,17 @@
       </c>
       <c r="G24" s="8">
         <f>IF(F24=0.01,E24-16,E24-F24*50)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="9" t="str">
-        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A24)))&amp;""</f>
-        <v>树儿高高长</v>
+        <f t="array" ref="A25">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A22)))&amp;""</f>
+        <v>惜玉挽轻裳</v>
       </c>
       <c r="B25" s="4">
         <f>VLOOKUP(A25,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A25,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C25" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
@@ -38627,11 +38627,11 @@
       </c>
       <c r="D25" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A25)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E25" s="20">
         <f>SUM(B25:D25)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25" s="20">
         <f>IF(ISNA(E25),0,IF(AND(E25&gt;15,E25&lt;66),0.01,IF(E25&gt;316,6,ROUNDDOWN((E25-16)/50,0))))</f>
@@ -38639,17 +38639,17 @@
       </c>
       <c r="G25" s="8">
         <f>IF(F25=0.01,E25-16,E25-F25*50)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="9" t="str">
-        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A21)))&amp;""</f>
-        <v>守护锋</v>
+        <f t="array" ref="A26">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A24)))&amp;""</f>
+        <v>树儿高高长</v>
       </c>
       <c r="B26" s="4">
         <f>VLOOKUP(A26,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A26,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C26" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
@@ -38657,11 +38657,11 @@
       </c>
       <c r="D26" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A26)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26" s="20">
         <f>SUM(B26:D26)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F26" s="20">
         <f>IF(ISNA(E26),0,IF(AND(E26&gt;15,E26&lt;66),0.01,IF(E26&gt;316,6,ROUNDDOWN((E26-16)/50,0))))</f>
@@ -38669,7 +38669,7 @@
       </c>
       <c r="G26" s="8">
         <f>IF(F26=0.01,E26-16,E26-F26*50)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5">
@@ -38794,12 +38794,12 @@
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="9" t="str">
-        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A31)))&amp;""</f>
-        <v>深红落霞</v>
+        <f t="array" ref="A31">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A29)))&amp;""</f>
+        <v>墨語丶</v>
       </c>
       <c r="B31" s="4">
         <f>VLOOKUP(A31,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A31,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C31" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
@@ -38811,7 +38811,7 @@
       </c>
       <c r="E31" s="20">
         <f>SUM(B31:D31)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F31" s="20">
         <f>IF(ISNA(E31),0,IF(AND(E31&gt;15,E31&lt;66),0.01,IF(E31&gt;316,6,ROUNDDOWN((E31-16)/50,0))))</f>
@@ -38819,17 +38819,17 @@
       </c>
       <c r="G31" s="8">
         <f>IF(F31=0.01,E31-16,E31-F31*50)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="9" t="str">
-        <f t="array" ref="A32">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A34)))&amp;""</f>
-        <v>sad自行车</v>
+        <f t="array" ref="A32">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
+        <v>希希希丶汐</v>
       </c>
       <c r="B32" s="4">
         <f>VLOOKUP(A32,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A32,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A32,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C32" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
@@ -38841,7 +38841,7 @@
       </c>
       <c r="E32" s="20">
         <f>SUM(B32:D32)</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F32" s="20">
         <f>IF(ISNA(E32),0,IF(AND(E32&gt;15,E32&lt;66),0.01,IF(E32&gt;316,6,ROUNDDOWN((E32-16)/50,0))))</f>
@@ -38849,17 +38849,17 @@
       </c>
       <c r="G32" s="8">
         <f>IF(F32=0.01,E32-16,E32-F32*50)</f>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="9" t="str">
-        <f t="array" ref="A33">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A29)))&amp;""</f>
-        <v>墨語丶</v>
+        <f t="array" ref="A33">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A31)))&amp;""</f>
+        <v>深红落霞</v>
       </c>
       <c r="B33" s="4">
         <f>VLOOKUP(A33,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A33,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A33,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C33" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
@@ -38871,7 +38871,7 @@
       </c>
       <c r="E33" s="20">
         <f>SUM(B33:D33)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F33" s="20">
         <f>IF(ISNA(E33),0,IF(AND(E33&gt;15,E33&lt;66),0.01,IF(E33&gt;316,6,ROUNDDOWN((E33-16)/50,0))))</f>
@@ -38879,17 +38879,17 @@
       </c>
       <c r="G33" s="8">
         <f>IF(F33=0.01,E33-16,E33-F33*50)</f>
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="9" t="str">
-        <f t="array" ref="A34">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A30)))&amp;""</f>
-        <v>希希希丶汐</v>
+        <f t="array" ref="A34">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
+        <v>花墨云</v>
       </c>
       <c r="B34" s="4">
         <f>VLOOKUP(A34,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A34,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A34,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C34" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
@@ -38901,7 +38901,7 @@
       </c>
       <c r="E34" s="20">
         <f>SUM(B34:D34)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F34" s="20">
         <f>IF(ISNA(E34),0,IF(AND(E34&gt;15,E34&lt;66),0.01,IF(E34&gt;316,6,ROUNDDOWN((E34-16)/50,0))))</f>
@@ -38909,17 +38909,17 @@
       </c>
       <c r="G34" s="8">
         <f>IF(F34=0.01,E34-16,E34-F34*50)</f>
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="9" t="str">
-        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A32)))&amp;""</f>
-        <v>花墨云</v>
+        <f t="array" ref="A35">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A34)))&amp;""</f>
+        <v>sad自行车</v>
       </c>
       <c r="B35" s="4">
         <f>VLOOKUP(A35,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A35,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C35" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
@@ -38931,7 +38931,7 @@
       </c>
       <c r="E35" s="20">
         <f>SUM(B35:D35)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F35" s="20">
         <f>IF(ISNA(E35),0,IF(AND(E35&gt;15,E35&lt;66),0.01,IF(E35&gt;316,6,ROUNDDOWN((E35-16)/50,0))))</f>
@@ -38939,7 +38939,7 @@
       </c>
       <c r="G35" s="8">
         <f>IF(F35=0.01,E35-16,E35-F35*50)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5">
@@ -39184,8 +39184,8 @@
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="9" t="str">
-        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
-        <v>丶神楽</v>
+        <f t="array" ref="A44">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
+        <v>夏又離</v>
       </c>
       <c r="B44" s="4">
         <f>VLOOKUP(A44,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A44,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39214,8 +39214,8 @@
     </row>
     <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="9" t="str">
-        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
-        <v>丶天蓝色</v>
+        <f t="array" ref="A45">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A37)))&amp;""</f>
+        <v>一叶知秋づ</v>
       </c>
       <c r="B45" s="4">
         <f>VLOOKUP(A45,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A45,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39244,8 +39244,8 @@
     </row>
     <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="9" t="str">
-        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
-        <v>丶忍野咩咩</v>
+        <f t="array" ref="A46">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
+        <v>万年孤独</v>
       </c>
       <c r="B46" s="4">
         <f>VLOOKUP(A46,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A46,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39274,8 +39274,8 @@
     </row>
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="9" t="str">
-        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
-        <v>丶淡衣</v>
+        <f t="array" ref="A47">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
+        <v>丐帮金鹏</v>
       </c>
       <c r="B47" s="4">
         <f>VLOOKUP(A47,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A47,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39304,8 +39304,8 @@
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="9" t="str">
-        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
-        <v>凉山伯</v>
+        <f t="array" ref="A48">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A40)))&amp;""</f>
+        <v>丶天蓝色</v>
       </c>
       <c r="B48" s="4">
         <f>VLOOKUP(A48,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A48,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39334,8 +39334,8 @@
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="9" t="str">
-        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
-        <v>别碰我的葫芦</v>
+        <f t="array" ref="A49">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A41)))&amp;""</f>
+        <v>丶忍野咩咩</v>
       </c>
       <c r="B49" s="4">
         <f>VLOOKUP(A49,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A49,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39364,8 +39364,8 @@
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="9" t="str">
-        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
-        <v>影逝叹人归</v>
+        <f t="array" ref="A50">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A42)))&amp;""</f>
+        <v>丶淡衣</v>
       </c>
       <c r="B50" s="4">
         <f>VLOOKUP(A50,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A50,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39394,8 +39394,8 @@
     </row>
     <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="9" t="str">
-        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
-        <v>清小柠</v>
+        <f t="array" ref="A51">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A43)))&amp;""</f>
+        <v>丶神楽</v>
       </c>
       <c r="B51" s="4">
         <f>VLOOKUP(A51,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A51,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39424,8 +39424,8 @@
     </row>
     <row r="52" spans="1:7" ht="16.5">
       <c r="A52" s="9" t="str">
-        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A36)))&amp;""</f>
-        <v>夏又離</v>
+        <f t="array" ref="A52">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
+        <v>丶薛日天</v>
       </c>
       <c r="B52" s="4">
         <f>VLOOKUP(A52,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A52,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39454,8 +39454,8 @@
     </row>
     <row r="53" spans="1:7" ht="16.5">
       <c r="A53" s="9" t="str">
-        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A37)))&amp;""</f>
-        <v>一叶知秋づ</v>
+        <f t="array" ref="A53">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
+        <v>企及</v>
       </c>
       <c r="B53" s="4">
         <f>VLOOKUP(A53,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A53,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39484,8 +39484,8 @@
     </row>
     <row r="54" spans="1:7" ht="16.5">
       <c r="A54" s="9" t="str">
-        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A38)))&amp;""</f>
-        <v>万年孤独</v>
+        <f t="array" ref="A54">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
+        <v>偌米粥丶</v>
       </c>
       <c r="B54" s="4">
         <f>VLOOKUP(A54,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A54,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39514,8 +39514,8 @@
     </row>
     <row r="55" spans="1:7" ht="16.5">
       <c r="A55" s="9" t="str">
-        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A39)))&amp;""</f>
-        <v>丐帮金鹏</v>
+        <f t="array" ref="A55">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
+        <v>冬眠的团子</v>
       </c>
       <c r="B55" s="4">
         <f>VLOOKUP(A55,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A55,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39604,8 +39604,8 @@
     </row>
     <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="9" t="str">
-        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
-        <v>务必叫我欧皇</v>
+        <f t="array" ref="A58">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A50)))&amp;""</f>
+        <v>凉山伯</v>
       </c>
       <c r="B58" s="4">
         <f>VLOOKUP(A58,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A58,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39634,8 +39634,8 @@
     </row>
     <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="9" t="str">
-        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
-        <v>千雪冰鳳</v>
+        <f t="array" ref="A59">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A51)))&amp;""</f>
+        <v>别碰我的葫芦</v>
       </c>
       <c r="B59" s="4">
         <f>VLOOKUP(A59,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A59,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39664,12 +39664,12 @@
     </row>
     <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="9" t="str">
-        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
-        <v>口味太怪</v>
+        <f t="array" ref="A60">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A52)))&amp;""</f>
+        <v>务必叫我欧皇</v>
       </c>
       <c r="B60" s="4">
         <f>VLOOKUP(A60,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A60,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C60" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
@@ -39681,7 +39681,7 @@
       </c>
       <c r="E60" s="20">
         <f>SUM(B60:D60)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F60" s="20">
         <f>IF(ISNA(E60),0,IF(AND(E60&gt;15,E60&lt;66),0.01,IF(E60&gt;316,6,ROUNDDOWN((E60-16)/50,0))))</f>
@@ -39689,13 +39689,13 @@
       </c>
       <c r="G60" s="8">
         <f>IF(F60=0.01,E60-16,E60-F60*50)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="9" t="str">
-        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
-        <v>回头我就在身后</v>
+        <f t="array" ref="A61">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A53)))&amp;""</f>
+        <v>千雪冰鳳</v>
       </c>
       <c r="B61" s="4">
         <f>VLOOKUP(A61,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A61,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39724,8 +39724,8 @@
     </row>
     <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="9" t="str">
-        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
-        <v>宋画蝶</v>
+        <f t="array" ref="A62">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
+        <v>半夏乄言</v>
       </c>
       <c r="B62" s="4">
         <f>VLOOKUP(A62,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A62,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39754,8 +39754,8 @@
     </row>
     <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="9" t="str">
-        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
-        <v>晓乀脸冰凉</v>
+        <f t="array" ref="A63">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
+        <v>半日丶浮生</v>
       </c>
       <c r="B63" s="4">
         <f>VLOOKUP(A63,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A63,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39784,12 +39784,12 @@
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="9" t="str">
-        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
-        <v>曲终无意</v>
+        <f t="array" ref="A64">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A57)))&amp;""</f>
+        <v>口味太怪</v>
       </c>
       <c r="B64" s="4">
         <f>VLOOKUP(A64,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A64,历史结余DKP!A$1:B$599,2,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64" s="20">
         <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
@@ -39801,7 +39801,7 @@
       </c>
       <c r="E64" s="20">
         <f>SUM(B64:D64)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F64" s="20">
         <f>IF(ISNA(E64),0,IF(AND(E64&gt;15,E64&lt;66),0.01,IF(E64&gt;316,6,ROUNDDOWN((E64-16)/50,0))))</f>
@@ -39809,13 +39809,13 @@
       </c>
       <c r="G64" s="8">
         <f>IF(F64=0.01,E64-16,E64-F64*50)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="9" t="str">
-        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
-        <v>梨花黛雨</v>
+        <f t="array" ref="A65">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
+        <v>叶天簌</v>
       </c>
       <c r="B65" s="4">
         <f>VLOOKUP(A65,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A65,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39844,8 +39844,8 @@
     </row>
     <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="9" t="str">
-        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
-        <v>樱桃さま</v>
+        <f t="array" ref="A66">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
+        <v>君i陌离</v>
       </c>
       <c r="B66" s="4">
         <f>VLOOKUP(A66,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A66,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39874,8 +39874,8 @@
     </row>
     <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="9" t="str">
-        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
-        <v>游尘</v>
+        <f t="array" ref="A67">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
+        <v>咲冭陽</v>
       </c>
       <c r="B67" s="4">
         <f>VLOOKUP(A67,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A67,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39904,8 +39904,8 @@
     </row>
     <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="9" t="str">
-        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
-        <v>素以折扇</v>
+        <f t="array" ref="A68">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
+        <v>咸鱼天香</v>
       </c>
       <c r="B68" s="4">
         <f>VLOOKUP(A68,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A68,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39934,8 +39934,8 @@
     </row>
     <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="9" t="str">
-        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
-        <v>苏幕清</v>
+        <f t="array" ref="A69">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A62)))&amp;""</f>
+        <v>回头我就在身后</v>
       </c>
       <c r="B69" s="4">
         <f>VLOOKUP(A69,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A69,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39964,8 +39964,8 @@
     </row>
     <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="9" t="str">
-        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
-        <v>蒹葭春羽</v>
+        <f t="array" ref="A70">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
+        <v>墨韵玄风</v>
       </c>
       <c r="B70" s="4">
         <f>VLOOKUP(A70,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A70,历史结余DKP!A$1:B$599,2,0))</f>
@@ -39994,8 +39994,8 @@
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="9" t="str">
-        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
-        <v>逃跑的糯米糕</v>
+        <f t="array" ref="A71">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
+        <v>壬生京大郎</v>
       </c>
       <c r="B71" s="4">
         <f>VLOOKUP(A71,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A71,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40024,8 +40024,8 @@
     </row>
     <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="9" t="str">
-        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
-        <v>钟离三昧</v>
+        <f t="array" ref="A72">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
+        <v>天命风流八荒</v>
       </c>
       <c r="B72" s="4">
         <f>VLOOKUP(A72,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A72,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40054,8 +40054,8 @@
     </row>
     <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="9" t="str">
-        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A44)))&amp;""</f>
-        <v>丶薛日天</v>
+        <f t="array" ref="A73">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
+        <v>太极魔尊</v>
       </c>
       <c r="B73" s="4">
         <f>VLOOKUP(A73,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A73,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40084,8 +40084,8 @@
     </row>
     <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="9" t="str">
-        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A45)))&amp;""</f>
-        <v>企及</v>
+        <f t="array" ref="A74">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
+        <v>太白洗衣液</v>
       </c>
       <c r="B74" s="4">
         <f>VLOOKUP(A74,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A74,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40114,8 +40114,8 @@
     </row>
     <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="9" t="str">
-        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A46)))&amp;""</f>
-        <v>偌米粥丶</v>
+        <f t="array" ref="A75">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
+        <v>宇文云</v>
       </c>
       <c r="B75" s="4">
         <f>VLOOKUP(A75,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A75,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40144,8 +40144,8 @@
     </row>
     <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="9" t="str">
-        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A47)))&amp;""</f>
-        <v>冬眠的团子</v>
+        <f t="array" ref="A76">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
+        <v>安好晴天</v>
       </c>
       <c r="B76" s="4">
         <f>VLOOKUP(A76,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A76,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40174,8 +40174,8 @@
     </row>
     <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="9" t="str">
-        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A54)))&amp;""</f>
-        <v>半夏乄言</v>
+        <f t="array" ref="A77">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A71)))&amp;""</f>
+        <v>宋画蝶</v>
       </c>
       <c r="B77" s="4">
         <f>VLOOKUP(A77,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A77,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40204,8 +40204,8 @@
     </row>
     <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="9" t="str">
-        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A55)))&amp;""</f>
-        <v>半日丶浮生</v>
+        <f t="array" ref="A78">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A72)))&amp;""</f>
+        <v>影逝叹人归</v>
       </c>
       <c r="B78" s="4">
         <f>VLOOKUP(A78,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A78,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40234,8 +40234,8 @@
     </row>
     <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="9" t="str">
-        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A58)))&amp;""</f>
-        <v>叶天簌</v>
+        <f t="array" ref="A79">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
+        <v>慕城雪</v>
       </c>
       <c r="B79" s="4">
         <f>VLOOKUP(A79,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A79,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40264,8 +40264,8 @@
     </row>
     <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="9" t="str">
-        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A59)))&amp;""</f>
-        <v>君i陌离</v>
+        <f t="array" ref="A80">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
+        <v>慕瑾遥</v>
       </c>
       <c r="B80" s="4">
         <f>VLOOKUP(A80,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A80,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40294,8 +40294,8 @@
     </row>
     <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="9" t="str">
-        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A60)))&amp;""</f>
-        <v>咲冭陽</v>
+        <f t="array" ref="A81">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
+        <v>我是兔子哟</v>
       </c>
       <c r="B81" s="4">
         <f>VLOOKUP(A81,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A81,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40324,8 +40324,8 @@
     </row>
     <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="9" t="str">
-        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A61)))&amp;""</f>
-        <v>咸鱼天香</v>
+        <f t="array" ref="A82">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
+        <v>无所不能小奇葩</v>
       </c>
       <c r="B82" s="4">
         <f>VLOOKUP(A82,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A82,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40354,8 +40354,8 @@
     </row>
     <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="9" t="str">
-        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A63)))&amp;""</f>
-        <v>墨韵玄风</v>
+        <f t="array" ref="A83">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
+        <v>无爱别演</v>
       </c>
       <c r="B83" s="4">
         <f>VLOOKUP(A83,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A83,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40384,8 +40384,8 @@
     </row>
     <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="9" t="str">
-        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A64)))&amp;""</f>
-        <v>壬生京大郎</v>
+        <f t="array" ref="A84">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
+        <v>时光不矜持</v>
       </c>
       <c r="B84" s="4">
         <f>VLOOKUP(A84,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A84,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40414,8 +40414,8 @@
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="9" t="str">
-        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A65)))&amp;""</f>
-        <v>天命风流八荒</v>
+        <f t="array" ref="A85">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
+        <v>易小川</v>
       </c>
       <c r="B85" s="4">
         <f>VLOOKUP(A85,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A85,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40444,8 +40444,8 @@
     </row>
     <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="9" t="str">
-        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A66)))&amp;""</f>
-        <v>太极魔尊</v>
+        <f t="array" ref="A86">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
+        <v>春困的团子</v>
       </c>
       <c r="B86" s="4">
         <f>VLOOKUP(A86,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A86,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40474,8 +40474,8 @@
     </row>
     <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="9" t="str">
-        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A67)))&amp;""</f>
-        <v>太白洗衣液</v>
+        <f t="array" ref="A87">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A81)))&amp;""</f>
+        <v>晓乀脸冰凉</v>
       </c>
       <c r="B87" s="4">
         <f>VLOOKUP(A87,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A87,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40504,8 +40504,8 @@
     </row>
     <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="9" t="str">
-        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A69)))&amp;""</f>
-        <v>宇文云</v>
+        <f t="array" ref="A88">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
+        <v>暮小曦丶</v>
       </c>
       <c r="B88" s="4">
         <f>VLOOKUP(A88,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A88,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40534,8 +40534,8 @@
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="9" t="str">
-        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A70)))&amp;""</f>
-        <v>安好晴天</v>
+        <f t="array" ref="A89">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A83)))&amp;""</f>
+        <v>曲终无意</v>
       </c>
       <c r="B89" s="4">
         <f>VLOOKUP(A89,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A89,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40564,8 +40564,8 @@
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="9" t="str">
-        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A73)))&amp;""</f>
-        <v>慕城雪</v>
+        <f t="array" ref="A90">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
+        <v>月夜凉</v>
       </c>
       <c r="B90" s="4">
         <f>VLOOKUP(A90,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A90,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40594,8 +40594,8 @@
     </row>
     <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="9" t="str">
-        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A74)))&amp;""</f>
-        <v>慕瑾遥</v>
+        <f t="array" ref="A91">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
+        <v>柒苍术的小傀儡</v>
       </c>
       <c r="B91" s="4">
         <f>VLOOKUP(A91,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A91,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40624,8 +40624,8 @@
     </row>
     <row r="92" spans="1:7" ht="16.5">
       <c r="A92" s="9" t="str">
-        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A75)))&amp;""</f>
-        <v>我是兔子哟</v>
+        <f t="array" ref="A92">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A86)))&amp;""</f>
+        <v>梨花黛雨</v>
       </c>
       <c r="B92" s="4">
         <f>VLOOKUP(A92,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A92,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40654,8 +40654,8 @@
     </row>
     <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="9" t="str">
-        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A76)))&amp;""</f>
-        <v>无所不能小奇葩</v>
+        <f t="array" ref="A93">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
+        <v>椴寅残雪丶</v>
       </c>
       <c r="B93" s="4">
         <f>VLOOKUP(A93,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A93,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40684,8 +40684,8 @@
     </row>
     <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="9" t="str">
-        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A77)))&amp;""</f>
-        <v>无爱别演</v>
+        <f t="array" ref="A94">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
+        <v>榕月</v>
       </c>
       <c r="B94" s="4">
         <f>VLOOKUP(A94,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A94,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40714,8 +40714,8 @@
     </row>
     <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="9" t="str">
-        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A78)))&amp;""</f>
-        <v>时光不矜持</v>
+        <f t="array" ref="A95">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
+        <v>樱．雪蝶</v>
       </c>
       <c r="B95" s="4">
         <f>VLOOKUP(A95,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A95,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40744,8 +40744,8 @@
     </row>
     <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="9" t="str">
-        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A79)))&amp;""</f>
-        <v>易小川</v>
+        <f t="array" ref="A96">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A90)))&amp;""</f>
+        <v>樱桃さま</v>
       </c>
       <c r="B96" s="4">
         <f>VLOOKUP(A96,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A96,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40774,8 +40774,8 @@
     </row>
     <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="9" t="str">
-        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A80)))&amp;""</f>
-        <v>春困的团子</v>
+        <f t="array" ref="A97">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
+        <v>殇落</v>
       </c>
       <c r="B97" s="4">
         <f>VLOOKUP(A97,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A97,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40804,8 +40804,8 @@
     </row>
     <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="9" t="str">
-        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A82)))&amp;""</f>
-        <v>暮小曦丶</v>
+        <f t="array" ref="A98">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
+        <v>段麒</v>
       </c>
       <c r="B98" s="4">
         <f>VLOOKUP(A98,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A98,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40834,8 +40834,8 @@
     </row>
     <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="9" t="str">
-        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A84)))&amp;""</f>
-        <v>月夜凉</v>
+        <f t="array" ref="A99">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
+        <v>沉珠</v>
       </c>
       <c r="B99" s="4">
         <f>VLOOKUP(A99,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A99,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40864,8 +40864,8 @@
     </row>
     <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="9" t="str">
-        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A85)))&amp;""</f>
-        <v>柒苍术的小傀儡</v>
+        <f t="array" ref="A100">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A95)))&amp;""</f>
+        <v>清小柠</v>
       </c>
       <c r="B100" s="4">
         <f>VLOOKUP(A100,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A100,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40894,8 +40894,8 @@
     </row>
     <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="9" t="str">
-        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A87)))&amp;""</f>
-        <v>椴寅残雪丶</v>
+        <f t="array" ref="A101">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A96)))&amp;""</f>
+        <v>游尘</v>
       </c>
       <c r="B101" s="4">
         <f>VLOOKUP(A101,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A101,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40924,8 +40924,8 @@
     </row>
     <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="9" t="str">
-        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A88)))&amp;""</f>
-        <v>榕月</v>
+        <f t="array" ref="A102">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
+        <v>灬鬼丶舞灬</v>
       </c>
       <c r="B102" s="4">
         <f>VLOOKUP(A102,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A102,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40954,8 +40954,8 @@
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="9" t="str">
-        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A89)))&amp;""</f>
-        <v>樱．雪蝶</v>
+        <f t="array" ref="A103">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
+        <v>烈凝风</v>
       </c>
       <c r="B103" s="4">
         <f>VLOOKUP(A103,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A103,历史结余DKP!A$1:B$599,2,0))</f>
@@ -40984,8 +40984,8 @@
     </row>
     <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="9" t="str">
-        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A92)))&amp;""</f>
-        <v>殇落</v>
+        <f t="array" ref="A104">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
+        <v>狄万钧</v>
       </c>
       <c r="B104" s="4">
         <f>VLOOKUP(A104,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A104,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41014,8 +41014,8 @@
     </row>
     <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="9" t="str">
-        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A93)))&amp;""</f>
-        <v>段麒</v>
+        <f t="array" ref="A105">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
+        <v>獨醉。</v>
       </c>
       <c r="B105" s="4">
         <f>VLOOKUP(A105,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A105,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41044,8 +41044,8 @@
     </row>
     <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="9" t="str">
-        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A94)))&amp;""</f>
-        <v>沉珠</v>
+        <f t="array" ref="A106">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
+        <v>琉璎</v>
       </c>
       <c r="B106" s="4">
         <f>VLOOKUP(A106,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A106,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41074,8 +41074,8 @@
     </row>
     <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="9" t="str">
-        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A97)))&amp;""</f>
-        <v>灬鬼丶舞灬</v>
+        <f t="array" ref="A107">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
+        <v>甄心</v>
       </c>
       <c r="B107" s="4">
         <f>VLOOKUP(A107,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A107,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41104,8 +41104,8 @@
     </row>
     <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="9" t="str">
-        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A98)))&amp;""</f>
-        <v>烈凝风</v>
+        <f t="array" ref="A108">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
+        <v>皈依奶小牛丶</v>
       </c>
       <c r="B108" s="4">
         <f>VLOOKUP(A108,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A108,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41134,8 +41134,8 @@
     </row>
     <row r="109" spans="1:7" ht="16.5">
       <c r="A109" s="9" t="str">
-        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A99)))&amp;""</f>
-        <v>狄万钧</v>
+        <f t="array" ref="A109">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
+        <v>真爱一定有颜色</v>
       </c>
       <c r="B109" s="4">
         <f>VLOOKUP(A109,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A109,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41164,8 +41164,8 @@
     </row>
     <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="9" t="str">
-        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A100)))&amp;""</f>
-        <v>獨醉。</v>
+        <f t="array" ref="A110">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
+        <v>神威司空阿龙</v>
       </c>
       <c r="B110" s="4">
         <f>VLOOKUP(A110,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A110,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41194,8 +41194,8 @@
     </row>
     <row r="111" spans="1:7" ht="16.5">
       <c r="A111" s="9" t="str">
-        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A101)))&amp;""</f>
-        <v>琉璎</v>
+        <f t="array" ref="A111">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
+        <v>秦友善。</v>
       </c>
       <c r="B111" s="4">
         <f>VLOOKUP(A111,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A111,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41224,8 +41224,8 @@
     </row>
     <row r="112" spans="1:7" ht="16.5">
       <c r="A112" s="9" t="str">
-        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A102)))&amp;""</f>
-        <v>甄心</v>
+        <f t="array" ref="A112">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
+        <v>空了</v>
       </c>
       <c r="B112" s="4">
         <f>VLOOKUP(A112,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A112,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41254,8 +41254,8 @@
     </row>
     <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="9" t="str">
-        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A103)))&amp;""</f>
-        <v>皈依奶小牛丶</v>
+        <f t="array" ref="A113">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
+        <v>笑看浮华红尘事</v>
       </c>
       <c r="B113" s="4">
         <f>VLOOKUP(A113,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A113,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41284,8 +41284,8 @@
     </row>
     <row r="114" spans="1:7" ht="16.5">
       <c r="A114" s="9" t="str">
-        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A104)))&amp;""</f>
-        <v>真爱一定有颜色</v>
+        <f t="array" ref="A114">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A109)))&amp;""</f>
+        <v>素以折扇</v>
       </c>
       <c r="B114" s="4">
         <f>VLOOKUP(A114,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A114,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41314,8 +41314,8 @@
     </row>
     <row r="115" spans="1:7" ht="16.5">
       <c r="A115" s="9" t="str">
-        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A105)))&amp;""</f>
-        <v>神威司空阿龙</v>
+        <f t="array" ref="A115">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
+        <v>繁华似激</v>
       </c>
       <c r="B115" s="4">
         <f>VLOOKUP(A115,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A115,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41344,8 +41344,8 @@
     </row>
     <row r="116" spans="1:7" ht="16.5">
       <c r="A116" s="9" t="str">
-        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A106)))&amp;""</f>
-        <v>秦友善。</v>
+        <f t="array" ref="A116">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
+        <v>翼刃凰</v>
       </c>
       <c r="B116" s="4">
         <f>VLOOKUP(A116,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A116,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41374,8 +41374,8 @@
     </row>
     <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="9" t="str">
-        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A107)))&amp;""</f>
-        <v>空了</v>
+        <f t="array" ref="A117">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
+        <v>舞恋月</v>
       </c>
       <c r="B117" s="4">
         <f>VLOOKUP(A117,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A117,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41404,8 +41404,8 @@
     </row>
     <row r="118" spans="1:7" ht="16.5">
       <c r="A118" s="9" t="str">
-        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A108)))&amp;""</f>
-        <v>笑看浮华红尘事</v>
+        <f t="array" ref="A118">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
+        <v>花儿盛盛开</v>
       </c>
       <c r="B118" s="4">
         <f>VLOOKUP(A118,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A118,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41434,8 +41434,8 @@
     </row>
     <row r="119" spans="1:7" ht="16.5">
       <c r="A119" s="9" t="str">
-        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A110)))&amp;""</f>
-        <v>繁华似激</v>
+        <f t="array" ref="A119">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
+        <v>苏小嫙。</v>
       </c>
       <c r="B119" s="4">
         <f>VLOOKUP(A119,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A119,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41464,8 +41464,8 @@
     </row>
     <row r="120" spans="1:7" ht="16.5">
       <c r="A120" s="9" t="str">
-        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A111)))&amp;""</f>
-        <v>翼刃凰</v>
+        <f t="array" ref="A120">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A115)))&amp;""</f>
+        <v>苏幕清</v>
       </c>
       <c r="B120" s="4">
         <f>VLOOKUP(A120,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A120,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41494,8 +41494,8 @@
     </row>
     <row r="121" spans="1:7" ht="16.5">
       <c r="A121" s="9" t="str">
-        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A112)))&amp;""</f>
-        <v>舞恋月</v>
+        <f t="array" ref="A121">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
+        <v>落叶秋雨</v>
       </c>
       <c r="B121" s="4">
         <f>VLOOKUP(A121,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A121,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41524,8 +41524,8 @@
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="9" t="str">
-        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A113)))&amp;""</f>
-        <v>花儿盛盛开</v>
+        <f t="array" ref="A122">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
+        <v>葉窕</v>
       </c>
       <c r="B122" s="4">
         <f>VLOOKUP(A122,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A122,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41554,8 +41554,8 @@
     </row>
     <row r="123" spans="1:7" ht="16.5">
       <c r="A123" s="9" t="str">
-        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A114)))&amp;""</f>
-        <v>苏小嫙。</v>
+        <f t="array" ref="A123">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A119)))&amp;""</f>
+        <v>蒹葭春羽</v>
       </c>
       <c r="B123" s="4">
         <f>VLOOKUP(A123,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A123,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41584,8 +41584,8 @@
     </row>
     <row r="124" spans="1:7" ht="16.5">
       <c r="A124" s="9" t="str">
-        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A117)))&amp;""</f>
-        <v>落叶秋雨</v>
+        <f t="array" ref="A124">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
+        <v>薄野岚</v>
       </c>
       <c r="B124" s="4">
         <f>VLOOKUP(A124,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A124,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41614,8 +41614,8 @@
     </row>
     <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="9" t="str">
-        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A118)))&amp;""</f>
-        <v>葉窕</v>
+        <f t="array" ref="A125">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
+        <v>薏苡。</v>
       </c>
       <c r="B125" s="4">
         <f>VLOOKUP(A125,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A125,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41644,8 +41644,8 @@
     </row>
     <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="9" t="str">
-        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A120)))&amp;""</f>
-        <v>薄野岚</v>
+        <f t="array" ref="A126">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
+        <v>语丶殇</v>
       </c>
       <c r="B126" s="4">
         <f>VLOOKUP(A126,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A126,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41674,8 +41674,8 @@
     </row>
     <row r="127" spans="1:7" ht="16.5">
       <c r="A127" s="9" t="str">
-        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A121)))&amp;""</f>
-        <v>薏苡。</v>
+        <f t="array" ref="A127">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
+        <v>超懒的阿元呀</v>
       </c>
       <c r="B127" s="4">
         <f>VLOOKUP(A127,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A127,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41704,8 +41704,8 @@
     </row>
     <row r="128" spans="1:7" ht="16.5">
       <c r="A128" s="9" t="str">
-        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A124)))&amp;""</f>
-        <v>语丶殇</v>
+        <f t="array" ref="A128">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
+        <v>轩伯颖</v>
       </c>
       <c r="B128" s="4">
         <f>VLOOKUP(A128,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A128,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41734,8 +41734,8 @@
     </row>
     <row r="129" spans="1:7" ht="16.5">
       <c r="A129" s="9" t="str">
-        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A125)))&amp;""</f>
-        <v>超懒的阿元呀</v>
+        <f t="array" ref="A129">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
+        <v>辉辉辉辉丶輝</v>
       </c>
       <c r="B129" s="4">
         <f>VLOOKUP(A129,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A129,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41764,8 +41764,8 @@
     </row>
     <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="9" t="str">
-        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A126)))&amp;""</f>
-        <v>轩伯颖</v>
+        <f t="array" ref="A130">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A128)))&amp;""</f>
+        <v>逃跑的糯米糕</v>
       </c>
       <c r="B130" s="4">
         <f>VLOOKUP(A130,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A130,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41794,8 +41794,8 @@
     </row>
     <row r="131" spans="1:7" ht="16.5">
       <c r="A131" s="9" t="str">
-        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A127)))&amp;""</f>
-        <v>辉辉辉辉丶輝</v>
+        <f t="array" ref="A131">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
+        <v>逍遥芙蕖</v>
       </c>
       <c r="B131" s="4">
         <f>VLOOKUP(A131,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A131,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41824,8 +41824,8 @@
     </row>
     <row r="132" spans="1:7" ht="16.5">
       <c r="A132" s="9" t="str">
-        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A129)))&amp;""</f>
-        <v>逍遥芙蕖</v>
+        <f t="array" ref="A132">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
+        <v>遇之则感。</v>
       </c>
       <c r="B132" s="4">
         <f>VLOOKUP(A132,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A132,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41854,8 +41854,8 @@
     </row>
     <row r="133" spans="1:7" ht="16.5">
       <c r="A133" s="9" t="str">
-        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A130)))&amp;""</f>
-        <v>遇之则感。</v>
+        <f t="array" ref="A133">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
+        <v>邱少</v>
       </c>
       <c r="B133" s="4">
         <f>VLOOKUP(A133,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A133,历史结余DKP!A$1:B$599,2,0))</f>
@@ -41884,8 +41884,8 @@
     </row>
     <row r="134" spans="1:7" ht="16.5">
       <c r="A134" s="9" t="str">
-        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A131)))&amp;""</f>
-        <v>邱少</v>
+        <f t="array" ref="A134">INDEX(联盟系统DKP榜单!A:A,SMALL(IF(联盟系统DKP榜单!$B$2:$B$600="双生何梦",ROW($2:$600),603),ROW(联盟系统DKP榜单!A132)))&amp;""</f>
+        <v>钟离三昧</v>
       </c>
       <c r="B134" s="4">
         <f>VLOOKUP(A134,联盟系统DKP榜单!A$1:C$598,3,FALSE)+IF(ISNA(VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0)),0,VLOOKUP(A134,历史结余DKP!A$1:B$599,2,0))</f>
